--- a/doc/worldview and mechanics/equiptype.xlsx
+++ b/doc/worldview and mechanics/equiptype.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7EAE08-CC2F-4481-B49A-45C6E98243C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9980F92-32BC-4A14-A5FA-248F4B898906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
+    <workbookView xWindow="11648" yWindow="0" windowWidth="10035" windowHeight="12863" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$84</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve">Mid-gun-flak(5inchGFCS)        </t>
   </si>
@@ -261,10 +264,6 @@
   </si>
   <si>
     <t>ispatrol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>islb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,13 +736,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG33" sqref="AG33"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>64</v>
@@ -845,10 +845,10 @@
         <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>66</v>
@@ -868,20 +868,20 @@
       <c r="L2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>72</v>
+      <c r="M2" s="1">
+        <v>4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -960,7 +960,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>A001</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>8002</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1203,9 +1203,9 @@
         <v>A002</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1282,7 +1282,7 @@
         <v>8003</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,9 +1440,9 @@
         <v>8005</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -1519,7 +1519,7 @@
         <v>8006</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1680,9 +1680,9 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1762,7 +1762,7 @@
         <v>6003</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>1B0420</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1">
         <v>5</v>
@@ -2874,7 +2874,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1C0500</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -3345,9 +3345,9 @@
         <v>A0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -3424,7 +3424,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -3503,9 +3503,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -3664,9 +3664,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K38" s="1">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -4536,7 +4536,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>A0000</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>B0000</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>48</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>D0000</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>49</v>
       </c>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
         <v>3</v>
@@ -6174,7 +6174,7 @@
         <v>F0003</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>53</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>56</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>57</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>58</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>59</v>
       </c>
@@ -6706,9 +6706,9 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P77" s="1">
         <v>23</v>
@@ -6782,9 +6782,9 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I78" s="1">
         <v>1</v>
@@ -6861,9 +6861,9 @@
         <v>180200</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -6943,9 +6943,9 @@
         <v>180500</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P80" s="1">
         <v>3</v>
@@ -7019,9 +7019,9 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P81" s="1">
         <v>5</v>
@@ -7095,9 +7095,9 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -7174,9 +7174,9 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -7253,9 +7253,9 @@
         <v>1E2000</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P84" s="1">
         <v>31</v>
@@ -7330,6 +7330,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P84" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/worldview and mechanics/equiptype.xlsx
+++ b/doc/worldview and mechanics/equiptype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9980F92-32BC-4A14-A5FA-248F4B898906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F15B7-EE74-40E0-A159-215605D7CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11648" yWindow="0" windowWidth="10035" windowHeight="12863" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -736,14 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AG84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -881,23 +880,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>30</v>
       </c>
       <c r="Q3" s="1">
         <f>B3*B$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:AE3" si="1">C3*C$1</f>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="1"/>
@@ -905,7 +904,7 @@
       </c>
       <c r="T3" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="1"/>
@@ -949,37 +948,34 @@
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1966080</v>
       </c>
       <c r="AF3" s="1">
         <f>SUM(Q3:AE3)</f>
-        <v>32769</v>
+        <v>1974272</v>
       </c>
       <c r="AG3" s="1" t="str">
         <f>DEC2HEX(AF3)</f>
-        <v>8001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+        <v>1E2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>25</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q21" si="2">B4*B$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R21" si="3">C4*C$1</f>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" ref="S4:S21" si="4">D4*D$1</f>
@@ -1031,34 +1027,31 @@
       </c>
       <c r="AE4" s="1">
         <f t="shared" ref="AE4:AE26" si="16">P4*P$1</f>
-        <v>0</v>
+        <v>1638400</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" ref="AF4:AF77" si="17">SUM(Q4:AE4)</f>
-        <v>40961</v>
+        <v>1646592</v>
       </c>
       <c r="AG4" s="1" t="str">
         <f t="shared" ref="AG4:AG78" si="18">DEC2HEX(AF4)</f>
-        <v>A001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="1">
+        <v>21</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="4"/>
@@ -1110,37 +1103,31 @@
       </c>
       <c r="AE5" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1376256</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="17"/>
-        <v>32770</v>
+        <v>1376256</v>
       </c>
       <c r="AG5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="1">
+        <v>8</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="4"/>
@@ -1148,7 +1135,7 @@
       </c>
       <c r="T6" s="1">
         <f t="shared" si="5"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="6"/>
@@ -1192,34 +1179,31 @@
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>524288</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="17"/>
-        <v>40962</v>
+        <v>524288</v>
       </c>
       <c r="AG6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1">
+        <v>7</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ref="R7" si="19">C7*C$1</f>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" ref="S7" si="20">D7*D$1</f>
@@ -1271,34 +1255,31 @@
       </c>
       <c r="AE7" s="1">
         <f t="shared" ref="AE7" si="32">P7*P$1</f>
-        <v>0</v>
+        <v>458752</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ref="AF7" si="33">SUM(Q7:AE7)</f>
-        <v>32771</v>
+        <v>458752</v>
       </c>
       <c r="AG7" s="1" t="str">
         <f t="shared" ref="AG7" si="34">DEC2HEX(AF7)</f>
-        <v>8003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="4"/>
@@ -1350,34 +1331,37 @@
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>393216</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="17"/>
-        <v>32772</v>
+        <v>393216</v>
       </c>
       <c r="AG8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>1</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="4"/>
@@ -1401,11 +1385,11 @@
       </c>
       <c r="X9" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z9" s="1">
         <f t="shared" si="11"/>
@@ -1417,7 +1401,7 @@
       </c>
       <c r="AB9" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" si="14"/>
@@ -1433,30 +1417,36 @@
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="17"/>
-        <v>32773</v>
+        <v>800</v>
       </c>
       <c r="AG9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" ref="S10" si="35">D10*D$1</f>
@@ -1480,11 +1470,11 @@
       </c>
       <c r="X10" s="1">
         <f t="shared" ref="X10" si="40">I10*I$1</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ref="Y10" si="41">J10*J$1</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ref="Z10" si="42">K10*K$1</f>
@@ -1496,7 +1486,7 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" ref="AB10" si="44">M10*M$1</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ref="AC10" si="45">N10*N$1</f>
@@ -1512,26 +1502,32 @@
       </c>
       <c r="AF10" s="1">
         <f t="shared" ref="AF10" si="48">SUM(Q10:AE10)</f>
-        <v>32774</v>
+        <v>805</v>
       </c>
       <c r="AG10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
@@ -1539,7 +1535,7 @@
       </c>
       <c r="S11" s="1">
         <f t="shared" si="4"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="5"/>
@@ -1555,15 +1551,15 @@
       </c>
       <c r="W11" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="11"/>
@@ -1575,7 +1571,7 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="14"/>
@@ -1591,29 +1587,23 @@
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="17"/>
-        <v>16386</v>
+        <v>1824</v>
       </c>
       <c r="AG11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" si="3"/>
@@ -1621,11 +1611,11 @@
       </c>
       <c r="S12" s="1">
         <f t="shared" si="4"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="5"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="6"/>
@@ -1669,45 +1659,42 @@
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>327680</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="17"/>
-        <v>24578</v>
+        <v>327680</v>
       </c>
       <c r="AG12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" ref="R13" si="49">C13*C$1</f>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S13" s="1">
         <f t="shared" ref="S13" si="50">D13*D$1</f>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" ref="T13" si="51">E13*E$1</f>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" ref="U13" si="52">F13*F$1</f>
@@ -1755,21 +1742,18 @@
       </c>
       <c r="AF13" s="1">
         <f t="shared" ref="AF13" si="63">SUM(Q13:AE13)</f>
-        <v>24579</v>
+        <v>32772</v>
       </c>
       <c r="AG13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
+        <v>18</v>
+      </c>
+      <c r="J14" s="1">
         <v>1</v>
       </c>
       <c r="Q14" s="1">
@@ -1790,11 +1774,11 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="6"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="7"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="8"/>
@@ -1806,7 +1790,7 @@
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z14" s="1">
         <f t="shared" si="11"/>
@@ -1834,18 +1818,21 @@
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="17"/>
-        <v>6144</v>
+        <v>256</v>
       </c>
       <c r="AG14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="Q15" s="1">
@@ -1870,11 +1857,11 @@
       </c>
       <c r="V15" s="1">
         <f t="shared" si="7"/>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X15" s="1">
         <f t="shared" si="9"/>
@@ -1882,7 +1869,7 @@
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="11"/>
@@ -1910,19 +1897,25 @@
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="17"/>
-        <v>2048</v>
+        <v>1280</v>
       </c>
       <c r="AG15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="2"/>
@@ -1950,7 +1943,7 @@
       </c>
       <c r="W16" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="9"/>
@@ -1958,7 +1951,7 @@
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="11"/>
@@ -1982,23 +1975,29 @@
       </c>
       <c r="AE16" s="1">
         <f t="shared" si="16"/>
-        <v>65536</v>
+        <v>1835008</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="17"/>
-        <v>65536</v>
+        <v>1836288</v>
       </c>
       <c r="AG16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>1C0500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>24</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="2"/>
@@ -2034,7 +2033,7 @@
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="11"/>
@@ -2058,25 +2057,22 @@
       </c>
       <c r="AE17" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1572864</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="17"/>
-        <v>1024</v>
+        <v>1574144</v>
       </c>
       <c r="AG17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>180500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="Q18" s="1">
@@ -2105,11 +2101,11 @@
       </c>
       <c r="W18" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y18" s="1">
         <f t="shared" si="10"/>
@@ -2129,7 +2125,7 @@
       </c>
       <c r="AC18" s="1">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <f t="shared" si="15"/>
@@ -2141,21 +2137,21 @@
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="17"/>
-        <v>1040</v>
+        <v>512</v>
       </c>
       <c r="AG18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="Q19" s="1">
@@ -2184,15 +2180,15 @@
       </c>
       <c r="W19" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="11"/>
@@ -2204,7 +2200,7 @@
       </c>
       <c r="AB19" s="1">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" si="14"/>
@@ -2220,25 +2216,22 @@
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="17"/>
-        <v>1056</v>
+        <v>768</v>
       </c>
       <c r="AG19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1">
-        <v>27</v>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="2"/>
@@ -2270,7 +2263,7 @@
       </c>
       <c r="X20" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" si="10"/>
@@ -2286,7 +2279,7 @@
       </c>
       <c r="AB20" s="1">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="14"/>
@@ -2298,23 +2291,26 @@
       </c>
       <c r="AE20" s="1">
         <f t="shared" si="16"/>
-        <v>1769472</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="17"/>
-        <v>1770528</v>
+        <v>1536</v>
       </c>
       <c r="AG20" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1B0420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>24</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="2"/>
@@ -2374,18 +2370,18 @@
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1572864</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="17"/>
-        <v>512</v>
+        <v>1573376</v>
       </c>
       <c r="AG21" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>180200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2464,19 +2460,19 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>29</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="65"/>
@@ -2500,11 +2496,11 @@
       </c>
       <c r="W23" s="1">
         <f t="shared" si="70"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="71"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="72"/>
@@ -2532,30 +2528,30 @@
       </c>
       <c r="AE23" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1900544</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="17"/>
-        <v>1536</v>
+        <v>1900547</v>
       </c>
       <c r="AG23" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
+        <v>1D0003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>29</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="65"/>
@@ -2583,11 +2579,11 @@
       </c>
       <c r="X24" s="1">
         <f t="shared" si="71"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <f t="shared" si="73"/>
@@ -2611,29 +2607,23 @@
       </c>
       <c r="AE24" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1900544</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" si="17"/>
-        <v>768</v>
+        <v>1900546</v>
       </c>
       <c r="AG24" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
+        <v>1D0002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="1">
+        <v>20</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="64"/>
@@ -2665,11 +2655,11 @@
       </c>
       <c r="X25" s="1">
         <f t="shared" si="71"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <f t="shared" si="73"/>
@@ -2681,7 +2671,7 @@
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="75"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="76"/>
@@ -2693,36 +2683,30 @@
       </c>
       <c r="AE25" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1310720</v>
       </c>
       <c r="AF25" s="1">
         <f t="shared" si="17"/>
-        <v>800</v>
+        <v>1310720</v>
       </c>
       <c r="AG25" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1</v>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>2</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" si="65"/>
@@ -2746,15 +2730,15 @@
       </c>
       <c r="W26" s="1">
         <f t="shared" si="70"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
         <f t="shared" si="71"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <f t="shared" si="73"/>
@@ -2766,7 +2750,7 @@
       </c>
       <c r="AB26" s="1">
         <f t="shared" si="75"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
         <f t="shared" si="76"/>
@@ -2778,36 +2762,30 @@
       </c>
       <c r="AE26" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="AF26" s="1">
         <f t="shared" si="17"/>
-        <v>1824</v>
+        <v>131074</v>
       </c>
       <c r="AG26" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>720</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>90</v>
+      <c r="A27" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" ref="Q27" si="77">B27*B$1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" ref="R27" si="78">C27*C$1</f>
@@ -2835,11 +2813,11 @@
       </c>
       <c r="X27" s="1">
         <f t="shared" ref="X27" si="84">I27*I$1</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <f t="shared" ref="Y27" si="85">J27*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
         <f t="shared" ref="Z27" si="86">K27*K$1</f>
@@ -2851,7 +2829,7 @@
       </c>
       <c r="AB27" s="1">
         <f t="shared" ref="AB27" si="88">M27*M$1</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
         <f t="shared" ref="AC27" si="89">N27*N$1</f>
@@ -2863,26 +2841,23 @@
       </c>
       <c r="AE27" s="1">
         <f t="shared" ref="AE27" si="91">P27*P$1</f>
-        <v>0</v>
+        <v>131072</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" ref="AF27" si="92">SUM(Q27:AE27)</f>
-        <v>805</v>
+        <v>131073</v>
       </c>
       <c r="AG27" s="1" t="str">
         <f t="shared" ref="AG27" si="93">DEC2HEX(AF27)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
-        <v>1</v>
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P28" s="1">
+        <v>11</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="64"/>
@@ -2926,11 +2901,11 @@
       </c>
       <c r="AA28" s="1">
         <f t="shared" si="74"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
         <f t="shared" si="75"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
         <f t="shared" si="76"/>
@@ -2942,23 +2917,23 @@
       </c>
       <c r="AE28" s="1">
         <f t="shared" ref="AE28:AE77" si="95">P28*P$1</f>
-        <v>0</v>
+        <v>720896</v>
       </c>
       <c r="AF28" s="1">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>720896</v>
       </c>
       <c r="AG28" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
+        <v>B0000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="1">
+        <v>14</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="64"/>
@@ -2994,7 +2969,7 @@
       </c>
       <c r="Y29" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
         <f t="shared" si="73"/>
@@ -3018,26 +2993,23 @@
       </c>
       <c r="AE29" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>917504</v>
       </c>
       <c r="AF29" s="1">
         <f t="shared" si="17"/>
-        <v>256</v>
+        <v>917504</v>
       </c>
       <c r="AG29" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
+        <v>E0000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="1">
+        <v>13</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="64"/>
@@ -3065,7 +3037,7 @@
       </c>
       <c r="W30" s="1">
         <f t="shared" si="70"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
         <f t="shared" si="71"/>
@@ -3073,7 +3045,7 @@
       </c>
       <c r="Y30" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" si="73"/>
@@ -3097,29 +3069,23 @@
       </c>
       <c r="AE30" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>851968</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" si="17"/>
-        <v>1280</v>
+        <v>851968</v>
       </c>
       <c r="AG30" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
+        <v>D0000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H31" s="1">
         <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1">
-        <v>28</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="64"/>
@@ -3155,7 +3121,7 @@
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="73"/>
@@ -3179,22 +3145,25 @@
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="95"/>
-        <v>1835008</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="17"/>
-        <v>1836288</v>
+        <v>1024</v>
       </c>
       <c r="AG31" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1C0500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="1">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
         <v>1</v>
       </c>
       <c r="Q32" s="1">
@@ -3223,7 +3192,7 @@
       </c>
       <c r="W32" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X32" s="1">
         <f t="shared" si="71"/>
@@ -3235,7 +3204,7 @@
       </c>
       <c r="Z32" s="1">
         <f t="shared" si="73"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" si="74"/>
@@ -3243,7 +3212,7 @@
       </c>
       <c r="AB32" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC32" s="1">
         <f t="shared" si="76"/>
@@ -3259,22 +3228,25 @@
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="17"/>
-        <v>128</v>
+        <v>1056</v>
       </c>
       <c r="AG32" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
         <v>1</v>
       </c>
       <c r="M33" s="1">
         <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>27</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="64"/>
@@ -3302,7 +3274,7 @@
       </c>
       <c r="W33" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X33" s="1">
         <f t="shared" si="71"/>
@@ -3314,7 +3286,7 @@
       </c>
       <c r="Z33" s="1">
         <f t="shared" si="73"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="74"/>
@@ -3334,25 +3306,25 @@
       </c>
       <c r="AE33" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1769472</v>
       </c>
       <c r="AF33" s="1">
         <f t="shared" si="17"/>
-        <v>160</v>
+        <v>1770528</v>
       </c>
       <c r="AG33" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>1B0420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1">
+      <c r="N34" s="1">
         <v>1</v>
       </c>
       <c r="Q34" s="1">
@@ -3393,7 +3365,7 @@
       </c>
       <c r="Z34" s="1">
         <f t="shared" ref="Z34" si="105">K34*K$1</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" ref="AA34" si="106">L34*L$1</f>
@@ -3405,7 +3377,7 @@
       </c>
       <c r="AC34" s="1">
         <f t="shared" ref="AC34" si="108">N34*N$1</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD34" s="1">
         <f t="shared" ref="AD34" si="109">O34*O$1</f>
@@ -3417,22 +3389,19 @@
       </c>
       <c r="AF34" s="1">
         <f t="shared" ref="AF34" si="111">SUM(Q34:AE34)</f>
-        <v>1152</v>
+        <v>1040</v>
       </c>
       <c r="AG34" s="1" t="str">
         <f t="shared" ref="AG34" si="112">DEC2HEX(AF34)</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P35" s="1">
+        <v>26</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="64"/>
@@ -3468,7 +3437,7 @@
       </c>
       <c r="Y35" s="1">
         <f t="shared" si="72"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
         <f t="shared" si="73"/>
@@ -3488,33 +3457,27 @@
       </c>
       <c r="AD35" s="1">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1703936</v>
       </c>
       <c r="AF35" s="1">
         <f t="shared" si="17"/>
-        <v>264</v>
+        <v>1703936</v>
       </c>
       <c r="AG35" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
+        <v>1A0000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="1">
+        <v>19</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" ref="Q36" si="113">B36*B$1</f>
@@ -3550,7 +3513,7 @@
       </c>
       <c r="Y36" s="1">
         <f t="shared" ref="Y36" si="121">J36*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <f t="shared" ref="Z36" si="122">K36*K$1</f>
@@ -3566,34 +3529,31 @@
       </c>
       <c r="AC36" s="1">
         <f t="shared" ref="AC36" si="125">N36*N$1</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="1">
         <f t="shared" ref="AD36" si="126">O36*O$1</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="1">
         <f t="shared" ref="AE36" si="127">P36*P$1</f>
-        <v>0</v>
+        <v>1245184</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" ref="AF36" si="128">SUM(Q36:AE36)</f>
-        <v>280</v>
+        <v>1245184</v>
       </c>
       <c r="AG36" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1</v>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" s="1">
+        <v>31</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="64"/>
@@ -3633,7 +3593,7 @@
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="73"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="74"/>
@@ -3649,33 +3609,27 @@
       </c>
       <c r="AD37" s="1">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>2031616</v>
       </c>
       <c r="AF37" s="1">
         <f t="shared" si="17"/>
-        <v>136</v>
+        <v>2031616</v>
       </c>
       <c r="AG37" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
+        <v>1F0000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="1">
+        <v>9</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" ref="Q38" si="129">B38*B$1</f>
@@ -3715,7 +3669,7 @@
       </c>
       <c r="Z38" s="1">
         <f t="shared" ref="Z38" si="138">K38*K$1</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" ref="AA38" si="139">L38*L$1</f>
@@ -3727,34 +3681,31 @@
       </c>
       <c r="AC38" s="1">
         <f t="shared" ref="AC38" si="141">N38*N$1</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="1">
         <f t="shared" ref="AD38" si="142">O38*O$1</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="1">
         <f t="shared" ref="AE38" si="143">P38*P$1</f>
-        <v>0</v>
+        <v>589824</v>
       </c>
       <c r="AF38" s="1">
         <f t="shared" ref="AF38" si="144">SUM(Q38:AE38)</f>
-        <v>152</v>
+        <v>589824</v>
       </c>
       <c r="AG38" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" s="1">
+        <v>10</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="64"/>
@@ -3782,7 +3733,7 @@
       </c>
       <c r="W39" s="1">
         <f t="shared" si="70"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
         <f t="shared" si="71"/>
@@ -3810,27 +3761,27 @@
       </c>
       <c r="AD39" s="1">
         <f t="shared" si="94"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>655360</v>
       </c>
       <c r="AF39" s="1">
         <f t="shared" si="17"/>
-        <v>1032</v>
+        <v>655360</v>
       </c>
       <c r="AG39" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>A0000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="P40" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="64"/>
@@ -3890,25 +3841,28 @@
       </c>
       <c r="AE40" s="1">
         <f t="shared" si="95"/>
-        <v>1703936</v>
+        <v>65536</v>
       </c>
       <c r="AF40" s="1">
         <f t="shared" si="17"/>
-        <v>1703936</v>
+        <v>65536</v>
       </c>
       <c r="AG40" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1A0000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
       </c>
-      <c r="L41" s="1">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="Q41" s="1">
@@ -3917,7 +3871,7 @@
       </c>
       <c r="R41" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S41" s="1">
         <f t="shared" si="66"/>
@@ -3925,7 +3879,7 @@
       </c>
       <c r="T41" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="68"/>
@@ -3953,7 +3907,7 @@
       </c>
       <c r="AA41" s="1">
         <f t="shared" si="74"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="1">
         <f t="shared" si="75"/>
@@ -3973,30 +3927,30 @@
       </c>
       <c r="AF41" s="1">
         <f t="shared" si="17"/>
-        <v>66</v>
+        <v>40962</v>
       </c>
       <c r="AG41" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>A002</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S42" s="1">
         <f t="shared" si="66"/>
@@ -4032,7 +3986,7 @@
       </c>
       <c r="AA42" s="1">
         <f t="shared" si="74"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="1">
         <f t="shared" si="75"/>
@@ -4052,33 +4006,30 @@
       </c>
       <c r="AF42" s="1">
         <f t="shared" si="17"/>
-        <v>65</v>
+        <v>32770</v>
       </c>
       <c r="AG42" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" ref="Q43" si="145">B43*B$1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" ref="R43" si="146">C43*C$1</f>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" ref="S43" si="147">D43*D$1</f>
@@ -4098,7 +4049,7 @@
       </c>
       <c r="W43" s="1">
         <f t="shared" ref="W43" si="151">H43*H$1</f>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" ref="X43" si="152">I43*I$1</f>
@@ -4114,7 +4065,7 @@
       </c>
       <c r="AA43" s="1">
         <f t="shared" ref="AA43" si="155">L43*L$1</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" ref="AB43" si="156">M43*M$1</f>
@@ -4134,22 +4085,22 @@
       </c>
       <c r="AF43" s="1">
         <f t="shared" ref="AF43" si="160">SUM(Q43:AE43)</f>
-        <v>1089</v>
+        <v>32771</v>
       </c>
       <c r="AG43" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>441</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>29</v>
+      <c r="A44" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="P44" s="1">
-        <v>2</v>
+      <c r="L44" s="1">
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="64"/>
@@ -4193,7 +4144,7 @@
       </c>
       <c r="AA44" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="75"/>
@@ -4209,30 +4160,30 @@
       </c>
       <c r="AE44" s="1">
         <f t="shared" si="95"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="1">
         <f t="shared" si="17"/>
-        <v>131074</v>
+        <v>66</v>
       </c>
       <c r="AG44" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>20002</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="1">
-        <v>2</v>
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="65"/>
@@ -4272,11 +4223,11 @@
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="76"/>
@@ -4288,30 +4239,30 @@
       </c>
       <c r="AE45" s="1">
         <f t="shared" si="95"/>
-        <v>131072</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="1">
         <f t="shared" si="17"/>
-        <v>131073</v>
+        <v>96</v>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>20001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
+      <c r="A46" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
-      </c>
-      <c r="P46" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" ref="R46" si="161">C46*C$1</f>
@@ -4351,7 +4302,7 @@
       </c>
       <c r="AA46" s="1">
         <f t="shared" ref="AA46" si="170">L46*L$1</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB46" s="1">
         <f t="shared" ref="AB46" si="171">M46*M$1</f>
@@ -4367,30 +4318,33 @@
       </c>
       <c r="AE46" s="1">
         <f t="shared" ref="AE46" si="174">P46*P$1</f>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="1">
         <f t="shared" ref="AF46" si="175">SUM(Q46:AE46)</f>
-        <v>262147</v>
+        <v>65</v>
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" ref="AG46" si="176">DEC2HEX(AF46)</f>
-        <v>40003</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>31</v>
+      <c r="A47" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="P47" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="65"/>
@@ -4414,7 +4368,7 @@
       </c>
       <c r="W47" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X47" s="1">
         <f t="shared" si="71"/>
@@ -4430,7 +4384,7 @@
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="75"/>
@@ -4446,30 +4400,33 @@
       </c>
       <c r="AE47" s="1">
         <f t="shared" si="95"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="1">
         <f t="shared" si="17"/>
-        <v>262146</v>
+        <v>1089</v>
       </c>
       <c r="AG47" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40002</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>32</v>
+      <c r="A48" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="P48" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="65"/>
@@ -4481,11 +4438,11 @@
       </c>
       <c r="T48" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U48" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V48" s="1">
         <f t="shared" si="69"/>
@@ -4525,27 +4482,30 @@
       </c>
       <c r="AE48" s="1">
         <f t="shared" si="95"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="17"/>
-        <v>262145</v>
+        <v>12290</v>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P49" s="1">
-        <v>6</v>
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49" s="1">
         <f t="shared" si="65"/>
@@ -4557,7 +4517,7 @@
       </c>
       <c r="T49" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U49" s="1">
         <f t="shared" si="68"/>
@@ -4601,27 +4561,30 @@
       </c>
       <c r="AE49" s="1">
         <f t="shared" si="95"/>
-        <v>393216</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="1">
         <f t="shared" si="17"/>
-        <v>393216</v>
+        <v>8194</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="1">
-        <v>7</v>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" si="65"/>
@@ -4637,7 +4600,7 @@
       </c>
       <c r="U50" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V50" s="1">
         <f t="shared" si="69"/>
@@ -4677,27 +4640,33 @@
       </c>
       <c r="AE50" s="1">
         <f t="shared" si="95"/>
-        <v>458752</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="1">
         <f t="shared" si="17"/>
-        <v>458752</v>
+        <v>4098</v>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P51" s="1">
-        <v>8</v>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="65"/>
@@ -4709,11 +4678,11 @@
       </c>
       <c r="T51" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U51" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V51" s="1">
         <f t="shared" si="69"/>
@@ -4753,27 +4722,30 @@
       </c>
       <c r="AE51" s="1">
         <f t="shared" si="95"/>
-        <v>524288</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="1">
         <f t="shared" si="17"/>
-        <v>524288</v>
+        <v>12289</v>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P52" s="1">
-        <v>9</v>
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="65"/>
@@ -4785,7 +4757,7 @@
       </c>
       <c r="T52" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="68"/>
@@ -4829,27 +4801,30 @@
       </c>
       <c r="AE52" s="1">
         <f t="shared" si="95"/>
-        <v>589824</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="17"/>
-        <v>589824</v>
+        <v>8193</v>
       </c>
       <c r="AG52" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P53" s="1">
-        <v>10</v>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="65"/>
@@ -4865,7 +4840,7 @@
       </c>
       <c r="U53" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="69"/>
@@ -4905,27 +4880,27 @@
       </c>
       <c r="AE53" s="1">
         <f t="shared" si="95"/>
-        <v>655360</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="17"/>
-        <v>655360</v>
+        <v>4097</v>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A0000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" s="1">
-        <v>11</v>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="65"/>
@@ -4981,27 +4956,33 @@
       </c>
       <c r="AE54" s="1">
         <f t="shared" si="95"/>
-        <v>720896</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="17"/>
-        <v>720896</v>
+        <v>7</v>
       </c>
       <c r="AG54" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>B0000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P55" s="1">
-        <v>12</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="65"/>
@@ -5013,11 +4994,11 @@
       </c>
       <c r="T55" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="69"/>
@@ -5057,30 +5038,27 @@
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="95"/>
-        <v>786432</v>
+        <v>0</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="17"/>
-        <v>786432</v>
+        <v>12291</v>
       </c>
       <c r="AG55" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>C0000</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+        <v>21</v>
+      </c>
+      <c r="K56" s="1">
         <v>1</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" si="65"/>
@@ -5092,7 +5070,7 @@
       </c>
       <c r="T56" s="1">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" si="68"/>
@@ -5116,7 +5094,7 @@
       </c>
       <c r="Z56" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA56" s="1">
         <f t="shared" si="74"/>
@@ -5140,26 +5118,26 @@
       </c>
       <c r="AF56" s="1">
         <f t="shared" si="17"/>
-        <v>8193</v>
+        <v>128</v>
       </c>
       <c r="AG56" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>2001</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
+        <v>95</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="65"/>
@@ -5175,7 +5153,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="69"/>
@@ -5183,7 +5161,7 @@
       </c>
       <c r="W57" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" si="71"/>
@@ -5195,7 +5173,7 @@
       </c>
       <c r="Z57" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA57" s="1">
         <f t="shared" si="74"/>
@@ -5219,29 +5197,26 @@
       </c>
       <c r="AF57" s="1">
         <f t="shared" si="17"/>
-        <v>4097</v>
+        <v>1152</v>
       </c>
       <c r="AG57" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1001</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
+        <v>22</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
         <v>1</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" si="65"/>
@@ -5253,11 +5228,11 @@
       </c>
       <c r="T58" s="1">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V58" s="1">
         <f t="shared" si="69"/>
@@ -5277,7 +5252,7 @@
       </c>
       <c r="Z58" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA58" s="1">
         <f t="shared" si="74"/>
@@ -5285,7 +5260,7 @@
       </c>
       <c r="AB58" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="76"/>
@@ -5301,26 +5276,23 @@
       </c>
       <c r="AF58" s="1">
         <f t="shared" si="17"/>
-        <v>12289</v>
+        <v>160</v>
       </c>
       <c r="AG58" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3001</v>
+        <v>A0</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="1">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
+      <c r="A59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="1">
+        <v>22</v>
       </c>
       <c r="Q59" s="1">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" si="65"/>
@@ -5332,7 +5304,7 @@
       </c>
       <c r="T59" s="1">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="68"/>
@@ -5376,30 +5348,27 @@
       </c>
       <c r="AE59" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1441792</v>
       </c>
       <c r="AF59" s="1">
         <f t="shared" si="17"/>
-        <v>8194</v>
+        <v>1441792</v>
       </c>
       <c r="AG59" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>2002</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P60" s="1">
+        <v>17</v>
       </c>
       <c r="Q60" s="1">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" si="65"/>
@@ -5415,7 +5384,7 @@
       </c>
       <c r="U60" s="1">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1">
         <f t="shared" si="69"/>
@@ -5455,33 +5424,30 @@
       </c>
       <c r="AE60" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1114112</v>
       </c>
       <c r="AF60" s="1">
         <f t="shared" si="17"/>
-        <v>4098</v>
+        <v>1114112</v>
       </c>
       <c r="AG60" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1002</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A61" s="1" t="s">
-        <v>45</v>
+      <c r="A61" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1">
-        <v>1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>15</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" si="65"/>
@@ -5493,11 +5459,11 @@
       </c>
       <c r="T61" s="1">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U61" s="1">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" si="69"/>
@@ -5537,29 +5503,26 @@
       </c>
       <c r="AE61" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>983040</v>
       </c>
       <c r="AF61" s="1">
         <f t="shared" si="17"/>
-        <v>12290</v>
+        <v>983041</v>
       </c>
       <c r="AG61" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3002</v>
+        <v>F0001</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>46</v>
+      <c r="A62" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
       </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
+      <c r="P62" s="1">
+        <v>15</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="64"/>
@@ -5575,11 +5538,11 @@
       </c>
       <c r="T62" s="1">
         <f t="shared" si="67"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U62" s="1">
         <f t="shared" si="68"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V62" s="1">
         <f t="shared" si="69"/>
@@ -5619,27 +5582,33 @@
       </c>
       <c r="AE62" s="1">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>983040</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>12291</v>
+        <v>983043</v>
       </c>
       <c r="AG62" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3003</v>
+        <v>F0003</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="64"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" si="65"/>
@@ -5647,11 +5616,11 @@
       </c>
       <c r="S63" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T63" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U63" s="1">
         <f t="shared" si="68"/>
@@ -5699,23 +5668,29 @@
       </c>
       <c r="AF63" s="1">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>24578</v>
       </c>
       <c r="AG63" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P64" s="1">
-        <v>13</v>
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="65"/>
@@ -5723,11 +5698,11 @@
       </c>
       <c r="S64" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T64" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U64" s="1">
         <f t="shared" si="68"/>
@@ -5771,27 +5746,30 @@
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="95"/>
-        <v>851968</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="17"/>
-        <v>851968</v>
+        <v>24579</v>
       </c>
       <c r="AG64" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>D0000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P65" s="1">
-        <v>14</v>
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" si="65"/>
@@ -5799,7 +5777,7 @@
       </c>
       <c r="S65" s="1">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T65" s="1">
         <f t="shared" si="67"/>
@@ -5847,34 +5825,37 @@
       </c>
       <c r="AE65" s="1">
         <f t="shared" si="95"/>
-        <v>917504</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="1">
         <f t="shared" si="17"/>
-        <v>917504</v>
+        <v>16386</v>
       </c>
       <c r="AG65" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>E0000</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
-        <v>50</v>
+      <c r="A66" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
-      </c>
-      <c r="P66" s="1">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="64"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S66" s="1">
         <f t="shared" si="66"/>
@@ -5882,7 +5863,7 @@
       </c>
       <c r="T66" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="68"/>
@@ -5926,34 +5907,34 @@
       </c>
       <c r="AE66" s="1">
         <f t="shared" si="95"/>
-        <v>1900544</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="17"/>
-        <v>1900546</v>
+        <v>40961</v>
       </c>
       <c r="AG66" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1D0002</v>
+        <v>A001</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
+      <c r="A67" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B67" s="1">
-        <v>3</v>
-      </c>
-      <c r="P67" s="1">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S67" s="1">
         <f t="shared" si="66"/>
@@ -6005,30 +5986,27 @@
       </c>
       <c r="AE67" s="1">
         <f t="shared" si="95"/>
-        <v>1900544</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="17"/>
-        <v>1900547</v>
+        <v>32769</v>
       </c>
       <c r="AG67" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1D0003</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="1">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="P68" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="65"/>
@@ -6084,30 +6062,30 @@
       </c>
       <c r="AE68" s="1">
         <f t="shared" si="95"/>
-        <v>983040</v>
+        <v>196608</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="17"/>
-        <v>983041</v>
+        <v>196608</v>
       </c>
       <c r="AG68" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0001</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P69" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q69" s="1">
         <f t="shared" ref="Q69" si="177">B69*B$1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
         <f t="shared" ref="R69" si="178">C69*C$1</f>
@@ -6163,27 +6141,30 @@
       </c>
       <c r="AE69" s="1">
         <f t="shared" ref="AE69" si="191">P69*P$1</f>
-        <v>983040</v>
+        <v>262144</v>
       </c>
       <c r="AF69" s="1">
         <f t="shared" ref="AF69" si="192">SUM(Q69:AE69)</f>
-        <v>983043</v>
+        <v>262145</v>
       </c>
       <c r="AG69" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2</v>
       </c>
       <c r="P70" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R70" s="1">
         <f t="shared" si="65"/>
@@ -6239,27 +6220,30 @@
       </c>
       <c r="AE70" s="1">
         <f t="shared" si="95"/>
-        <v>1048576</v>
+        <v>262144</v>
       </c>
       <c r="AF70" s="1">
         <f t="shared" si="17"/>
-        <v>1048576</v>
+        <v>262146</v>
       </c>
       <c r="AG70" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
       </c>
       <c r="P71" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="1">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R71" s="1">
         <f t="shared" si="65"/>
@@ -6315,23 +6299,26 @@
       </c>
       <c r="AE71" s="1">
         <f t="shared" si="95"/>
-        <v>1114112</v>
+        <v>262144</v>
       </c>
       <c r="AF71" s="1">
         <f t="shared" si="17"/>
-        <v>1114112</v>
+        <v>262147</v>
       </c>
       <c r="AG71" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P72" s="1">
-        <v>18</v>
+        <v>40003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="1">
+        <v>1</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="64"/>
@@ -6367,7 +6354,7 @@
       </c>
       <c r="Y72" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z72" s="1">
         <f t="shared" si="73"/>
@@ -6387,27 +6374,33 @@
       </c>
       <c r="AD72" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE72" s="1">
         <f t="shared" si="95"/>
-        <v>1179648</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="1">
         <f t="shared" si="17"/>
-        <v>1179648</v>
+        <v>264</v>
       </c>
       <c r="AG72" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P73" s="1">
-        <v>19</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
         <f t="shared" si="64"/>
@@ -6443,7 +6436,7 @@
       </c>
       <c r="Y73" s="1">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z73" s="1">
         <f t="shared" si="73"/>
@@ -6459,31 +6452,34 @@
       </c>
       <c r="AC73" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD73" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE73" s="1">
         <f t="shared" si="95"/>
-        <v>1245184</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="1">
         <f t="shared" si="17"/>
-        <v>1245184</v>
+        <v>280</v>
       </c>
       <c r="AG73" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P74" s="1">
-        <v>20</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" si="64"/>
@@ -6511,7 +6507,7 @@
       </c>
       <c r="W74" s="1">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X74" s="1">
         <f t="shared" si="71"/>
@@ -6539,27 +6535,30 @@
       </c>
       <c r="AD74" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE74" s="1">
         <f t="shared" si="95"/>
-        <v>1310720</v>
+        <v>0</v>
       </c>
       <c r="AF74" s="1">
         <f t="shared" si="17"/>
-        <v>1310720</v>
+        <v>1032</v>
       </c>
       <c r="AG74" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P75" s="1">
-        <v>21</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="64"/>
@@ -6599,7 +6598,7 @@
       </c>
       <c r="Z75" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" si="74"/>
@@ -6615,27 +6614,33 @@
       </c>
       <c r="AD75" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE75" s="1">
         <f t="shared" si="95"/>
-        <v>1376256</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="1">
         <f t="shared" si="17"/>
-        <v>1376256</v>
+        <v>136</v>
       </c>
       <c r="AG75" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P76" s="1">
-        <v>22</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="64"/>
@@ -6675,7 +6680,7 @@
       </c>
       <c r="Z76" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA76" s="1">
         <f t="shared" si="74"/>
@@ -6687,31 +6692,31 @@
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD76" s="1">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE76" s="1">
         <f t="shared" si="95"/>
-        <v>1441792</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" si="17"/>
-        <v>1441792</v>
+        <v>152</v>
       </c>
       <c r="AG76" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P77" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q77" s="1">
         <f t="shared" si="64"/>
@@ -6771,34 +6776,34 @@
       </c>
       <c r="AE77" s="1">
         <f t="shared" si="95"/>
-        <v>1507328</v>
+        <v>1048576</v>
       </c>
       <c r="AF77" s="1">
         <f t="shared" si="17"/>
-        <v>1507328</v>
+        <v>1048576</v>
       </c>
       <c r="AG77" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1</v>
-      </c>
-      <c r="P78" s="1">
-        <v>24</v>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
         <f t="shared" ref="Q78:Q79" si="193">B78*B$1</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R78" s="1">
         <f t="shared" ref="R78:R79" si="194">C78*C$1</f>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S78" s="1">
         <f t="shared" ref="S78:S79" si="195">D78*D$1</f>
@@ -6822,7 +6827,7 @@
       </c>
       <c r="X78" s="1">
         <f t="shared" ref="X78:X79" si="200">I78*I$1</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="1">
         <f t="shared" ref="Y78:Y79" si="201">J78*J$1</f>
@@ -6850,37 +6855,34 @@
       </c>
       <c r="AE78" s="1">
         <f t="shared" ref="AE78:AE79" si="207">P78*P$1</f>
-        <v>1572864</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="1">
         <f t="shared" ref="AF78:AF79" si="208">SUM(Q78:AE78)</f>
-        <v>1573376</v>
+        <v>32773</v>
       </c>
       <c r="AG78" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>180200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H79" s="1">
-        <v>1</v>
-      </c>
-      <c r="J79" s="1">
-        <v>1</v>
-      </c>
-      <c r="P79" s="1">
-        <v>24</v>
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
       </c>
       <c r="Q79" s="1">
         <f t="shared" si="193"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R79" s="1">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S79" s="1">
         <f t="shared" si="195"/>
@@ -6900,7 +6902,7 @@
       </c>
       <c r="W79" s="1">
         <f t="shared" si="199"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" si="200"/>
@@ -6908,7 +6910,7 @@
       </c>
       <c r="Y79" s="1">
         <f t="shared" si="201"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" si="202"/>
@@ -6932,23 +6934,23 @@
       </c>
       <c r="AE79" s="1">
         <f t="shared" si="207"/>
-        <v>1572864</v>
+        <v>0</v>
       </c>
       <c r="AF79" s="1">
         <f t="shared" si="208"/>
-        <v>1574144</v>
+        <v>32774</v>
       </c>
       <c r="AG79" s="1" t="str">
         <f t="shared" ref="AG79:AG81" si="209">DEC2HEX(AF79)</f>
-        <v>180500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P80" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="Q80" s="1">
         <f t="shared" ref="Q80" si="210">B80*B$1</f>
@@ -7008,23 +7010,26 @@
       </c>
       <c r="AE80" s="1">
         <f t="shared" ref="AE80" si="224">P80*P$1</f>
-        <v>196608</v>
+        <v>1507328</v>
       </c>
       <c r="AF80" s="1">
         <f t="shared" ref="AF80" si="225">SUM(Q80:AE80)</f>
-        <v>196608</v>
+        <v>1507328</v>
       </c>
       <c r="AG80" s="1" t="str">
         <f t="shared" si="209"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P81" s="1">
-        <v>5</v>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
       </c>
       <c r="Q81" s="1">
         <f t="shared" ref="Q81" si="226">B81*B$1</f>
@@ -7044,11 +7049,11 @@
       </c>
       <c r="U81" s="1">
         <f t="shared" ref="U81" si="229">F81*F$1</f>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V81" s="1">
         <f t="shared" ref="V81" si="230">G81*G$1</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="W81" s="1">
         <f t="shared" ref="W81" si="231">H81*H$1</f>
@@ -7084,26 +7089,23 @@
       </c>
       <c r="AE81" s="1">
         <f t="shared" ref="AE81" si="239">P81*P$1</f>
-        <v>327680</v>
+        <v>0</v>
       </c>
       <c r="AF81" s="1">
         <f t="shared" ref="AF81" si="240">SUM(Q81:AE81)</f>
-        <v>327680</v>
+        <v>6144</v>
       </c>
       <c r="AG81" s="1" t="str">
         <f t="shared" si="209"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="P82" s="1">
-        <v>25</v>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
       </c>
       <c r="Q82" s="1">
         <f t="shared" ref="Q82" si="241">B82*B$1</f>
@@ -7119,7 +7121,7 @@
       </c>
       <c r="T82" s="1">
         <f t="shared" ref="T82" si="244">E82*E$1</f>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U82" s="1">
         <f t="shared" ref="U82" si="245">F82*F$1</f>
@@ -7127,7 +7129,7 @@
       </c>
       <c r="V82" s="1">
         <f t="shared" ref="V82" si="246">G82*G$1</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" ref="W82" si="247">H82*H$1</f>
@@ -7163,26 +7165,23 @@
       </c>
       <c r="AE82" s="1">
         <f t="shared" ref="AE82" si="255">P82*P$1</f>
-        <v>1638400</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="1">
         <f t="shared" ref="AF82" si="256">SUM(Q82:AE82)</f>
-        <v>1646592</v>
+        <v>2048</v>
       </c>
       <c r="AG82" s="1" t="str">
         <f t="shared" ref="AG82" si="257">DEC2HEX(AF82)</f>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P83" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q83" s="1">
         <f t="shared" ref="Q83" si="258">B83*B$1</f>
@@ -7198,7 +7197,7 @@
       </c>
       <c r="T83" s="1">
         <f t="shared" ref="T83" si="261">E83*E$1</f>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U83" s="1">
         <f t="shared" ref="U83" si="262">F83*F$1</f>
@@ -7242,23 +7241,23 @@
       </c>
       <c r="AE83" s="1">
         <f t="shared" ref="AE83" si="272">P83*P$1</f>
-        <v>1966080</v>
+        <v>786432</v>
       </c>
       <c r="AF83" s="1">
         <f t="shared" ref="AF83" si="273">SUM(Q83:AE83)</f>
-        <v>1974272</v>
+        <v>786432</v>
       </c>
       <c r="AG83" s="1" t="str">
         <f t="shared" ref="AG83" si="274">DEC2HEX(AF83)</f>
-        <v>1E2000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.4">
+        <v>C0000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="P84" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q84" s="1">
         <f t="shared" ref="Q84" si="275">B84*B$1</f>
@@ -7318,30 +7317,22 @@
       </c>
       <c r="AE84" s="1">
         <f t="shared" ref="AE84" si="289">P84*P$1</f>
-        <v>2031616</v>
+        <v>1179648</v>
       </c>
       <c r="AF84" s="1">
         <f t="shared" ref="AF84" si="290">SUM(Q84:AE84)</f>
-        <v>2031616</v>
+        <v>1179648</v>
       </c>
       <c r="AG84" s="1" t="str">
         <f t="shared" ref="AG84" si="291">DEC2HEX(AF84)</f>
-        <v>1F0000</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P84" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P84">
+      <sortCondition ref="A2:A84"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/worldview and mechanics/equiptype.xlsx
+++ b/doc/worldview and mechanics/equiptype.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BB880E-D6DB-413F-A7B0-BA9869FDCDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8E224-5A1C-4A4C-87E5-9C7617C286E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">Mid-gun-flak(5inchGFCS)        </t>
   </si>
@@ -381,6 +381,14 @@
   </si>
   <si>
     <t>Bomb-dive-torp-fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sp-recon-small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sp-bomb-small</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,24 +413,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -439,17 +435,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,13 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-  <dimension ref="A1:AG88"/>
+  <dimension ref="A1:AG90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="AG76" sqref="AG76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -910,1149 +900,1123 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
         <v>25</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <f>B3*B$1</f>
         <v>1</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1">
         <f t="shared" ref="R3:AE3" si="1">C3*C$1</f>
         <v>0</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="1">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AE3" s="1">
         <f t="shared" si="1"/>
         <v>1638400</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AF3" s="1">
         <f>SUM(Q3:AE3)</f>
         <v>1646593</v>
       </c>
-      <c r="AG3" s="3" t="str">
+      <c r="AG3" s="1" t="str">
         <f>DEC2HEX(AF3)</f>
         <v>192001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
         <v>30</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q23" si="2">B4*B$1</f>
         <v>0</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <f t="shared" ref="R4:R23" si="3">C4*C$1</f>
         <v>0</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="1">
         <f t="shared" ref="S4:S23" si="4">D4*D$1</f>
         <v>0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="1">
         <f t="shared" ref="T4:T23" si="5">E4*E$1</f>
         <v>8192</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="1">
         <f t="shared" ref="U4:U23" si="6">F4*F$1</f>
         <v>0</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="1">
         <f t="shared" ref="V4:V23" si="7">G4*G$1</f>
         <v>0</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="1">
         <f t="shared" ref="W4:W23" si="8">H4*H$1</f>
         <v>0</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="1">
         <f t="shared" ref="X4:X23" si="9">I4*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="1">
         <f t="shared" ref="Y4:Y23" si="10">J4*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="1">
         <f t="shared" ref="Z4:Z23" si="11">K4*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="1">
         <f t="shared" ref="AA4:AA23" si="12">L4*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="1">
         <f t="shared" ref="AB4:AB23" si="13">M4*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="1">
         <f t="shared" ref="AC4:AC23" si="14">N4*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="1">
         <f t="shared" ref="AD4:AD28" si="15">O4*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="1">
         <f t="shared" ref="AE4:AE28" si="16">P4*P$1</f>
         <v>1966080</v>
       </c>
-      <c r="AF4" s="3">
-        <f t="shared" ref="AF4:AF81" si="17">SUM(Q4:AE4)</f>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF83" si="17">SUM(Q4:AE4)</f>
         <v>1974272</v>
       </c>
-      <c r="AG4" s="3" t="str">
-        <f t="shared" ref="AG4:AG82" si="18">DEC2HEX(AF4)</f>
+      <c r="AG4" s="1" t="str">
+        <f t="shared" ref="AG4:AG84" si="18">DEC2HEX(AF4)</f>
         <v>1E2000</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>25</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="1">
         <f t="shared" si="5"/>
         <v>8192</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="1">
         <f t="shared" si="16"/>
         <v>1638400</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="1">
         <f t="shared" si="17"/>
         <v>1646592</v>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AG5" s="1" t="str">
         <f t="shared" si="18"/>
         <v>192000</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1">
         <v>21</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="1">
         <f t="shared" si="16"/>
         <v>1376256</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="1">
         <f t="shared" si="17"/>
         <v>1376256</v>
       </c>
-      <c r="AG6" s="3" t="str">
+      <c r="AG6" s="1" t="str">
         <f t="shared" si="18"/>
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <v>8</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
         <f t="shared" ref="R7" si="19">C7*C$1</f>
         <v>0</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <f t="shared" ref="S7" si="20">D7*D$1</f>
         <v>0</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="1">
         <f t="shared" ref="T7" si="21">E7*E$1</f>
         <v>0</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="1">
         <f t="shared" ref="U7" si="22">F7*F$1</f>
         <v>0</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="1">
         <f t="shared" ref="V7" si="23">G7*G$1</f>
         <v>0</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="1">
         <f t="shared" ref="W7" si="24">H7*H$1</f>
         <v>0</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="1">
         <f t="shared" ref="X7" si="25">I7*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="1">
         <f t="shared" ref="Y7" si="26">J7*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="1">
         <f t="shared" ref="Z7" si="27">K7*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="1">
         <f t="shared" ref="AA7" si="28">L7*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="1">
         <f t="shared" ref="AB7" si="29">M7*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="1">
         <f t="shared" ref="AC7" si="30">N7*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="1">
         <f t="shared" ref="AD7" si="31">O7*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="1">
         <f t="shared" ref="AE7" si="32">P7*P$1</f>
         <v>524288</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="1">
         <f t="shared" ref="AF7" si="33">SUM(Q7:AE7)</f>
         <v>524288</v>
       </c>
-      <c r="AG7" s="3" t="str">
+      <c r="AG7" s="1" t="str">
         <f t="shared" ref="AG7" si="34">DEC2HEX(AF7)</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <v>7</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="1">
         <f t="shared" si="16"/>
         <v>458752</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="1">
         <f t="shared" si="17"/>
         <v>458752</v>
       </c>
-      <c r="AG8" s="3" t="str">
+      <c r="AG8" s="1" t="str">
         <f t="shared" si="18"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
         <v>6</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="1">
         <f t="shared" si="16"/>
         <v>393216</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="1">
         <f t="shared" si="17"/>
         <v>393216</v>
       </c>
-      <c r="AG9" s="3" t="str">
+      <c r="AG9" s="1" t="str">
         <f t="shared" si="18"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="1">
         <f t="shared" ref="S10" si="35">D10*D$1</f>
         <v>0</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <f t="shared" ref="T10" si="36">E10*E$1</f>
         <v>0</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="1">
         <f t="shared" ref="U10" si="37">F10*F$1</f>
         <v>0</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="1">
         <f t="shared" ref="V10" si="38">G10*G$1</f>
         <v>0</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="1">
         <f t="shared" ref="W10" si="39">H10*H$1</f>
         <v>0</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="1">
         <f t="shared" ref="X10" si="40">I10*I$1</f>
         <v>512</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="1">
         <f t="shared" ref="Y10" si="41">J10*J$1</f>
         <v>256</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="1">
         <f t="shared" ref="Z10" si="42">K10*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="1">
         <f t="shared" ref="AA10" si="43">L10*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="1">
         <f t="shared" ref="AB10" si="44">M10*M$1</f>
         <v>32</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="1">
         <f t="shared" ref="AC10" si="45">N10*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="1">
         <f t="shared" ref="AD10" si="46">O10*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="1">
         <f t="shared" ref="AE10" si="47">P10*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="1">
         <f t="shared" ref="AF10" si="48">SUM(Q10:AE10)</f>
         <v>800</v>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="1" t="str">
         <f t="shared" si="18"/>
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="1">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="1">
         <f t="shared" si="17"/>
         <v>805</v>
       </c>
-      <c r="AG11" s="3" t="str">
+      <c r="AG11" s="1" t="str">
         <f t="shared" si="18"/>
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="1">
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="1">
         <f t="shared" si="13"/>
         <v>32</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12" s="1">
         <f t="shared" si="17"/>
         <v>1824</v>
       </c>
-      <c r="AG12" s="3" t="str">
+      <c r="AG12" s="1" t="str">
         <f t="shared" si="18"/>
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="1">
         <v>5</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="1">
         <f t="shared" ref="R13" si="49">C13*C$1</f>
         <v>0</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="1">
         <f t="shared" ref="S13" si="50">D13*D$1</f>
         <v>0</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="1">
         <f t="shared" ref="T13" si="51">E13*E$1</f>
         <v>0</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="1">
         <f t="shared" ref="U13" si="52">F13*F$1</f>
         <v>0</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="1">
         <f t="shared" ref="V13" si="53">G13*G$1</f>
         <v>0</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="1">
         <f t="shared" ref="W13" si="54">H13*H$1</f>
         <v>0</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="1">
         <f t="shared" ref="X13" si="55">I13*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="1">
         <f t="shared" ref="Y13" si="56">J13*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="1">
         <f t="shared" ref="Z13" si="57">K13*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="1">
         <f t="shared" ref="AA13" si="58">L13*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="1">
         <f t="shared" ref="AB13" si="59">M13*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="1">
         <f t="shared" ref="AC13" si="60">N13*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="1">
         <f t="shared" ref="AD13" si="61">O13*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13" s="1">
         <f t="shared" ref="AE13" si="62">P13*P$1</f>
         <v>327680</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13" s="1">
         <f t="shared" ref="AF13" si="63">SUM(Q13:AE13)</f>
         <v>327680</v>
       </c>
-      <c r="AG13" s="3" t="str">
+      <c r="AG13" s="1" t="str">
         <f t="shared" si="18"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="1">
         <f t="shared" si="3"/>
         <v>32768</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="1">
         <f t="shared" si="17"/>
         <v>32772</v>
       </c>
-      <c r="AG14" s="3" t="str">
+      <c r="AG14" s="1" t="str">
         <f t="shared" si="18"/>
         <v>8004</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15" s="1">
         <f t="shared" si="17"/>
         <v>256</v>
       </c>
-      <c r="AG15" s="3" t="str">
+      <c r="AG15" s="1" t="str">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="1">
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16" s="1">
         <f t="shared" si="17"/>
         <v>1280</v>
       </c>
-      <c r="AG16" s="3" t="str">
+      <c r="AG16" s="1" t="str">
         <f t="shared" si="18"/>
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
         <v>28</v>
       </c>
       <c r="Q17" s="1">
@@ -2125,26 +2089,13 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
         <v>24</v>
       </c>
       <c r="Q18" s="1">
@@ -2216,506 +2167,493 @@
         <v>180100</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
         <v>24</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="1">
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="1">
         <f t="shared" si="16"/>
         <v>1572864</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19" s="1">
         <f t="shared" si="17"/>
         <v>1574144</v>
       </c>
-      <c r="AG19" s="3" t="str">
+      <c r="AG19" s="1" t="str">
         <f t="shared" si="18"/>
         <v>180500</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
         <f t="shared" ref="Q20" si="81">B20*B$1</f>
         <v>0</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="1">
         <f t="shared" ref="R20" si="82">C20*C$1</f>
         <v>0</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <f t="shared" ref="S20" si="83">D20*D$1</f>
         <v>0</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <f t="shared" ref="T20" si="84">E20*E$1</f>
         <v>0</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="1">
         <f t="shared" ref="U20" si="85">F20*F$1</f>
         <v>0</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="1">
         <f t="shared" ref="V20" si="86">G20*G$1</f>
         <v>0</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="1">
         <f t="shared" ref="W20" si="87">H20*H$1</f>
         <v>1024</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="1">
         <f t="shared" ref="X20" si="88">I20*I$1</f>
         <v>512</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="1">
         <f t="shared" ref="Y20" si="89">J20*J$1</f>
         <v>256</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="1">
         <f t="shared" ref="Z20" si="90">K20*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="1">
         <f t="shared" ref="AA20" si="91">L20*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="1">
         <f t="shared" ref="AB20" si="92">M20*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="1">
         <f t="shared" ref="AC20" si="93">N20*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="1">
         <f t="shared" ref="AD20" si="94">O20*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="1">
         <f t="shared" ref="AE20" si="95">P20*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20" s="1">
         <f t="shared" ref="AF20" si="96">SUM(Q20:AE20)</f>
         <v>1792</v>
       </c>
-      <c r="AG20" s="3" t="str">
+      <c r="AG20" s="1" t="str">
         <f t="shared" ref="AG20" si="97">DEC2HEX(AF20)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="1">
         <f t="shared" si="17"/>
         <v>512</v>
       </c>
-      <c r="AG21" s="3" t="str">
+      <c r="AG21" s="1" t="str">
         <f t="shared" si="18"/>
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="1">
         <f t="shared" si="10"/>
         <v>256</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="1">
         <f t="shared" si="17"/>
         <v>768</v>
       </c>
-      <c r="AG22" s="3" t="str">
+      <c r="AG22" s="1" t="str">
         <f t="shared" si="18"/>
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="1">
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="1">
         <f t="shared" si="9"/>
         <v>512</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="1">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF23" s="1">
         <f t="shared" si="17"/>
         <v>1536</v>
       </c>
-      <c r="AG23" s="3" t="str">
+      <c r="AG23" s="1" t="str">
         <f t="shared" si="18"/>
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
         <v>24</v>
       </c>
-      <c r="Q24" s="3">
-        <f t="shared" ref="Q24:Q81" si="98">B24*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <f t="shared" ref="R24:R81" si="99">C24*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" ref="S24:S81" si="100">D24*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <f t="shared" ref="T24:T81" si="101">E24*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <f t="shared" ref="U24:U81" si="102">F24*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" ref="V24:V81" si="103">G24*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" ref="W24:W81" si="104">H24*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <f t="shared" ref="X24:X81" si="105">I24*I$1</f>
+      <c r="Q24" s="1">
+        <f t="shared" ref="Q24:Q83" si="98">B24*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24:R83" si="99">C24*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24:S83" si="100">D24*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24:T83" si="101">E24*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" ref="U24:U83" si="102">F24*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ref="V24:V83" si="103">G24*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ref="W24:W83" si="104">H24*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24:X83" si="105">I24*I$1</f>
         <v>512</v>
       </c>
-      <c r="Y24" s="3">
-        <f t="shared" ref="Y24:Y81" si="106">J24*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <f t="shared" ref="Z24:Z81" si="107">K24*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <f t="shared" ref="AA24:AA81" si="108">L24*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <f t="shared" ref="AB24:AB81" si="109">M24*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" ref="AC24:AC81" si="110">N24*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="Y24" s="1">
+        <f t="shared" ref="Y24:Y83" si="106">J24*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ref="Z24:Z83" si="107">K24*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" ref="AA24:AA83" si="108">L24*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" ref="AB24:AB83" si="109">M24*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" ref="AC24:AC83" si="110">N24*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="1">
         <f t="shared" si="16"/>
         <v>1572864</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF24" s="1">
         <f t="shared" si="17"/>
         <v>1573376</v>
       </c>
-      <c r="AG24" s="3" t="str">
+      <c r="AG24" s="1" t="str">
         <f t="shared" si="18"/>
         <v>180200</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
       <c r="Q25" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -2785,106 +2723,93 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="1">
         <v>29</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="1">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE26" s="1">
         <f t="shared" si="16"/>
         <v>1900544</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF26" s="1">
         <f t="shared" si="17"/>
         <v>1900547</v>
       </c>
-      <c r="AG26" s="3" t="str">
+      <c r="AG26" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1D0003</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3">
+      <c r="P27" s="1">
         <v>29</v>
       </c>
       <c r="Q27" s="1">
@@ -2957,7 +2882,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="1">
@@ -3033,26 +2958,13 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3">
+      <c r="P29" s="1">
         <v>2</v>
       </c>
       <c r="Q29" s="1">
@@ -3125,26 +3037,13 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
         <v>2</v>
       </c>
       <c r="Q30" s="1">
@@ -3200,11 +3099,11 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" ref="AD30:AD81" si="128">O30*O$1</f>
+        <f t="shared" ref="AD30:AD83" si="128">O30*O$1</f>
         <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" ref="AE30:AE81" si="129">P30*P$1</f>
+        <f t="shared" ref="AE30:AE83" si="129">P30*P$1</f>
         <v>131072</v>
       </c>
       <c r="AF30" s="1">
@@ -3217,24 +3116,10 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3">
+      <c r="P31" s="1">
         <v>11</v>
       </c>
       <c r="Q31" s="1">
@@ -3306,2004 +3191,1976 @@
         <v>B0000</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="1">
         <v>14</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AE32" s="1">
         <f t="shared" si="129"/>
         <v>917504</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AF32" s="1">
         <f t="shared" si="17"/>
         <v>917504</v>
       </c>
-      <c r="AG32" s="3" t="str">
+      <c r="AG32" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E0000</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="1">
         <v>13</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AE33" s="1">
         <f t="shared" si="129"/>
         <v>851968</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AF33" s="1">
         <f t="shared" si="17"/>
         <v>851968</v>
       </c>
-      <c r="AG33" s="3" t="str">
+      <c r="AG33" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D0000</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="3">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="3">
+      <c r="Y34" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="3">
+      <c r="Z34" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AA34" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AB34" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="3">
+      <c r="AC34" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="3">
+      <c r="AD34" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="3">
+      <c r="AE34" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AF34" s="1">
         <f t="shared" si="17"/>
         <v>1024</v>
       </c>
-      <c r="AG34" s="3" t="str">
+      <c r="AG34" s="1" t="str">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
         <f t="shared" ref="Q35" si="130">B35*B$1</f>
         <v>0</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="1">
         <f t="shared" ref="R35" si="131">C35*C$1</f>
         <v>0</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="1">
         <f t="shared" ref="S35" si="132">D35*D$1</f>
         <v>0</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="1">
         <f t="shared" ref="T35" si="133">E35*E$1</f>
         <v>0</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="1">
         <f t="shared" ref="U35" si="134">F35*F$1</f>
         <v>0</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="1">
         <f t="shared" ref="V35" si="135">G35*G$1</f>
         <v>0</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="1">
         <f t="shared" ref="W35" si="136">H35*H$1</f>
         <v>1024</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="1">
         <f t="shared" ref="X35" si="137">I35*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="1">
         <f t="shared" ref="Y35" si="138">J35*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="1">
         <f t="shared" ref="Z35" si="139">K35*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="1">
         <f t="shared" ref="AA35" si="140">L35*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="1">
         <f t="shared" ref="AB35" si="141">M35*M$1</f>
         <v>32</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="1">
         <f t="shared" ref="AC35" si="142">N35*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="1">
         <f t="shared" ref="AD35" si="143">O35*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AE35" s="1">
         <f t="shared" ref="AE35" si="144">P35*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AF35" s="1">
         <f t="shared" ref="AF35" si="145">SUM(Q35:AE35)</f>
         <v>1056</v>
       </c>
-      <c r="AG35" s="3" t="str">
+      <c r="AG35" s="1" t="str">
         <f t="shared" ref="AG35" si="146">DEC2HEX(AF35)</f>
         <v>420</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3">
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
         <v>27</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="3">
+      <c r="Y36" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="3">
+      <c r="Z36" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AA36" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AB36" s="1">
         <f t="shared" si="109"/>
         <v>32</v>
       </c>
-      <c r="AC36" s="3">
+      <c r="AC36" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="3">
+      <c r="AD36" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="3">
+      <c r="AE36" s="1">
         <f t="shared" si="129"/>
         <v>1769472</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AF36" s="1">
         <f t="shared" si="17"/>
         <v>1770528</v>
       </c>
-      <c r="AG36" s="3" t="str">
+      <c r="AG36" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1B0420</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="3">
-        <v>1</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
         <f t="shared" ref="Q37" si="147">B37*B$1</f>
         <v>0</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="1">
         <f t="shared" ref="R37" si="148">C37*C$1</f>
         <v>0</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="1">
         <f t="shared" ref="S37" si="149">D37*D$1</f>
         <v>0</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="1">
         <f t="shared" ref="T37" si="150">E37*E$1</f>
         <v>0</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37" s="1">
         <f t="shared" ref="U37" si="151">F37*F$1</f>
         <v>0</v>
       </c>
-      <c r="V37" s="3">
+      <c r="V37" s="1">
         <f t="shared" ref="V37" si="152">G37*G$1</f>
         <v>0</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="1">
         <f t="shared" ref="W37" si="153">H37*H$1</f>
         <v>1024</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="1">
         <f t="shared" ref="X37" si="154">I37*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="3">
+      <c r="Y37" s="1">
         <f t="shared" ref="Y37" si="155">J37*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="3">
+      <c r="Z37" s="1">
         <f t="shared" ref="Z37" si="156">K37*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AA37" s="1">
         <f t="shared" ref="AA37" si="157">L37*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AB37" s="1">
         <f t="shared" ref="AB37" si="158">M37*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC37" s="3">
+      <c r="AC37" s="1">
         <f t="shared" ref="AC37" si="159">N37*N$1</f>
         <v>16</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AD37" s="1">
         <f t="shared" ref="AD37" si="160">O37*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AE37" s="1">
         <f t="shared" ref="AE37" si="161">P37*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AF37" s="1">
         <f t="shared" ref="AF37" si="162">SUM(Q37:AE37)</f>
         <v>1040</v>
       </c>
-      <c r="AG37" s="3" t="str">
+      <c r="AG37" s="1" t="str">
         <f t="shared" ref="AG37" si="163">DEC2HEX(AF37)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="1">
         <v>26</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="3">
+      <c r="Y38" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="3">
+      <c r="Z38" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AA38" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB38" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AC38" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AD38" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AE38" s="1">
         <f t="shared" si="129"/>
         <v>1703936</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AF38" s="1">
         <f t="shared" si="17"/>
         <v>1703936</v>
       </c>
-      <c r="AG38" s="3" t="str">
+      <c r="AG38" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1A0000</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
       <c r="P39" s="1">
         <v>19</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="1">
         <f t="shared" ref="Q39" si="164">B39*B$1</f>
         <v>0</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="1">
         <f t="shared" ref="R39" si="165">C39*C$1</f>
         <v>0</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="1">
         <f t="shared" ref="S39" si="166">D39*D$1</f>
         <v>0</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="1">
         <f t="shared" ref="T39" si="167">E39*E$1</f>
         <v>0</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39" s="1">
         <f t="shared" ref="U39" si="168">F39*F$1</f>
         <v>0</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="1">
         <f t="shared" ref="V39" si="169">G39*G$1</f>
         <v>0</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="1">
         <f t="shared" ref="W39" si="170">H39*H$1</f>
         <v>0</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="1">
         <f t="shared" ref="X39" si="171">I39*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="3">
+      <c r="Y39" s="1">
         <f t="shared" ref="Y39" si="172">J39*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="3">
+      <c r="Z39" s="1">
         <f t="shared" ref="Z39" si="173">K39*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AA39" s="1">
         <f t="shared" ref="AA39" si="174">L39*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AB39" s="1">
         <f t="shared" ref="AB39" si="175">M39*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC39" s="3">
+      <c r="AC39" s="1">
         <f t="shared" ref="AC39" si="176">N39*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AD39" s="1">
         <f t="shared" ref="AD39" si="177">O39*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AE39" s="1">
         <f t="shared" ref="AE39" si="178">P39*P$1</f>
         <v>1245184</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AF39" s="1">
         <f t="shared" ref="AF39" si="179">SUM(Q39:AE39)</f>
         <v>1245184</v>
       </c>
-      <c r="AG39" s="3" t="str">
+      <c r="AG39" s="1" t="str">
         <f t="shared" si="18"/>
         <v>130000</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="1">
         <v>31</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X40" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="3">
+      <c r="Y40" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="3">
+      <c r="Z40" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AA40" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AB40" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AC40" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AD40" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AE40" s="1">
         <f t="shared" si="129"/>
         <v>2031616</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AF40" s="1">
         <f t="shared" si="17"/>
         <v>2031616</v>
       </c>
-      <c r="AG40" s="3" t="str">
+      <c r="AG40" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1F0000</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="1">
         <v>9</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="1">
         <f t="shared" ref="Q41" si="180">B41*B$1</f>
         <v>0</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="1">
         <f t="shared" ref="R41" si="181">C41*C$1</f>
         <v>0</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="1">
         <f t="shared" ref="S41" si="182">D41*D$1</f>
         <v>0</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="1">
         <f t="shared" ref="T41" si="183">E41*E$1</f>
         <v>0</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="1">
         <f t="shared" ref="U41" si="184">F41*F$1</f>
         <v>0</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="1">
         <f t="shared" ref="V41" si="185">G41*G$1</f>
         <v>0</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="1">
         <f t="shared" ref="W41" si="186">H41*H$1</f>
         <v>0</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="1">
         <f t="shared" ref="X41" si="187">I41*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="1">
         <f t="shared" ref="Y41" si="188">J41*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="1">
         <f t="shared" ref="Z41" si="189">K41*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="1">
         <f t="shared" ref="AA41" si="190">L41*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="1">
         <f t="shared" ref="AB41" si="191">M41*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="1">
         <f t="shared" ref="AC41" si="192">N41*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="1">
         <f t="shared" ref="AD41" si="193">O41*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AE41" s="1">
         <f t="shared" ref="AE41" si="194">P41*P$1</f>
         <v>589824</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AF41" s="1">
         <f t="shared" ref="AF41" si="195">SUM(Q41:AE41)</f>
         <v>589824</v>
       </c>
-      <c r="AG41" s="3" t="str">
+      <c r="AG41" s="1" t="str">
         <f t="shared" si="18"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="1">
         <v>10</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="1">
         <f t="shared" si="129"/>
         <v>655360</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AF42" s="1">
         <f t="shared" si="17"/>
         <v>655360</v>
       </c>
-      <c r="AG42" s="3" t="str">
+      <c r="AG42" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A0000</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AE43" s="1">
         <f t="shared" si="129"/>
         <v>65536</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AF43" s="1">
         <f t="shared" si="17"/>
         <v>65536</v>
       </c>
-      <c r="AG43" s="3" t="str">
+      <c r="AG43" s="1" t="str">
         <f t="shared" si="18"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
         <v>2</v>
       </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="1">
         <f t="shared" si="99"/>
         <v>32768</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="1">
         <f t="shared" si="101"/>
         <v>8192</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AE44" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AF44" s="1">
         <f t="shared" si="17"/>
         <v>40962</v>
       </c>
-      <c r="AG44" s="3" t="str">
+      <c r="AG44" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A002</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="1">
         <f t="shared" si="99"/>
         <v>32768</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AA45" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AB45" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AE45" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AF45" s="1">
         <f t="shared" si="17"/>
         <v>32770</v>
       </c>
-      <c r="AG45" s="3" t="str">
+      <c r="AG45" s="1" t="str">
         <f t="shared" si="18"/>
         <v>8002</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1">
         <f t="shared" ref="Q46" si="196">B46*B$1</f>
         <v>3</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="1">
         <f t="shared" ref="R46" si="197">C46*C$1</f>
         <v>32768</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="1">
         <f t="shared" ref="S46" si="198">D46*D$1</f>
         <v>0</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="1">
         <f t="shared" ref="T46" si="199">E46*E$1</f>
         <v>0</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="1">
         <f t="shared" ref="U46" si="200">F46*F$1</f>
         <v>0</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="1">
         <f t="shared" ref="V46" si="201">G46*G$1</f>
         <v>0</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="1">
         <f t="shared" ref="W46" si="202">H46*H$1</f>
         <v>0</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="1">
         <f t="shared" ref="X46" si="203">I46*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="1">
         <f t="shared" ref="Y46" si="204">J46*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="1">
         <f t="shared" ref="Z46" si="205">K46*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="1">
         <f t="shared" ref="AA46" si="206">L46*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="1">
         <f t="shared" ref="AB46" si="207">M46*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="1">
         <f t="shared" ref="AC46" si="208">N46*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="1">
         <f t="shared" ref="AD46" si="209">O46*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AE46" s="1">
         <f t="shared" ref="AE46" si="210">P46*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AF46" s="1">
         <f t="shared" ref="AF46" si="211">SUM(Q46:AE46)</f>
         <v>32771</v>
       </c>
-      <c r="AG46" s="3" t="str">
+      <c r="AG46" s="1" t="str">
         <f t="shared" si="18"/>
         <v>8003</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="1">
         <f t="shared" si="108"/>
         <v>64</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AE47" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AF47" s="1">
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="AG47" s="3" t="str">
+      <c r="AG47" s="1" t="str">
         <f t="shared" si="18"/>
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="1">
         <f t="shared" si="108"/>
         <v>64</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="1">
         <f t="shared" si="109"/>
         <v>32</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AE48" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AF48" s="1">
         <f t="shared" si="17"/>
         <v>96</v>
       </c>
-      <c r="AG48" s="3" t="str">
+      <c r="AG48" s="1" t="str">
         <f t="shared" si="18"/>
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="1">
         <f t="shared" ref="R49" si="212">C49*C$1</f>
         <v>0</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="1">
         <f t="shared" ref="S49" si="213">D49*D$1</f>
         <v>0</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="1">
         <f t="shared" ref="T49" si="214">E49*E$1</f>
         <v>0</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="1">
         <f t="shared" ref="U49" si="215">F49*F$1</f>
         <v>0</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="1">
         <f t="shared" ref="V49" si="216">G49*G$1</f>
         <v>0</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="1">
         <f t="shared" ref="W49" si="217">H49*H$1</f>
         <v>0</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="1">
         <f t="shared" ref="X49" si="218">I49*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="1">
         <f t="shared" ref="Y49" si="219">J49*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="1">
         <f t="shared" ref="Z49" si="220">K49*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="1">
         <f t="shared" ref="AA49" si="221">L49*L$1</f>
         <v>64</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="1">
         <f t="shared" ref="AB49" si="222">M49*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="1">
         <f t="shared" ref="AC49" si="223">N49*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="1">
         <f t="shared" ref="AD49" si="224">O49*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AE49" s="1">
         <f t="shared" ref="AE49" si="225">P49*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AF49" s="1">
         <f t="shared" ref="AF49" si="226">SUM(Q49:AE49)</f>
         <v>65</v>
       </c>
-      <c r="AG49" s="3" t="str">
+      <c r="AG49" s="1" t="str">
         <f t="shared" ref="AG49" si="227">DEC2HEX(AF49)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="3">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T50" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U50" s="3">
+      <c r="U50" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V50" s="3">
+      <c r="V50" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="3">
+      <c r="Y50" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="3">
+      <c r="Z50" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AA50" s="1">
         <f t="shared" si="108"/>
         <v>64</v>
       </c>
-      <c r="AB50" s="3">
+      <c r="AB50" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="3">
+      <c r="AC50" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="3">
+      <c r="AD50" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="3">
+      <c r="AE50" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AF50" s="1">
         <f t="shared" si="17"/>
         <v>1089</v>
       </c>
-      <c r="AG50" s="3" t="str">
+      <c r="AG50" s="1" t="str">
         <f t="shared" si="18"/>
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>2</v>
       </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="3">
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="1">
         <f t="shared" si="101"/>
         <v>8192</v>
       </c>
-      <c r="U51" s="3">
+      <c r="U51" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="3">
+      <c r="Y51" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="3">
+      <c r="Z51" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AA51" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AB51" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC51" s="3">
+      <c r="AC51" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD51" s="3">
+      <c r="AD51" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="3">
+      <c r="AE51" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AF51" s="1">
         <f t="shared" si="17"/>
         <v>12290</v>
       </c>
-      <c r="AG51" s="3" t="str">
+      <c r="AG51" s="1" t="str">
         <f t="shared" si="18"/>
         <v>3002</v>
       </c>
     </row>
-    <row r="52" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>2</v>
       </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="1">
         <f t="shared" si="101"/>
         <v>8192</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AE52" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AF52" s="1">
         <f t="shared" si="17"/>
         <v>8194</v>
       </c>
-      <c r="AG52" s="3" t="str">
+      <c r="AG52" s="1" t="str">
         <f t="shared" si="18"/>
         <v>2002</v>
       </c>
     </row>
-    <row r="53" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="3">
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U53" s="3">
+      <c r="U53" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V53" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="3">
+      <c r="Y53" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="3">
+      <c r="Z53" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AA53" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AB53" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="3">
+      <c r="AC53" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="3">
+      <c r="AD53" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="3">
+      <c r="AE53" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AF53" s="1">
         <f t="shared" si="17"/>
         <v>4098</v>
       </c>
-      <c r="AG53" s="3" t="str">
+      <c r="AG53" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1002</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="1">
         <f t="shared" si="101"/>
         <v>8192</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AE54" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AF54" s="1">
         <f t="shared" si="17"/>
         <v>12289</v>
       </c>
-      <c r="AG54" s="3" t="str">
+      <c r="AG54" s="1" t="str">
         <f t="shared" si="18"/>
         <v>3001</v>
       </c>
     </row>
-    <row r="55" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="3">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="1">
         <f t="shared" ref="Q55" si="228">B55*B$1</f>
         <v>1</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55" s="1">
         <f t="shared" ref="R55" si="229">C55*C$1</f>
         <v>0</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="1">
         <f t="shared" ref="S55" si="230">D55*D$1</f>
         <v>0</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T55" s="1">
         <f t="shared" ref="T55" si="231">E55*E$1</f>
         <v>8192</v>
       </c>
-      <c r="U55" s="3">
+      <c r="U55" s="1">
         <f t="shared" ref="U55" si="232">F55*F$1</f>
         <v>0</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V55" s="1">
         <f t="shared" ref="V55" si="233">G55*G$1</f>
         <v>0</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W55" s="1">
         <f t="shared" ref="W55" si="234">H55*H$1</f>
         <v>0</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X55" s="1">
         <f t="shared" ref="X55" si="235">I55*I$1</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="3">
+      <c r="Y55" s="1">
         <f t="shared" ref="Y55" si="236">J55*J$1</f>
         <v>0</v>
       </c>
-      <c r="Z55" s="3">
+      <c r="Z55" s="1">
         <f t="shared" ref="Z55" si="237">K55*K$1</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="3">
+      <c r="AA55" s="1">
         <f t="shared" ref="AA55" si="238">L55*L$1</f>
         <v>0</v>
       </c>
-      <c r="AB55" s="3">
+      <c r="AB55" s="1">
         <f t="shared" ref="AB55" si="239">M55*M$1</f>
         <v>0</v>
       </c>
-      <c r="AC55" s="3">
+      <c r="AC55" s="1">
         <f t="shared" ref="AC55" si="240">N55*N$1</f>
         <v>0</v>
       </c>
-      <c r="AD55" s="3">
+      <c r="AD55" s="1">
         <f t="shared" ref="AD55" si="241">O55*O$1</f>
         <v>0</v>
       </c>
-      <c r="AE55" s="3">
+      <c r="AE55" s="1">
         <f t="shared" ref="AE55" si="242">P55*P$1</f>
         <v>0</v>
       </c>
-      <c r="AF55" s="3">
+      <c r="AF55" s="1">
         <f t="shared" ref="AF55" si="243">SUM(Q55:AE55)</f>
         <v>8193</v>
       </c>
-      <c r="AG55" s="3" t="str">
+      <c r="AG55" s="1" t="str">
         <f t="shared" ref="AG55" si="244">DEC2HEX(AF55)</f>
         <v>2001</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="3">
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T56" s="3">
+      <c r="T56" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U56" s="3">
+      <c r="U56" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V56" s="3">
+      <c r="V56" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W56" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X56" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="3">
+      <c r="Y56" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="3">
+      <c r="Z56" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA56" s="3">
+      <c r="AA56" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB56" s="3">
+      <c r="AB56" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="3">
+      <c r="AC56" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD56" s="3">
+      <c r="AD56" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="3">
+      <c r="AE56" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF56" s="3">
+      <c r="AF56" s="1">
         <f t="shared" si="17"/>
         <v>4097</v>
       </c>
-      <c r="AG56" s="3" t="str">
+      <c r="AG56" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1001</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>7</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
       <c r="Q57" s="1">
         <f t="shared" si="98"/>
         <v>7</v>
@@ -5374,30 +5231,18 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>3</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
       <c r="Q58" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
@@ -5468,26 +5313,12 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
       <c r="Q59" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -5558,28 +5389,15 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
       <c r="Q60" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -5650,26 +5468,13 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3">
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
         <v>28</v>
       </c>
       <c r="Q61" s="1">
@@ -5742,28 +5547,15 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
       <c r="Q62" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
@@ -5834,7 +5626,7 @@
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="P63" s="1">
@@ -5910,7 +5702,7 @@
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="P64" s="1">
@@ -5986,26 +5778,13 @@
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3">
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1">
         <v>15</v>
       </c>
       <c r="Q65" s="1">
@@ -6078,26 +5857,13 @@
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>3</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3">
+      <c r="P66" s="1">
         <v>15</v>
       </c>
       <c r="Q66" s="1">
@@ -6170,30 +5936,18 @@
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>2</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
       <c r="Q67" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
@@ -6264,30 +6018,18 @@
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>3</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
       <c r="Q68" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
@@ -6358,28 +6100,15 @@
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>2</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
       <c r="Q69" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
@@ -6450,30 +6179,18 @@
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
       <c r="Q70" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
@@ -6544,28 +6261,15 @@
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
       <c r="Q71" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
@@ -6636,24 +6340,10 @@
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3">
+      <c r="P72" s="1">
         <v>3</v>
       </c>
       <c r="Q72" s="1">
@@ -6726,26 +6416,13 @@
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>2</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3">
+      <c r="P73" s="1">
         <v>4</v>
       </c>
       <c r="Q73" s="1">
@@ -6818,26 +6495,13 @@
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
         <v>4</v>
       </c>
       <c r="Q74" s="1">
@@ -6910,26 +6574,13 @@
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>3</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3">
+      <c r="P75" s="1">
         <v>4</v>
       </c>
       <c r="Q75" s="1">
@@ -7002,125 +6653,103 @@
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3">
-        <v>1</v>
-      </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3">
-        <v>1</v>
-      </c>
-      <c r="P76" s="3"/>
+      <c r="A76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
       <c r="Q76" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" ref="Q76" si="261">B76*B$1</f>
+        <v>1</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="R76" si="262">C76*C$1</f>
         <v>0</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="S76" si="263">D76*D$1</f>
         <v>0</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="T76" si="264">E76*E$1</f>
         <v>0</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="U76" si="265">F76*F$1</f>
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="V76" si="266">G76*G$1</f>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="W76" si="267">H76*H$1</f>
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="X76" si="268">I76*I$1</f>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="Y76" si="269">J76*J$1</f>
         <v>256</v>
       </c>
       <c r="Z76" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="Z76" si="270">K76*K$1</f>
         <v>0</v>
       </c>
       <c r="AA76" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="AA76" si="271">L76*L$1</f>
         <v>0</v>
       </c>
       <c r="AB76" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="AB76" si="272">M76*M$1</f>
         <v>0</v>
       </c>
       <c r="AC76" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="AC76" si="273">N76*N$1</f>
         <v>0</v>
       </c>
       <c r="AD76" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="AD76" si="274">O76*O$1</f>
         <v>8</v>
       </c>
       <c r="AE76" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="AE76" si="275">P76*P$1</f>
         <v>0</v>
       </c>
       <c r="AF76" s="1">
-        <f t="shared" si="17"/>
-        <v>264</v>
+        <f t="shared" ref="AF76" si="276">SUM(Q76:AE76)</f>
+        <v>265</v>
       </c>
       <c r="AG76" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3">
-        <v>1</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3">
-        <v>1</v>
-      </c>
-      <c r="O77" s="3">
-        <v>1</v>
-      </c>
-      <c r="P77" s="3"/>
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
       <c r="Q77" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R77" s="1">
         <f t="shared" si="99"/>
@@ -7168,7 +6797,7 @@
       </c>
       <c r="AC77" s="1">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="1">
         <f t="shared" si="128"/>
@@ -7180,39 +6809,32 @@
       </c>
       <c r="AF77" s="1">
         <f t="shared" si="17"/>
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AG77" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>118</v>
+        <v>10A</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3">
-        <v>1</v>
-      </c>
-      <c r="P78" s="3"/>
+      <c r="A78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
       <c r="Q78" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R78" s="1">
         <f t="shared" si="99"/>
@@ -7236,7 +6858,7 @@
       </c>
       <c r="W78" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X78" s="1">
         <f t="shared" si="105"/>
@@ -7244,7 +6866,7 @@
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" si="107"/>
@@ -7260,7 +6882,7 @@
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD78" s="1">
         <f t="shared" si="128"/>
@@ -7272,39 +6894,29 @@
       </c>
       <c r="AF78" s="1">
         <f t="shared" si="17"/>
-        <v>1032</v>
+        <v>282</v>
       </c>
       <c r="AG78" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>408</v>
+        <v>11A</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3">
-        <v>1</v>
-      </c>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3">
-        <v>1</v>
-      </c>
-      <c r="P79" s="3"/>
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
       <c r="Q79" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R79" s="1">
         <f t="shared" si="99"/>
@@ -7328,7 +6940,7 @@
       </c>
       <c r="W79" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" si="105"/>
@@ -7340,7 +6952,7 @@
       </c>
       <c r="Z79" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="1">
         <f t="shared" si="108"/>
@@ -7364,769 +6976,883 @@
       </c>
       <c r="AF79" s="1">
         <f t="shared" si="17"/>
-        <v>136</v>
+        <v>1034</v>
       </c>
       <c r="AG79" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
-      <c r="N80" s="3">
-        <v>1</v>
-      </c>
-      <c r="O80" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="3">
+        <v>40A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" ref="Q80" si="277">B80*B$1</f>
+        <v>1</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" ref="R80" si="278">C80*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" ref="S80" si="279">D80*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" ref="T80" si="280">E80*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <f t="shared" ref="U80" si="281">F80*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" ref="V80" si="282">G80*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <f t="shared" ref="W80" si="283">H80*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="1">
+        <f t="shared" ref="X80" si="284">I80*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="1">
+        <f t="shared" ref="Y80" si="285">J80*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1">
+        <f t="shared" ref="Z80" si="286">K80*K$1</f>
+        <v>128</v>
+      </c>
+      <c r="AA80" s="1">
+        <f t="shared" ref="AA80" si="287">L80*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="1">
+        <f t="shared" ref="AB80" si="288">M80*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1">
+        <f t="shared" ref="AC80" si="289">N80*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD80" s="1">
+        <f t="shared" ref="AD80" si="290">O80*O$1</f>
+        <v>8</v>
+      </c>
+      <c r="AE80" s="1">
+        <f t="shared" ref="AE80" si="291">P80*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="1">
+        <f t="shared" ref="AF80" si="292">SUM(Q80:AE80)</f>
+        <v>137</v>
+      </c>
+      <c r="AG80" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
+        <v>2</v>
+      </c>
+      <c r="R81" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S80" s="3">
+      <c r="S81" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T81" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U80" s="3">
+      <c r="U81" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V80" s="3">
+      <c r="V81" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W80" s="3">
+      <c r="W81" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X80" s="3">
+      <c r="X81" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y80" s="3">
+      <c r="Y81" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z80" s="3">
+      <c r="Z81" s="1">
         <f t="shared" si="107"/>
         <v>128</v>
       </c>
-      <c r="AA80" s="3">
+      <c r="AA81" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB80" s="3">
+      <c r="AB81" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC80" s="3">
+      <c r="AC81" s="1">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AD81" s="1">
+        <f t="shared" si="128"/>
+        <v>8</v>
+      </c>
+      <c r="AE81" s="1">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="1">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+      <c r="AG81" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>8A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="1">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="1">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="1">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="1">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="1">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1">
+        <f t="shared" si="107"/>
+        <v>128</v>
+      </c>
+      <c r="AA82" s="1">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="1">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
         <f t="shared" si="110"/>
         <v>16</v>
       </c>
-      <c r="AD80" s="3">
+      <c r="AD82" s="1">
         <f t="shared" si="128"/>
         <v>8</v>
       </c>
-      <c r="AE80" s="3">
+      <c r="AE82" s="1">
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="AF80" s="3">
+      <c r="AF82" s="1">
         <f t="shared" si="17"/>
-        <v>152</v>
-      </c>
-      <c r="AG80" s="3" t="str">
+        <v>154</v>
+      </c>
+      <c r="AG82" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
+        <v>9A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P83" s="1">
         <v>16</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q83" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R83" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S83" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T83" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U83" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V83" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W83" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X81" s="3">
+      <c r="X83" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Y83" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="Z83" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA83" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AB83" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AC83" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AD83" s="1">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AE83" s="1">
         <f t="shared" si="129"/>
         <v>1048576</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AF83" s="1">
         <f t="shared" si="17"/>
         <v>1048576</v>
       </c>
-      <c r="AG81" s="3" t="str">
+      <c r="AG83" s="1" t="str">
         <f t="shared" si="18"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82" s="3">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1">
         <v>5</v>
       </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="1">
-        <f t="shared" ref="Q82:Q83" si="261">B82*B$1</f>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" ref="Q84:Q85" si="293">B84*B$1</f>
         <v>5</v>
       </c>
-      <c r="R82" s="1">
-        <f t="shared" ref="R82:R83" si="262">C82*C$1</f>
+      <c r="R84" s="1">
+        <f t="shared" ref="R84:R85" si="294">C84*C$1</f>
         <v>32768</v>
       </c>
-      <c r="S82" s="1">
-        <f t="shared" ref="S82:S83" si="263">D82*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T82" s="1">
-        <f t="shared" ref="T82:T83" si="264">E82*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U82" s="1">
-        <f t="shared" ref="U82:U83" si="265">F82*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V82" s="1">
-        <f t="shared" ref="V82:V83" si="266">G82*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W82" s="1">
-        <f t="shared" ref="W82:W83" si="267">H82*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X82" s="1">
-        <f t="shared" ref="X82:X83" si="268">I82*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="1">
-        <f t="shared" ref="Y82:Y83" si="269">J82*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="1">
-        <f t="shared" ref="Z82:Z83" si="270">K82*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA82" s="1">
-        <f t="shared" ref="AA82:AA83" si="271">L82*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB82" s="1">
-        <f t="shared" ref="AB82:AB83" si="272">M82*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC82" s="1">
-        <f t="shared" ref="AC82:AC83" si="273">N82*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD82" s="1">
-        <f t="shared" ref="AD82:AD83" si="274">O82*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE82" s="1">
-        <f t="shared" ref="AE82:AE83" si="275">P82*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF82" s="1">
-        <f t="shared" ref="AF82:AF83" si="276">SUM(Q82:AE82)</f>
+      <c r="S84" s="1">
+        <f t="shared" ref="S84:S85" si="295">D84*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T84" s="1">
+        <f t="shared" ref="T84:T85" si="296">E84*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U84" s="1">
+        <f t="shared" ref="U84:U85" si="297">F84*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V84" s="1">
+        <f t="shared" ref="V84:V85" si="298">G84*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <f t="shared" ref="W84:W85" si="299">H84*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X84" s="1">
+        <f t="shared" ref="X84:X85" si="300">I84*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1">
+        <f t="shared" ref="Y84:Y85" si="301">J84*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="1">
+        <f t="shared" ref="Z84:Z85" si="302">K84*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA84" s="1">
+        <f t="shared" ref="AA84:AA85" si="303">L84*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB84" s="1">
+        <f t="shared" ref="AB84:AB85" si="304">M84*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1">
+        <f t="shared" ref="AC84:AC85" si="305">N84*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD84" s="1">
+        <f t="shared" ref="AD84:AD85" si="306">O84*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="1">
+        <f t="shared" ref="AE84:AE85" si="307">P84*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="1">
+        <f t="shared" ref="AF84:AF85" si="308">SUM(Q84:AE84)</f>
         <v>32773</v>
       </c>
-      <c r="AG82" s="1" t="str">
+      <c r="AG84" s="1" t="str">
         <f t="shared" si="18"/>
         <v>8005</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B85" s="1">
         <v>6</v>
       </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="1">
-        <f t="shared" si="261"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="293"/>
         <v>6</v>
       </c>
-      <c r="R83" s="1">
-        <f t="shared" si="262"/>
+      <c r="R85" s="1">
+        <f t="shared" si="294"/>
         <v>32768</v>
       </c>
-      <c r="S83" s="1">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="T83" s="1">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="U83" s="1">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="1">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="W83" s="1">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="X83" s="1">
-        <f t="shared" si="268"/>
-        <v>0</v>
-      </c>
-      <c r="Y83" s="1">
-        <f t="shared" si="269"/>
-        <v>0</v>
-      </c>
-      <c r="Z83" s="1">
-        <f t="shared" si="270"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="1">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="AB83" s="1">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="AC83" s="1">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="1">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="AE83" s="1">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="AF83" s="1">
-        <f t="shared" si="276"/>
+      <c r="S85" s="1">
+        <f t="shared" si="295"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="1">
+        <f t="shared" si="296"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <f t="shared" si="297"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="1">
+        <f t="shared" si="298"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="1">
+        <f t="shared" si="299"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="1">
+        <f t="shared" si="300"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="1">
+        <f t="shared" si="301"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="1">
+        <f t="shared" si="302"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="1">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+      <c r="AB85" s="1">
+        <f t="shared" si="304"/>
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1">
+        <f t="shared" si="305"/>
+        <v>0</v>
+      </c>
+      <c r="AD85" s="1">
+        <f t="shared" si="306"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="1">
+        <f t="shared" si="307"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="1">
+        <f t="shared" si="308"/>
         <v>32774</v>
       </c>
-      <c r="AG83" s="1" t="str">
-        <f t="shared" ref="AG83:AG85" si="277">DEC2HEX(AF83)</f>
+      <c r="AG85" s="1" t="str">
+        <f t="shared" ref="AG85:AG87" si="309">DEC2HEX(AF85)</f>
         <v>8006</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P86" s="1">
         <v>23</v>
       </c>
-      <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="278">B84*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <f t="shared" ref="R84:R85" si="279">C84*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <f t="shared" ref="S84" si="280">D84*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T84" s="1">
-        <f t="shared" ref="T84" si="281">E84*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U84" s="1">
-        <f t="shared" ref="U84" si="282">F84*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V84" s="1">
-        <f t="shared" ref="V84" si="283">G84*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W84" s="1">
-        <f t="shared" ref="W84" si="284">H84*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X84" s="1">
-        <f t="shared" ref="X84" si="285">I84*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y84" s="1">
-        <f t="shared" ref="Y84" si="286">J84*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="1">
-        <f t="shared" ref="Z84" si="287">K84*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA84" s="1">
-        <f t="shared" ref="AA84" si="288">L84*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB84" s="1">
-        <f t="shared" ref="AB84" si="289">M84*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC84" s="1">
-        <f t="shared" ref="AC84" si="290">N84*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD84" s="1">
-        <f t="shared" ref="AD84" si="291">O84*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE84" s="1">
-        <f t="shared" ref="AE84" si="292">P84*P$1</f>
+      <c r="Q86" s="1">
+        <f t="shared" ref="Q86" si="310">B86*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" ref="R86:R87" si="311">C86*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <f t="shared" ref="S86" si="312">D86*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="1">
+        <f t="shared" ref="T86" si="313">E86*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U86" s="1">
+        <f t="shared" ref="U86" si="314">F86*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V86" s="1">
+        <f t="shared" ref="V86" si="315">G86*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W86" s="1">
+        <f t="shared" ref="W86" si="316">H86*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X86" s="1">
+        <f t="shared" ref="X86" si="317">I86*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <f t="shared" ref="Y86" si="318">J86*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1">
+        <f t="shared" ref="Z86" si="319">K86*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA86" s="1">
+        <f t="shared" ref="AA86" si="320">L86*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB86" s="1">
+        <f t="shared" ref="AB86" si="321">M86*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1">
+        <f t="shared" ref="AC86" si="322">N86*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD86" s="1">
+        <f t="shared" ref="AD86" si="323">O86*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="1">
+        <f t="shared" ref="AE86" si="324">P86*P$1</f>
         <v>1507328</v>
       </c>
-      <c r="AF84" s="1">
-        <f t="shared" ref="AF84" si="293">SUM(Q84:AE84)</f>
+      <c r="AF86" s="1">
+        <f t="shared" ref="AF86" si="325">SUM(Q86:AE86)</f>
         <v>1507328</v>
       </c>
-      <c r="AG84" s="1" t="str">
-        <f t="shared" si="277"/>
+      <c r="AG86" s="1" t="str">
+        <f t="shared" si="309"/>
         <v>170000</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="1">
-        <f t="shared" ref="Q85" si="294">B85*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <f t="shared" ref="S85" si="295">D85*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T85" s="1">
-        <f t="shared" ref="T85" si="296">E85*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U85" s="1">
-        <f t="shared" ref="U85" si="297">F85*F$1</f>
-        <v>4096</v>
-      </c>
-      <c r="V85" s="1">
-        <f t="shared" ref="V85" si="298">G85*G$1</f>
-        <v>2048</v>
-      </c>
-      <c r="W85" s="1">
-        <f t="shared" ref="W85" si="299">H85*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X85" s="1">
-        <f t="shared" ref="X85" si="300">I85*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y85" s="1">
-        <f t="shared" ref="Y85" si="301">J85*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z85" s="1">
-        <f t="shared" ref="Z85" si="302">K85*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="1">
-        <f t="shared" ref="AA85" si="303">L85*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB85" s="1">
-        <f t="shared" ref="AB85" si="304">M85*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC85" s="1">
-        <f t="shared" ref="AC85" si="305">N85*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD85" s="1">
-        <f t="shared" ref="AD85" si="306">O85*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE85" s="1">
-        <f t="shared" ref="AE85" si="307">P85*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF85" s="1">
-        <f t="shared" ref="AF85" si="308">SUM(Q85:AE85)</f>
-        <v>6144</v>
-      </c>
-      <c r="AG85" s="1" t="str">
-        <f t="shared" si="277"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="1">
-        <f t="shared" ref="Q86" si="309">B86*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R86" s="1">
-        <f t="shared" ref="R86" si="310">C86*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="1">
-        <f t="shared" ref="S86" si="311">D86*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T86" s="1">
-        <f t="shared" ref="T86" si="312">E86*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U86" s="1">
-        <f t="shared" ref="U86" si="313">F86*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V86" s="1">
-        <f t="shared" ref="V86" si="314">G86*G$1</f>
-        <v>2048</v>
-      </c>
-      <c r="W86" s="1">
-        <f t="shared" ref="W86" si="315">H86*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X86" s="1">
-        <f t="shared" ref="X86" si="316">I86*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="1">
-        <f t="shared" ref="Y86" si="317">J86*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="1">
-        <f t="shared" ref="Z86" si="318">K86*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA86" s="1">
-        <f t="shared" ref="AA86" si="319">L86*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB86" s="1">
-        <f t="shared" ref="AB86" si="320">M86*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC86" s="1">
-        <f t="shared" ref="AC86" si="321">N86*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD86" s="1">
-        <f t="shared" ref="AD86" si="322">O86*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE86" s="1">
-        <f t="shared" ref="AE86" si="323">P86*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF86" s="1">
-        <f t="shared" ref="AF86" si="324">SUM(Q86:AE86)</f>
-        <v>2048</v>
-      </c>
-      <c r="AG86" s="1" t="str">
-        <f t="shared" ref="AG86" si="325">DEC2HEX(AF86)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A87" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P87" s="1">
-        <v>12</v>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
         <f t="shared" ref="Q87" si="326">B87*B$1</f>
         <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="327">C87*C$1</f>
+        <f t="shared" si="311"/>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="328">D87*D$1</f>
+        <f t="shared" ref="S87" si="327">D87*D$1</f>
         <v>0</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="329">E87*E$1</f>
+        <f t="shared" ref="T87" si="328">E87*E$1</f>
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" ref="U87" si="330">F87*F$1</f>
-        <v>0</v>
+        <f t="shared" ref="U87" si="329">F87*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87" si="331">G87*G$1</f>
-        <v>0</v>
+        <f t="shared" ref="V87" si="330">G87*G$1</f>
+        <v>2048</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87" si="332">H87*H$1</f>
+        <f t="shared" ref="W87" si="331">H87*H$1</f>
         <v>0</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" ref="X87" si="333">I87*I$1</f>
+        <f t="shared" ref="X87" si="332">I87*I$1</f>
         <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" ref="Y87" si="334">J87*J$1</f>
+        <f t="shared" ref="Y87" si="333">J87*J$1</f>
         <v>0</v>
       </c>
       <c r="Z87" s="1">
-        <f t="shared" ref="Z87" si="335">K87*K$1</f>
+        <f t="shared" ref="Z87" si="334">K87*K$1</f>
         <v>0</v>
       </c>
       <c r="AA87" s="1">
-        <f t="shared" ref="AA87" si="336">L87*L$1</f>
+        <f t="shared" ref="AA87" si="335">L87*L$1</f>
         <v>0</v>
       </c>
       <c r="AB87" s="1">
-        <f t="shared" ref="AB87" si="337">M87*M$1</f>
+        <f t="shared" ref="AB87" si="336">M87*M$1</f>
         <v>0</v>
       </c>
       <c r="AC87" s="1">
-        <f t="shared" ref="AC87" si="338">N87*N$1</f>
+        <f t="shared" ref="AC87" si="337">N87*N$1</f>
         <v>0</v>
       </c>
       <c r="AD87" s="1">
-        <f t="shared" ref="AD87" si="339">O87*O$1</f>
+        <f t="shared" ref="AD87" si="338">O87*O$1</f>
         <v>0</v>
       </c>
       <c r="AE87" s="1">
-        <f t="shared" ref="AE87" si="340">P87*P$1</f>
+        <f t="shared" ref="AE87" si="339">P87*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="1">
+        <f t="shared" ref="AF87" si="340">SUM(Q87:AE87)</f>
+        <v>6144</v>
+      </c>
+      <c r="AG87" s="1" t="str">
+        <f t="shared" si="309"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" ref="Q88" si="341">B88*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" ref="R88" si="342">C88*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <f t="shared" ref="S88" si="343">D88*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T88" s="1">
+        <f t="shared" ref="T88" si="344">E88*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U88" s="1">
+        <f t="shared" ref="U88" si="345">F88*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V88" s="1">
+        <f t="shared" ref="V88" si="346">G88*G$1</f>
+        <v>2048</v>
+      </c>
+      <c r="W88" s="1">
+        <f t="shared" ref="W88" si="347">H88*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X88" s="1">
+        <f t="shared" ref="X88" si="348">I88*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1">
+        <f t="shared" ref="Y88" si="349">J88*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <f t="shared" ref="Z88" si="350">K88*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <f t="shared" ref="AA88" si="351">L88*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB88" s="1">
+        <f t="shared" ref="AB88" si="352">M88*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1">
+        <f t="shared" ref="AC88" si="353">N88*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="1">
+        <f t="shared" ref="AD88" si="354">O88*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="1">
+        <f t="shared" ref="AE88" si="355">P88*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="1">
+        <f t="shared" ref="AF88" si="356">SUM(Q88:AE88)</f>
+        <v>2048</v>
+      </c>
+      <c r="AG88" s="1" t="str">
+        <f t="shared" ref="AG88" si="357">DEC2HEX(AF88)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P89" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" ref="Q89" si="358">B89*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" ref="R89" si="359">C89*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" ref="S89" si="360">D89*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" ref="T89" si="361">E89*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <f t="shared" ref="U89" si="362">F89*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V89" s="1">
+        <f t="shared" ref="V89" si="363">G89*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
+        <f t="shared" ref="W89" si="364">H89*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X89" s="1">
+        <f t="shared" ref="X89" si="365">I89*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1">
+        <f t="shared" ref="Y89" si="366">J89*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1">
+        <f t="shared" ref="Z89" si="367">K89*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
+        <f t="shared" ref="AA89" si="368">L89*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB89" s="1">
+        <f t="shared" ref="AB89" si="369">M89*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <f t="shared" ref="AC89" si="370">N89*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD89" s="1">
+        <f t="shared" ref="AD89" si="371">O89*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="1">
+        <f t="shared" ref="AE89" si="372">P89*P$1</f>
         <v>786432</v>
       </c>
-      <c r="AF87" s="1">
-        <f t="shared" ref="AF87" si="341">SUM(Q87:AE87)</f>
+      <c r="AF89" s="1">
+        <f t="shared" ref="AF89" si="373">SUM(Q89:AE89)</f>
         <v>786432</v>
       </c>
-      <c r="AG87" s="1" t="str">
-        <f t="shared" ref="AG87" si="342">DEC2HEX(AF87)</f>
+      <c r="AG89" s="1" t="str">
+        <f t="shared" ref="AG89" si="374">DEC2HEX(AF89)</f>
         <v>C0000</v>
       </c>
     </row>
-    <row r="88" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P90" s="1">
         <v>18</v>
       </c>
-      <c r="Q88" s="3">
-        <f t="shared" ref="Q88" si="343">B88*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R88" s="3">
-        <f t="shared" ref="R88" si="344">C88*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S88" s="3">
-        <f t="shared" ref="S88" si="345">D88*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T88" s="3">
-        <f t="shared" ref="T88" si="346">E88*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U88" s="3">
-        <f t="shared" ref="U88" si="347">F88*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V88" s="3">
-        <f t="shared" ref="V88" si="348">G88*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W88" s="3">
-        <f t="shared" ref="W88" si="349">H88*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X88" s="3">
-        <f t="shared" ref="X88" si="350">I88*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y88" s="3">
-        <f t="shared" ref="Y88" si="351">J88*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="3">
-        <f t="shared" ref="Z88" si="352">K88*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA88" s="3">
-        <f t="shared" ref="AA88" si="353">L88*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB88" s="3">
-        <f t="shared" ref="AB88" si="354">M88*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC88" s="3">
-        <f t="shared" ref="AC88" si="355">N88*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD88" s="3">
-        <f t="shared" ref="AD88" si="356">O88*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE88" s="3">
-        <f t="shared" ref="AE88" si="357">P88*P$1</f>
+      <c r="Q90" s="1">
+        <f t="shared" ref="Q90" si="375">B90*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" ref="R90" si="376">C90*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" ref="S90" si="377">D90*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" ref="T90" si="378">E90*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U90" s="1">
+        <f t="shared" ref="U90" si="379">F90*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V90" s="1">
+        <f t="shared" ref="V90" si="380">G90*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
+        <f t="shared" ref="W90" si="381">H90*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <f t="shared" ref="X90" si="382">I90*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1">
+        <f t="shared" ref="Y90" si="383">J90*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1">
+        <f t="shared" ref="Z90" si="384">K90*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <f t="shared" ref="AA90" si="385">L90*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB90" s="1">
+        <f t="shared" ref="AB90" si="386">M90*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1">
+        <f t="shared" ref="AC90" si="387">N90*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD90" s="1">
+        <f t="shared" ref="AD90" si="388">O90*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE90" s="1">
+        <f t="shared" ref="AE90" si="389">P90*P$1</f>
         <v>1179648</v>
       </c>
-      <c r="AF88" s="3">
-        <f t="shared" ref="AF88" si="358">SUM(Q88:AE88)</f>
+      <c r="AF90" s="1">
+        <f t="shared" ref="AF90" si="390">SUM(Q90:AE90)</f>
         <v>1179648</v>
       </c>
-      <c r="AG88" s="3" t="str">
-        <f t="shared" ref="AG88" si="359">DEC2HEX(AF88)</f>
+      <c r="AG90" s="1" t="str">
+        <f t="shared" ref="AG90" si="391">DEC2HEX(AF90)</f>
         <v>120000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P88" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P88">
-      <sortCondition ref="A2:A88"/>
+  <autoFilter ref="A2:P90" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P90">
+      <sortCondition ref="A2:A90"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/worldview and mechanics/equiptype.xlsx
+++ b/doc/worldview and mechanics/equiptype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D8E224-5A1C-4A4C-87E5-9C7617C286E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417BA13-2047-4886-997E-E001BD638DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$P$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve">Mid-gun-flak(5inchGFCS)        </t>
   </si>
@@ -389,6 +389,10 @@
   </si>
   <si>
     <t>Sp-bomb-small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulge-small</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-  <dimension ref="A1:AG90"/>
+  <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG76" sqref="AG76"/>
+      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1045,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <f t="shared" ref="AD4:AD28" si="15">O4*O$1</f>
+        <f t="shared" ref="AD4:AD29" si="15">O4*O$1</f>
         <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE28" si="16">P4*P$1</f>
+        <f t="shared" ref="AE4:AE29" si="16">P4*P$1</f>
         <v>1966080</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF83" si="17">SUM(Q4:AE4)</f>
+        <f t="shared" ref="AF4:AF84" si="17">SUM(Q4:AE4)</f>
         <v>1974272</v>
       </c>
       <c r="AG4" s="1" t="str">
-        <f t="shared" ref="AG4:AG84" si="18">DEC2HEX(AF4)</f>
+        <f t="shared" ref="AG4:AG85" si="18">DEC2HEX(AF4)</f>
         <v>1E2000</v>
       </c>
     </row>
@@ -2576,55 +2580,55 @@
         <v>24</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" ref="Q24:Q83" si="98">B24*B$1</f>
+        <f t="shared" ref="Q24:Q84" si="98">B24*B$1</f>
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ref="R24:R83" si="99">C24*C$1</f>
+        <f t="shared" ref="R24:R84" si="99">C24*C$1</f>
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24:S83" si="100">D24*D$1</f>
+        <f t="shared" ref="S24:S84" si="100">D24*D$1</f>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:T83" si="101">E24*E$1</f>
+        <f t="shared" ref="T24:T84" si="101">E24*E$1</f>
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" ref="U24:U83" si="102">F24*F$1</f>
+        <f t="shared" ref="U24:U84" si="102">F24*F$1</f>
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" ref="V24:V83" si="103">G24*G$1</f>
+        <f t="shared" ref="V24:V84" si="103">G24*G$1</f>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" ref="W24:W83" si="104">H24*H$1</f>
+        <f t="shared" ref="W24:W84" si="104">H24*H$1</f>
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" ref="X24:X83" si="105">I24*I$1</f>
+        <f t="shared" ref="X24:X84" si="105">I24*I$1</f>
         <v>512</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" ref="Y24:Y83" si="106">J24*J$1</f>
+        <f t="shared" ref="Y24:Y84" si="106">J24*J$1</f>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" ref="Z24:Z83" si="107">K24*K$1</f>
+        <f t="shared" ref="Z24:Z84" si="107">K24*K$1</f>
         <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" ref="AA24:AA83" si="108">L24*L$1</f>
+        <f t="shared" ref="AA24:AA84" si="108">L24*L$1</f>
         <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" ref="AB24:AB83" si="109">M24*M$1</f>
+        <f t="shared" ref="AB24:AB84" si="109">M24*M$1</f>
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <f t="shared" ref="AC24:AC83" si="110">N24*N$1</f>
+        <f t="shared" ref="AC24:AC84" si="110">N24*N$1</f>
         <v>0</v>
       </c>
       <c r="AD24" s="1">
@@ -2725,96 +2729,96 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1">
         <v>29</v>
       </c>
       <c r="Q26" s="1">
+        <f t="shared" ref="Q26" si="111">B26*B$1</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" ref="R26" si="112">C26*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" ref="S26" si="113">D26*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26" si="114">E26*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" ref="U26" si="115">F26*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" ref="V26" si="116">G26*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" ref="W26" si="117">H26*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" ref="X26" si="118">I26*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" ref="Y26" si="119">J26*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" ref="Z26" si="120">K26*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" ref="AA26" si="121">L26*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" ref="AB26" si="122">M26*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" ref="AC26" si="123">N26*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" ref="AD26" si="124">O26*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" ref="AE26" si="125">P26*P$1</f>
+        <v>1900544</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" ref="AF26" si="126">SUM(Q26:AE26)</f>
+        <v>1900545</v>
+      </c>
+      <c r="AG26" s="1" t="str">
+        <f t="shared" ref="AG26" si="127">DEC2HEX(AF26)</f>
+        <v>1D0001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
-      </c>
-      <c r="R26" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="1">
-        <f t="shared" si="16"/>
-        <v>1900544</v>
-      </c>
-      <c r="AF26" s="1">
-        <f t="shared" si="17"/>
-        <v>1900547</v>
-      </c>
-      <c r="AG26" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>1D0003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="99"/>
@@ -2874,23 +2878,26 @@
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="17"/>
-        <v>1900546</v>
+        <v>1900547</v>
       </c>
       <c r="AG27" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1D0002</v>
+        <v>1D0003</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
       </c>
       <c r="P28" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="99"/>
@@ -2946,1265 +2953,1262 @@
       </c>
       <c r="AE28" s="1">
         <f t="shared" si="16"/>
-        <v>1310720</v>
+        <v>1900544</v>
       </c>
       <c r="AF28" s="1">
         <f t="shared" si="17"/>
-        <v>1310720</v>
+        <v>1900546</v>
       </c>
       <c r="AG28" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>140000</v>
+        <v>1D0002</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="P29" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ref="Q29" si="111">B29*B$1</f>
-        <v>2</v>
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" ref="R29" si="112">C29*C$1</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" ref="S29" si="113">D29*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" ref="T29" si="114">E29*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29" si="115">F29*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" ref="V29" si="116">G29*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="117">H29*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" ref="X29" si="118">I29*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" ref="Y29" si="119">J29*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29" si="120">K29*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" ref="AA29" si="121">L29*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" ref="AB29" si="122">M29*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" ref="AC29" si="123">N29*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" ref="AD29" si="124">O29*O$1</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" ref="AE29" si="125">P29*P$1</f>
-        <v>131072</v>
+        <f t="shared" si="16"/>
+        <v>1310720</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" ref="AF29" si="126">SUM(Q29:AE29)</f>
-        <v>131074</v>
+        <f t="shared" si="17"/>
+        <v>1310720</v>
       </c>
       <c r="AG29" s="1" t="str">
-        <f t="shared" ref="AG29" si="127">DEC2HEX(AF29)</f>
-        <v>20002</v>
+        <f t="shared" si="18"/>
+        <v>140000</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="1">
         <v>2</v>
       </c>
       <c r="Q30" s="1">
+        <f t="shared" ref="Q30" si="128">B30*B$1</f>
+        <v>2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" ref="R30" si="129">C30*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30" si="130">D30*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" ref="T30" si="131">E30*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" ref="U30" si="132">F30*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" ref="V30" si="133">G30*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" ref="W30" si="134">H30*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" ref="X30" si="135">I30*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" ref="Y30" si="136">J30*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" ref="Z30" si="137">K30*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" ref="AA30" si="138">L30*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" ref="AB30" si="139">M30*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" ref="AC30" si="140">N30*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" ref="AD30" si="141">O30*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" ref="AE30" si="142">P30*P$1</f>
+        <v>131072</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" ref="AF30" si="143">SUM(Q30:AE30)</f>
+        <v>131074</v>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <f t="shared" ref="AG30" si="144">DEC2HEX(AF30)</f>
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R31" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S31" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T31" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U31" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V31" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W31" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X31" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y31" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z31" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA31" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB31" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC31" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
-        <f t="shared" ref="AD30:AD83" si="128">O30*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="1">
-        <f t="shared" ref="AE30:AE83" si="129">P30*P$1</f>
+      <c r="AD31" s="1">
+        <f t="shared" ref="AD31:AD84" si="145">O31*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" ref="AE31:AE84" si="146">P31*P$1</f>
         <v>131072</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AF31" s="1">
         <f t="shared" si="17"/>
         <v>131073</v>
       </c>
-      <c r="AG30" s="1" t="str">
+      <c r="AG31" s="1" t="str">
         <f t="shared" si="18"/>
         <v>20001</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P32" s="1">
         <v>11</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R32" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S32" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T32" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U32" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V32" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W32" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X32" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y32" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z32" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA32" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB32" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC32" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD32" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" si="146"/>
         <v>720896</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF32" s="1">
         <f t="shared" si="17"/>
         <v>720896</v>
       </c>
-      <c r="AG31" s="1" t="str">
+      <c r="AG32" s="1" t="str">
         <f t="shared" si="18"/>
         <v>B0000</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P33" s="1">
         <v>14</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R33" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S33" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T33" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U33" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V33" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W33" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X33" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y33" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z33" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA33" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB33" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC33" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD33" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" si="146"/>
         <v>917504</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AF33" s="1">
         <f t="shared" si="17"/>
         <v>917504</v>
       </c>
-      <c r="AG32" s="1" t="str">
+      <c r="AG33" s="1" t="str">
         <f t="shared" si="18"/>
         <v>E0000</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P34" s="1">
         <v>13</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R34" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S34" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T34" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U34" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V34" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W34" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X34" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y34" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z34" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA34" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AB34" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AC34" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD34" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="146"/>
         <v>851968</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AF34" s="1">
         <f t="shared" si="17"/>
         <v>851968</v>
       </c>
-      <c r="AG33" s="1" t="str">
+      <c r="AG34" s="1" t="str">
         <f t="shared" si="18"/>
         <v>D0000</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R35" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S35" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T35" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U35" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V35" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W35" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X35" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y35" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z35" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA35" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AB35" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AC35" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1">
+      <c r="AD35" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="1">
         <f t="shared" si="17"/>
         <v>1024</v>
       </c>
-      <c r="AG34" s="1" t="str">
+      <c r="AG35" s="1" t="str">
         <f t="shared" si="18"/>
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1">
-        <f t="shared" ref="Q35" si="130">B35*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <f t="shared" ref="R35" si="131">C35*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" ref="S35" si="132">D35*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="1">
-        <f t="shared" ref="T35" si="133">E35*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="1">
-        <f t="shared" ref="U35" si="134">F35*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" ref="V35" si="135">G35*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="1">
-        <f t="shared" ref="W35" si="136">H35*H$1</f>
-        <v>1024</v>
-      </c>
-      <c r="X35" s="1">
-        <f t="shared" ref="X35" si="137">I35*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="1">
-        <f t="shared" ref="Y35" si="138">J35*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="1">
-        <f t="shared" ref="Z35" si="139">K35*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="1">
-        <f t="shared" ref="AA35" si="140">L35*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1">
-        <f t="shared" ref="AB35" si="141">M35*M$1</f>
-        <v>32</v>
-      </c>
-      <c r="AC35" s="1">
-        <f t="shared" ref="AC35" si="142">N35*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="1">
-        <f t="shared" ref="AD35" si="143">O35*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="1">
-        <f t="shared" ref="AE35" si="144">P35*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1">
-        <f t="shared" ref="AF35" si="145">SUM(Q35:AE35)</f>
-        <v>1056</v>
-      </c>
-      <c r="AG35" s="1" t="str">
-        <f t="shared" ref="AG35" si="146">DEC2HEX(AF35)</f>
-        <v>420</v>
-      </c>
-    </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ref="Q36" si="147">B36*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" ref="R36" si="148">C36*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" ref="S36" si="149">D36*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" ref="T36" si="150">E36*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" ref="U36" si="151">F36*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" ref="V36" si="152">G36*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" ref="W36" si="153">H36*H$1</f>
+        <v>1024</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" ref="X36" si="154">I36*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" ref="Y36" si="155">J36*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" ref="Z36" si="156">K36*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1">
+        <f t="shared" ref="AA36" si="157">L36*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" ref="AB36" si="158">M36*M$1</f>
+        <v>32</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" ref="AC36" si="159">N36*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="1">
+        <f t="shared" ref="AD36" si="160">O36*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" ref="AE36" si="161">P36*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" ref="AF36" si="162">SUM(Q36:AE36)</f>
+        <v>1056</v>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <f t="shared" ref="AG36" si="163">DEC2HEX(AF36)</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
         <v>27</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R37" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S37" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T37" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V37" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W37" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X37" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y37" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Z37" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AA37" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AB37" s="1">
         <f t="shared" si="109"/>
         <v>32</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AC37" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD37" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="146"/>
         <v>1769472</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AF37" s="1">
         <f t="shared" si="17"/>
         <v>1770528</v>
       </c>
-      <c r="AG36" s="1" t="str">
+      <c r="AG37" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1B0420</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1">
-        <f t="shared" ref="Q37" si="147">B37*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <f t="shared" ref="R37" si="148">C37*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <f t="shared" ref="S37" si="149">D37*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="1">
-        <f t="shared" ref="T37" si="150">E37*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="1">
-        <f t="shared" ref="U37" si="151">F37*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" ref="V37" si="152">G37*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="1">
-        <f t="shared" ref="W37" si="153">H37*H$1</f>
-        <v>1024</v>
-      </c>
-      <c r="X37" s="1">
-        <f t="shared" ref="X37" si="154">I37*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1">
-        <f t="shared" ref="Y37" si="155">J37*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1">
-        <f t="shared" ref="Z37" si="156">K37*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <f t="shared" ref="AA37" si="157">L37*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="1">
-        <f t="shared" ref="AB37" si="158">M37*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="1">
-        <f t="shared" ref="AC37" si="159">N37*N$1</f>
-        <v>16</v>
-      </c>
-      <c r="AD37" s="1">
-        <f t="shared" ref="AD37" si="160">O37*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="1">
-        <f t="shared" ref="AE37" si="161">P37*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1">
-        <f t="shared" ref="AF37" si="162">SUM(Q37:AE37)</f>
-        <v>1040</v>
-      </c>
-      <c r="AG37" s="1" t="str">
-        <f t="shared" ref="AG37" si="163">DEC2HEX(AF37)</f>
-        <v>410</v>
-      </c>
-    </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ref="Q38" si="164">B38*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" ref="R38" si="165">C38*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" ref="S38" si="166">D38*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" ref="T38" si="167">E38*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" ref="U38" si="168">F38*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" ref="V38" si="169">G38*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" ref="W38" si="170">H38*H$1</f>
+        <v>1024</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" ref="X38" si="171">I38*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" ref="Y38" si="172">J38*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" ref="Z38" si="173">K38*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <f t="shared" ref="AA38" si="174">L38*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" ref="AB38" si="175">M38*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" ref="AC38" si="176">N38*N$1</f>
+        <v>16</v>
+      </c>
+      <c r="AD38" s="1">
+        <f t="shared" ref="AD38" si="177">O38*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" ref="AE38" si="178">P38*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" ref="AF38" si="179">SUM(Q38:AE38)</f>
+        <v>1040</v>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <f t="shared" ref="AG38" si="180">DEC2HEX(AF38)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P39" s="1">
         <v>26</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R39" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S39" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T39" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U39" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V39" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W39" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X39" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y39" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z39" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA39" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AB39" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AC39" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD39" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="146"/>
         <v>1703936</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF39" s="1">
         <f t="shared" si="17"/>
         <v>1703936</v>
       </c>
-      <c r="AG38" s="1" t="str">
+      <c r="AG39" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1A0000</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P40" s="1">
         <v>19</v>
       </c>
-      <c r="Q39" s="1">
-        <f t="shared" ref="Q39" si="164">B39*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <f t="shared" ref="R39" si="165">C39*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <f t="shared" ref="S39" si="166">D39*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="1">
-        <f t="shared" ref="T39" si="167">E39*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="1">
-        <f t="shared" ref="U39" si="168">F39*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" ref="V39" si="169">G39*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="1">
-        <f t="shared" ref="W39" si="170">H39*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="1">
-        <f t="shared" ref="X39" si="171">I39*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="1">
-        <f t="shared" ref="Y39" si="172">J39*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="1">
-        <f t="shared" ref="Z39" si="173">K39*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="1">
-        <f t="shared" ref="AA39" si="174">L39*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1">
-        <f t="shared" ref="AB39" si="175">M39*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="1">
-        <f t="shared" ref="AC39" si="176">N39*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="1">
-        <f t="shared" ref="AD39" si="177">O39*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" ref="AE39" si="178">P39*P$1</f>
+      <c r="Q40" s="1">
+        <f t="shared" ref="Q40" si="181">B40*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" ref="R40" si="182">C40*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" ref="S40" si="183">D40*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" ref="T40" si="184">E40*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" ref="U40" si="185">F40*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" ref="V40" si="186">G40*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" ref="W40" si="187">H40*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" ref="X40" si="188">I40*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" ref="Y40" si="189">J40*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" ref="Z40" si="190">K40*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <f t="shared" ref="AA40" si="191">L40*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" ref="AB40" si="192">M40*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" ref="AC40" si="193">N40*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="1">
+        <f t="shared" ref="AD40" si="194">O40*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" ref="AE40" si="195">P40*P$1</f>
         <v>1245184</v>
       </c>
-      <c r="AF39" s="1">
-        <f t="shared" ref="AF39" si="179">SUM(Q39:AE39)</f>
+      <c r="AF40" s="1">
+        <f t="shared" ref="AF40" si="196">SUM(Q40:AE40)</f>
         <v>1245184</v>
       </c>
-      <c r="AG39" s="1" t="str">
+      <c r="AG40" s="1" t="str">
         <f t="shared" si="18"/>
         <v>130000</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P41" s="1">
         <v>31</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q41" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R41" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S41" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T41" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U41" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V41" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W41" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X41" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y41" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z41" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AA41" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AB41" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AC41" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD41" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="146"/>
         <v>2031616</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF41" s="1">
         <f t="shared" si="17"/>
         <v>2031616</v>
       </c>
-      <c r="AG40" s="1" t="str">
+      <c r="AG41" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1F0000</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P42" s="1">
         <v>9</v>
       </c>
-      <c r="Q41" s="1">
-        <f t="shared" ref="Q41" si="180">B41*B$1</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" ref="R41" si="181">C41*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <f t="shared" ref="S41" si="182">D41*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="1">
-        <f t="shared" ref="T41" si="183">E41*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="1">
-        <f t="shared" ref="U41" si="184">F41*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="1">
-        <f t="shared" ref="V41" si="185">G41*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="1">
-        <f t="shared" ref="W41" si="186">H41*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X41" s="1">
-        <f t="shared" ref="X41" si="187">I41*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="1">
-        <f t="shared" ref="Y41" si="188">J41*J$1</f>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="1">
-        <f t="shared" ref="Z41" si="189">K41*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="1">
-        <f t="shared" ref="AA41" si="190">L41*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1">
-        <f t="shared" ref="AB41" si="191">M41*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="1">
-        <f t="shared" ref="AC41" si="192">N41*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="1">
-        <f t="shared" ref="AD41" si="193">O41*O$1</f>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="1">
-        <f t="shared" ref="AE41" si="194">P41*P$1</f>
+      <c r="Q42" s="1">
+        <f t="shared" ref="Q42" si="197">B42*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" ref="R42" si="198">C42*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" ref="S42" si="199">D42*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" ref="T42" si="200">E42*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" ref="U42" si="201">F42*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" ref="V42" si="202">G42*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" ref="W42" si="203">H42*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" ref="X42" si="204">I42*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" ref="Y42" si="205">J42*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" ref="Z42" si="206">K42*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="1">
+        <f t="shared" ref="AA42" si="207">L42*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" ref="AB42" si="208">M42*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" ref="AC42" si="209">N42*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <f t="shared" ref="AD42" si="210">O42*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" ref="AE42" si="211">P42*P$1</f>
         <v>589824</v>
       </c>
-      <c r="AF41" s="1">
-        <f t="shared" ref="AF41" si="195">SUM(Q41:AE41)</f>
+      <c r="AF42" s="1">
+        <f t="shared" ref="AF42" si="212">SUM(Q42:AE42)</f>
         <v>589824</v>
       </c>
-      <c r="AG41" s="1" t="str">
+      <c r="AG42" s="1" t="str">
         <f t="shared" si="18"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P43" s="1">
         <v>10</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q43" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R42" s="1">
+      <c r="R43" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S42" s="1">
+      <c r="S43" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T42" s="1">
+      <c r="T43" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U42" s="1">
+      <c r="U43" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V43" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W43" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X43" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="1">
+      <c r="Y43" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z43" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AA43" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AB43" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AC43" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD43" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="146"/>
         <v>655360</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AF43" s="1">
         <f t="shared" si="17"/>
         <v>655360</v>
       </c>
-      <c r="AG42" s="1" t="str">
+      <c r="AG43" s="1" t="str">
         <f t="shared" si="18"/>
         <v>A0000</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="1">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="R43" s="1">
+      <c r="R44" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S44" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T43" s="1">
+      <c r="T44" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U43" s="1">
+      <c r="U44" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V44" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W44" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X44" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y44" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z44" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AA44" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AB44" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AC44" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD44" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="146"/>
         <v>65536</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AF44" s="1">
         <f t="shared" si="17"/>
         <v>65536</v>
       </c>
-      <c r="AG43" s="1" t="str">
+      <c r="AG44" s="1" t="str">
         <f t="shared" si="18"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="99"/>
-        <v>32768</v>
-      </c>
-      <c r="S44" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
-      </c>
-      <c r="U44" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X44" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AB44" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="1">
-        <f t="shared" si="17"/>
-        <v>40962</v>
-      </c>
-      <c r="AG44" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>A002</v>
-      </c>
-    </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
       </c>
       <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="Q45" s="1">
@@ -4221,7 +4225,7 @@
       </c>
       <c r="T45" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" si="102"/>
@@ -4260,193 +4264,193 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE45" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF45" s="1">
         <f t="shared" si="17"/>
-        <v>32770</v>
+        <v>40962</v>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8002</v>
+        <v>A002</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" ref="Q46" si="196">B46*B$1</f>
-        <v>3</v>
+        <f t="shared" si="98"/>
+        <v>2</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" ref="R46" si="197">C46*C$1</f>
+        <f t="shared" si="99"/>
         <v>32768</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ref="S46" si="198">D46*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" ref="T46" si="199">E46*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" ref="U46" si="200">F46*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f t="shared" ref="V46" si="201">G46*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f t="shared" ref="W46" si="202">H46*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" ref="X46" si="203">I46*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" ref="Y46" si="204">J46*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <f t="shared" ref="Z46" si="205">K46*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA46" s="1">
-        <f t="shared" ref="AA46" si="206">L46*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB46" s="1">
-        <f t="shared" ref="AB46" si="207">M46*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC46" s="1">
-        <f t="shared" ref="AC46" si="208">N46*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD46" s="1">
-        <f t="shared" ref="AD46" si="209">O46*O$1</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE46" s="1">
-        <f t="shared" ref="AE46" si="210">P46*P$1</f>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" ref="AF46" si="211">SUM(Q46:AE46)</f>
-        <v>32771</v>
+        <f t="shared" si="17"/>
+        <v>32770</v>
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8003</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" ref="Q47" si="213">B47*B$1</f>
+        <v>3</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" ref="R47" si="214">C47*C$1</f>
+        <v>32768</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" ref="S47" si="215">D47*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" ref="T47" si="216">E47*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" ref="U47" si="217">F47*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" ref="V47" si="218">G47*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" ref="W47" si="219">H47*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" ref="X47" si="220">I47*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" ref="Y47" si="221">J47*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" ref="Z47" si="222">K47*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <f t="shared" ref="AA47" si="223">L47*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" ref="AB47" si="224">M47*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" ref="AC47" si="225">N47*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="1">
+        <f t="shared" ref="AD47" si="226">O47*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
+        <f t="shared" ref="AE47" si="227">P47*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="1">
+        <f t="shared" ref="AF47" si="228">SUM(Q47:AE47)</f>
+        <v>32771</v>
+      </c>
+      <c r="AG47" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
         <f t="shared" si="98"/>
         <v>2</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="U47" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X47" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="1">
-        <f t="shared" si="108"/>
-        <v>64</v>
-      </c>
-      <c r="AB47" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="1">
-        <f t="shared" si="17"/>
-        <v>66</v>
-      </c>
-      <c r="AG47" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="99"/>
@@ -4490,116 +4494,113 @@
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="109"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD48" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE48" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
         <v>1</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ref="R49" si="212">C49*C$1</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" ref="S49" si="213">D49*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" ref="T49" si="214">E49*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" ref="U49" si="215">F49*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V49" s="1">
-        <f t="shared" ref="V49" si="216">G49*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <f t="shared" ref="W49" si="217">H49*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" ref="X49" si="218">I49*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" ref="Y49" si="219">J49*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" ref="Z49" si="220">K49*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" ref="AA49" si="221">L49*L$1</f>
+        <f t="shared" si="108"/>
         <v>64</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" ref="AB49" si="222">M49*M$1</f>
-        <v>0</v>
+        <f t="shared" si="109"/>
+        <v>32</v>
       </c>
       <c r="AC49" s="1">
-        <f t="shared" ref="AC49" si="223">N49*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD49" s="1">
-        <f t="shared" ref="AD49" si="224">O49*O$1</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE49" s="1">
-        <f t="shared" ref="AE49" si="225">P49*P$1</f>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <f t="shared" ref="AF49" si="226">SUM(Q49:AE49)</f>
-        <v>65</v>
+        <f t="shared" si="17"/>
+        <v>96</v>
       </c>
       <c r="AG49" s="1" t="str">
-        <f t="shared" ref="AG49" si="227">DEC2HEX(AF49)</f>
-        <v>41</v>
+        <f t="shared" si="18"/>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="L50" s="1">
@@ -4610,160 +4611,163 @@
         <v>1</v>
       </c>
       <c r="R50" s="1">
+        <f t="shared" ref="R50" si="229">C50*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" ref="S50" si="230">D50*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" ref="T50" si="231">E50*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" ref="U50" si="232">F50*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" ref="V50" si="233">G50*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" ref="W50" si="234">H50*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" ref="X50" si="235">I50*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" ref="Y50" si="236">J50*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" ref="Z50" si="237">K50*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
+        <f t="shared" ref="AA50" si="238">L50*L$1</f>
+        <v>64</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" ref="AB50" si="239">M50*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" ref="AC50" si="240">N50*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="1">
+        <f t="shared" ref="AD50" si="241">O50*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" ref="AE50" si="242">P50*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="1">
+        <f t="shared" ref="AF50" si="243">SUM(Q50:AE50)</f>
+        <v>65</v>
+      </c>
+      <c r="AG50" s="1" t="str">
+        <f t="shared" ref="AG50" si="244">DEC2HEX(AF50)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S51" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U51" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V51" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W51" s="1">
         <f t="shared" si="104"/>
         <v>1024</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X51" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y51" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z51" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA51" s="1">
         <f t="shared" si="108"/>
         <v>64</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB51" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC51" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1">
+      <c r="AD51" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="1">
         <f t="shared" si="17"/>
         <v>1089</v>
       </c>
-      <c r="AG50" s="1" t="str">
+      <c r="AG51" s="1" t="str">
         <f t="shared" si="18"/>
         <v>441</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
-      </c>
-      <c r="R51" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="1">
-        <f t="shared" si="101"/>
-        <v>8192</v>
-      </c>
-      <c r="U51" s="1">
-        <f t="shared" si="102"/>
-        <v>4096</v>
-      </c>
-      <c r="V51" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1">
-        <f t="shared" si="17"/>
-        <v>12290</v>
-      </c>
-      <c r="AG51" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>3002</v>
-      </c>
-    </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
         <v>2</v>
       </c>
       <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="Q52" s="1">
@@ -4784,7 +4788,7 @@
       </c>
       <c r="U52" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="103"/>
@@ -4819,30 +4823,30 @@
         <v>0</v>
       </c>
       <c r="AD52" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE52" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="17"/>
-        <v>8194</v>
+        <v>12290</v>
       </c>
       <c r="AG52" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>2002</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="1">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="Q53" s="1">
@@ -4859,11 +4863,11 @@
       </c>
       <c r="T53" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V53" s="1">
         <f t="shared" si="103"/>
@@ -4898,38 +4902,35 @@
         <v>0</v>
       </c>
       <c r="AD53" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE53" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="17"/>
-        <v>4098</v>
+        <v>8194</v>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1002</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="99"/>
@@ -4941,7 +4942,7 @@
       </c>
       <c r="T54" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="102"/>
@@ -4980,25 +4981,25 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE54" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="17"/>
-        <v>12289</v>
+        <v>4098</v>
       </c>
       <c r="AG54" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -5006,394 +5007,397 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
       <c r="Q55" s="1">
-        <f t="shared" ref="Q55" si="228">B55*B$1</f>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" ref="R55" si="229">C55*C$1</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" ref="S55" si="230">D55*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" ref="T55" si="231">E55*E$1</f>
+        <f t="shared" si="101"/>
         <v>8192</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" ref="U55" si="232">F55*F$1</f>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>4096</v>
       </c>
       <c r="V55" s="1">
-        <f t="shared" ref="V55" si="233">G55*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f t="shared" ref="W55" si="234">H55*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" ref="X55" si="235">I55*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" ref="Y55" si="236">J55*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" ref="Z55" si="237">K55*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA55" s="1">
-        <f t="shared" ref="AA55" si="238">L55*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB55" s="1">
-        <f t="shared" ref="AB55" si="239">M55*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC55" s="1">
-        <f t="shared" ref="AC55" si="240">N55*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD55" s="1">
-        <f t="shared" ref="AD55" si="241">O55*O$1</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE55" s="1">
-        <f t="shared" ref="AE55" si="242">P55*P$1</f>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF55" s="1">
-        <f t="shared" ref="AF55" si="243">SUM(Q55:AE55)</f>
-        <v>8193</v>
+        <f t="shared" si="17"/>
+        <v>12289</v>
       </c>
       <c r="AG55" s="1" t="str">
-        <f t="shared" ref="AG55" si="244">DEC2HEX(AF55)</f>
-        <v>2001</v>
+        <f t="shared" si="18"/>
+        <v>3001</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" ref="Q56" si="245">B56*B$1</f>
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" ref="R56" si="246">C56*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" ref="S56" si="247">D56*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" ref="T56" si="248">E56*E$1</f>
+        <v>8192</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" ref="U56" si="249">F56*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" ref="V56" si="250">G56*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" ref="W56" si="251">H56*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <f t="shared" ref="X56" si="252">I56*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <f t="shared" ref="Y56" si="253">J56*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <f t="shared" ref="Z56" si="254">K56*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <f t="shared" ref="AA56" si="255">L56*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" ref="AB56" si="256">M56*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" ref="AC56" si="257">N56*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="1">
+        <f t="shared" ref="AD56" si="258">O56*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <f t="shared" ref="AE56" si="259">P56*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="1">
+        <f t="shared" ref="AF56" si="260">SUM(Q56:AE56)</f>
+        <v>8193</v>
+      </c>
+      <c r="AG56" s="1" t="str">
+        <f t="shared" ref="AG56" si="261">DEC2HEX(AF56)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="1">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R57" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S57" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T57" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U57" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V57" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W57" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X57" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y57" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z57" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA57" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AB57" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AC57" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD56" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE56" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF56" s="1">
+      <c r="AD57" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="1">
         <f t="shared" si="17"/>
         <v>4097</v>
       </c>
-      <c r="AG56" s="1" t="str">
+      <c r="AG57" s="1" t="str">
         <f t="shared" si="18"/>
         <v>1001</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B58" s="1">
         <v>7</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q58" s="1">
         <f t="shared" si="98"/>
         <v>7</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R58" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S58" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T58" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U58" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V58" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W58" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X58" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y58" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z58" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA58" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB58" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AC58" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD57" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE57" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="1">
+      <c r="AD58" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="1">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="1">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="AG57" s="1" t="str">
+      <c r="AG58" s="1" t="str">
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B59" s="1">
         <v>3</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="1">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R59" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S59" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T59" s="1">
         <f t="shared" si="101"/>
         <v>8192</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U59" s="1">
         <f t="shared" si="102"/>
         <v>4096</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V59" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W59" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X59" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y59" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="Z59" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="AA59" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AB59" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AC59" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD58" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="1">
+      <c r="AD59" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="1">
         <f t="shared" si="17"/>
         <v>12291</v>
       </c>
-      <c r="AG58" s="1" t="str">
+      <c r="AG59" s="1" t="str">
         <f t="shared" si="18"/>
         <v>3003</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="1">
-        <f t="shared" si="106"/>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="1">
-        <f t="shared" si="107"/>
-        <v>128</v>
-      </c>
-      <c r="AA59" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AB59" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE59" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="1">
-        <f t="shared" si="17"/>
-        <v>128</v>
-      </c>
-      <c r="AG59" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>80</v>
-      </c>
-    </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K60" s="1">
         <v>1</v>
@@ -5424,7 +5428,7 @@
       </c>
       <c r="W60" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1">
         <f t="shared" si="105"/>
@@ -5451,31 +5455,31 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE60" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF60" s="1">
         <f t="shared" si="17"/>
-        <v>1152</v>
+        <v>128</v>
       </c>
       <c r="AG60" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>480</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
       </c>
       <c r="K61" s="1">
         <v>1</v>
-      </c>
-      <c r="P61" s="1">
-        <v>28</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="98"/>
@@ -5503,7 +5507,7 @@
       </c>
       <c r="W61" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" si="105"/>
@@ -5530,31 +5534,31 @@
         <v>0</v>
       </c>
       <c r="AD61" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE61" s="1">
-        <f t="shared" si="129"/>
-        <v>1835008</v>
+        <f t="shared" si="146"/>
+        <v>0</v>
       </c>
       <c r="AF61" s="1">
         <f t="shared" si="17"/>
-        <v>1835136</v>
+        <v>1152</v>
       </c>
       <c r="AG61" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1C0080</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K62" s="1">
         <v>1</v>
       </c>
-      <c r="M62" s="1">
-        <v>1</v>
+      <c r="P62" s="1">
+        <v>28</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="98"/>
@@ -5602,35 +5606,38 @@
       </c>
       <c r="AB62" s="1">
         <f t="shared" si="109"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD62" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE62" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
+        <f t="shared" si="146"/>
+        <v>1835008</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>160</v>
+        <v>1835136</v>
       </c>
       <c r="AG62" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A0</v>
+        <v>1C0080</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P63" s="1">
         <v>22</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="98"/>
@@ -5670,7 +5677,7 @@
       </c>
       <c r="Z63" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="108"/>
@@ -5678,35 +5685,35 @@
       </c>
       <c r="AB63" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD63" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE63" s="1">
-        <f t="shared" si="129"/>
-        <v>1441792</v>
+        <f t="shared" si="146"/>
+        <v>0</v>
       </c>
       <c r="AF63" s="1">
         <f t="shared" si="17"/>
-        <v>1441792</v>
+        <v>160</v>
       </c>
       <c r="AG63" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>160000</v>
+        <v>A0</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P64" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="98"/>
@@ -5761,35 +5768,32 @@
         <v>0</v>
       </c>
       <c r="AD64" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE64" s="1">
-        <f t="shared" si="129"/>
-        <v>1114112</v>
+        <f t="shared" si="146"/>
+        <v>1441792</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="17"/>
-        <v>1114112</v>
+        <v>1441792</v>
       </c>
       <c r="AG64" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>110000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="P65" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q65" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" si="99"/>
@@ -5840,35 +5844,35 @@
         <v>0</v>
       </c>
       <c r="AD65" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE65" s="1">
-        <f t="shared" si="129"/>
-        <v>983040</v>
+        <f t="shared" si="146"/>
+        <v>1114112</v>
       </c>
       <c r="AF65" s="1">
         <f t="shared" si="17"/>
-        <v>983041</v>
+        <v>1114112</v>
       </c>
       <c r="AG65" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0001</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P66" s="1">
         <v>15</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="99"/>
@@ -5919,38 +5923,35 @@
         <v>0</v>
       </c>
       <c r="AD66" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE66" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>983040</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="17"/>
-        <v>983043</v>
+        <v>983041</v>
       </c>
       <c r="AG66" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0003</v>
+        <v>F0001</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="1">
         <v>3</v>
       </c>
-      <c r="B67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
+      <c r="P67" s="1">
+        <v>15</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="99"/>
@@ -5958,11 +5959,11 @@
       </c>
       <c r="S67" s="1">
         <f t="shared" si="100"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T67" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U67" s="1">
         <f t="shared" si="102"/>
@@ -6001,28 +6002,28 @@
         <v>0</v>
       </c>
       <c r="AD67" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE67" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
+        <f t="shared" si="146"/>
+        <v>983040</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="17"/>
-        <v>24578</v>
+        <v>983043</v>
       </c>
       <c r="AG67" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6002</v>
+        <v>F0003</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B68" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -6032,7 +6033,7 @@
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="99"/>
@@ -6083,35 +6084,38 @@
         <v>0</v>
       </c>
       <c r="AD68" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE68" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="17"/>
-        <v>24579</v>
+        <v>24578</v>
       </c>
       <c r="AG68" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6003</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="Q69" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" s="1">
         <f t="shared" si="99"/>
@@ -6123,7 +6127,7 @@
       </c>
       <c r="T69" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U69" s="1">
         <f t="shared" si="102"/>
@@ -6162,50 +6166,47 @@
         <v>0</v>
       </c>
       <c r="AD69" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE69" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF69" s="1">
         <f t="shared" si="17"/>
-        <v>16386</v>
+        <v>24579</v>
       </c>
       <c r="AG69" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>4002</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R70" s="1">
         <f t="shared" si="99"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S70" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T70" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U70" s="1">
         <f t="shared" si="102"/>
@@ -6244,30 +6245,33 @@
         <v>0</v>
       </c>
       <c r="AD70" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE70" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF70" s="1">
         <f t="shared" si="17"/>
-        <v>40961</v>
+        <v>16386</v>
       </c>
       <c r="AG70" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A001</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
       <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
         <v>1</v>
       </c>
       <c r="Q71" s="1">
@@ -6284,7 +6288,7 @@
       </c>
       <c r="T71" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U71" s="1">
         <f t="shared" si="102"/>
@@ -6323,36 +6327,39 @@
         <v>0</v>
       </c>
       <c r="AD71" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE71" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF71" s="1">
         <f t="shared" si="17"/>
-        <v>32769</v>
+        <v>40961</v>
       </c>
       <c r="AG71" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8001</v>
+        <v>A001</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P72" s="1">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S72" s="1">
         <f t="shared" si="100"/>
@@ -6399,434 +6406,425 @@
         <v>0</v>
       </c>
       <c r="AD72" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE72" s="1">
-        <f t="shared" si="129"/>
-        <v>196608</v>
+        <f t="shared" si="146"/>
+        <v>0</v>
       </c>
       <c r="AF72" s="1">
         <f t="shared" si="17"/>
-        <v>196608</v>
+        <v>32769</v>
       </c>
       <c r="AG72" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>30000</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="1">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="P73" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" ref="Q73" si="245">B73*B$1</f>
-        <v>2</v>
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" ref="R73" si="246">C73*C$1</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" ref="S73" si="247">D73*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" ref="T73" si="248">E73*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" ref="U73" si="249">F73*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f t="shared" ref="V73" si="250">G73*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" ref="W73" si="251">H73*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" ref="X73" si="252">I73*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" ref="Y73" si="253">J73*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <f t="shared" ref="Z73" si="254">K73*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" ref="AA73" si="255">L73*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" ref="AB73" si="256">M73*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" ref="AC73" si="257">N73*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD73" s="1">
-        <f t="shared" ref="AD73" si="258">O73*O$1</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE73" s="1">
-        <f t="shared" ref="AE73" si="259">P73*P$1</f>
-        <v>262144</v>
+        <f t="shared" si="146"/>
+        <v>196608</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" ref="AF73" si="260">SUM(Q73:AE73)</f>
-        <v>262146</v>
+        <f t="shared" si="17"/>
+        <v>196608</v>
       </c>
       <c r="AG73" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40002</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" s="1">
         <v>4</v>
       </c>
       <c r="Q74" s="1">
+        <f t="shared" ref="Q74" si="262">B74*B$1</f>
+        <v>2</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" ref="R74" si="263">C74*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" ref="S74" si="264">D74*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" ref="T74" si="265">E74*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="1">
+        <f t="shared" ref="U74" si="266">F74*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="1">
+        <f t="shared" ref="V74" si="267">G74*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <f t="shared" ref="W74" si="268">H74*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X74" s="1">
+        <f t="shared" ref="X74" si="269">I74*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" ref="Y74" si="270">J74*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1">
+        <f t="shared" ref="Z74" si="271">K74*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="1">
+        <f t="shared" ref="AA74" si="272">L74*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="1">
+        <f t="shared" ref="AB74" si="273">M74*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <f t="shared" ref="AC74" si="274">N74*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="1">
+        <f t="shared" ref="AD74" si="275">O74*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="1">
+        <f t="shared" ref="AE74" si="276">P74*P$1</f>
+        <v>262144</v>
+      </c>
+      <c r="AF74" s="1">
+        <f t="shared" ref="AF74" si="277">SUM(Q74:AE74)</f>
+        <v>262146</v>
+      </c>
+      <c r="AG74" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="P75" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q75" s="1">
         <f t="shared" si="98"/>
         <v>1</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R75" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S75" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T74" s="1">
+      <c r="T75" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U74" s="1">
+      <c r="U75" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V74" s="1">
+      <c r="V75" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W74" s="1">
+      <c r="W75" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X74" s="1">
+      <c r="X75" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y74" s="1">
+      <c r="Y75" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z74" s="1">
+      <c r="Z75" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA74" s="1">
+      <c r="AA75" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB74" s="1">
+      <c r="AB75" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC74" s="1">
+      <c r="AC75" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD74" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD75" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="1">
+        <f t="shared" si="146"/>
         <v>262144</v>
       </c>
-      <c r="AF74" s="1">
+      <c r="AF75" s="1">
         <f t="shared" si="17"/>
         <v>262145</v>
       </c>
-      <c r="AG74" s="1" t="str">
+      <c r="AG75" s="1" t="str">
         <f t="shared" si="18"/>
         <v>40001</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="1">
         <v>3</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P76" s="1">
         <v>4</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q76" s="1">
         <f t="shared" si="98"/>
         <v>3</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R76" s="1">
         <f t="shared" si="99"/>
         <v>0</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S76" s="1">
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T76" s="1">
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U76" s="1">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="V75" s="1">
+      <c r="V76" s="1">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W76" s="1">
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X76" s="1">
         <f t="shared" si="105"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Y76" s="1">
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="1">
+      <c r="Z76" s="1">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="1">
+      <c r="AA76" s="1">
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="1">
+      <c r="AB76" s="1">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="AC75" s="1">
+      <c r="AC76" s="1">
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="AD75" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE75" s="1">
-        <f t="shared" si="129"/>
+      <c r="AD76" s="1">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="1">
+        <f t="shared" si="146"/>
         <v>262144</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AF76" s="1">
         <f t="shared" si="17"/>
         <v>262147</v>
       </c>
-      <c r="AG75" s="1" t="str">
+      <c r="AG76" s="1" t="str">
         <f t="shared" si="18"/>
         <v>40003</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1</v>
-      </c>
-      <c r="O76" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1">
-        <f t="shared" ref="Q76" si="261">B76*B$1</f>
-        <v>1</v>
-      </c>
-      <c r="R76" s="1">
-        <f t="shared" ref="R76" si="262">C76*C$1</f>
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <f t="shared" ref="S76" si="263">D76*D$1</f>
-        <v>0</v>
-      </c>
-      <c r="T76" s="1">
-        <f t="shared" ref="T76" si="264">E76*E$1</f>
-        <v>0</v>
-      </c>
-      <c r="U76" s="1">
-        <f t="shared" ref="U76" si="265">F76*F$1</f>
-        <v>0</v>
-      </c>
-      <c r="V76" s="1">
-        <f t="shared" ref="V76" si="266">G76*G$1</f>
-        <v>0</v>
-      </c>
-      <c r="W76" s="1">
-        <f t="shared" ref="W76" si="267">H76*H$1</f>
-        <v>0</v>
-      </c>
-      <c r="X76" s="1">
-        <f t="shared" ref="X76" si="268">I76*I$1</f>
-        <v>0</v>
-      </c>
-      <c r="Y76" s="1">
-        <f t="shared" ref="Y76" si="269">J76*J$1</f>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" ref="Q77" si="278">B77*B$1</f>
+        <v>1</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" ref="R77" si="279">C77*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <f t="shared" ref="S77" si="280">D77*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <f t="shared" ref="T77" si="281">E77*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <f t="shared" ref="U77" si="282">F77*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <f t="shared" ref="V77" si="283">G77*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <f t="shared" ref="W77" si="284">H77*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X77" s="1">
+        <f t="shared" ref="X77" si="285">I77*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1">
+        <f t="shared" ref="Y77" si="286">J77*J$1</f>
         <v>256</v>
       </c>
-      <c r="Z76" s="1">
-        <f t="shared" ref="Z76" si="270">K76*K$1</f>
-        <v>0</v>
-      </c>
-      <c r="AA76" s="1">
-        <f t="shared" ref="AA76" si="271">L76*L$1</f>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="1">
-        <f t="shared" ref="AB76" si="272">M76*M$1</f>
-        <v>0</v>
-      </c>
-      <c r="AC76" s="1">
-        <f t="shared" ref="AC76" si="273">N76*N$1</f>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="1">
-        <f t="shared" ref="AD76" si="274">O76*O$1</f>
+      <c r="Z77" s="1">
+        <f t="shared" ref="Z77" si="287">K77*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="1">
+        <f t="shared" ref="AA77" si="288">L77*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="1">
+        <f t="shared" ref="AB77" si="289">M77*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <f t="shared" ref="AC77" si="290">N77*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <f t="shared" ref="AD77" si="291">O77*O$1</f>
         <v>8</v>
       </c>
-      <c r="AE76" s="1">
-        <f t="shared" ref="AE76" si="275">P76*P$1</f>
-        <v>0</v>
-      </c>
-      <c r="AF76" s="1">
-        <f t="shared" ref="AF76" si="276">SUM(Q76:AE76)</f>
+      <c r="AE77" s="1">
+        <f t="shared" ref="AE77" si="292">P77*P$1</f>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <f t="shared" ref="AF77" si="293">SUM(Q77:AE77)</f>
         <v>265</v>
       </c>
-      <c r="AG76" s="1" t="str">
+      <c r="AG77" s="1" t="str">
         <f t="shared" si="18"/>
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="1">
-        <v>2</v>
-      </c>
-      <c r="J77" s="1">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
-      </c>
-      <c r="R77" s="1">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="1">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="1">
-        <f t="shared" si="101"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="1">
-        <f t="shared" si="102"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="1">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="1">
-        <f t="shared" si="104"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="1">
-        <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="1">
-        <f t="shared" si="106"/>
-        <v>256</v>
-      </c>
-      <c r="Z77" s="1">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="1">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="1">
-        <f t="shared" si="109"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="1">
-        <f t="shared" si="110"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="1">
-        <f t="shared" si="128"/>
-        <v>8</v>
-      </c>
-      <c r="AE77" s="1">
-        <f t="shared" si="129"/>
-        <v>0</v>
-      </c>
-      <c r="AF77" s="1">
-        <f t="shared" si="17"/>
-        <v>266</v>
-      </c>
-      <c r="AG77" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>10A</v>
-      </c>
-    </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <v>1</v>
-      </c>
-      <c r="N78" s="1">
         <v>1</v>
       </c>
       <c r="O78" s="1">
@@ -6882,33 +6880,36 @@
       </c>
       <c r="AC78" s="1">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>8</v>
       </c>
       <c r="AE78" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF78" s="1">
         <f t="shared" si="17"/>
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AG78" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>11A</v>
+        <v>10A</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1">
         <v>2</v>
       </c>
-      <c r="H79" s="1">
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
         <v>1</v>
       </c>
       <c r="O79" s="1">
@@ -6940,7 +6941,7 @@
       </c>
       <c r="W79" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X79" s="1">
         <f t="shared" si="105"/>
@@ -6948,7 +6949,7 @@
       </c>
       <c r="Y79" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" si="107"/>
@@ -6964,113 +6965,113 @@
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD79" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>8</v>
       </c>
       <c r="AE79" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF79" s="1">
         <f t="shared" si="17"/>
-        <v>1034</v>
+        <v>282</v>
       </c>
       <c r="AG79" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40A</v>
+        <v>11A</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B80" s="1">
-        <v>1</v>
-      </c>
-      <c r="K80" s="1">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1">
         <v>1</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ref="Q80" si="277">B80*B$1</f>
-        <v>1</v>
+        <f t="shared" si="98"/>
+        <v>2</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" ref="R80" si="278">C80*C$1</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" ref="S80" si="279">D80*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" ref="T80" si="280">E80*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" ref="U80" si="281">F80*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f t="shared" ref="V80" si="282">G80*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f t="shared" ref="W80" si="283">H80*H$1</f>
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>1024</v>
       </c>
       <c r="X80" s="1">
-        <f t="shared" ref="X80" si="284">I80*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <f t="shared" ref="Y80" si="285">J80*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <f t="shared" ref="Z80" si="286">K80*K$1</f>
-        <v>128</v>
+        <f t="shared" si="107"/>
+        <v>0</v>
       </c>
       <c r="AA80" s="1">
-        <f t="shared" ref="AA80" si="287">L80*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB80" s="1">
-        <f t="shared" ref="AB80" si="288">M80*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC80" s="1">
-        <f t="shared" ref="AC80" si="289">N80*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD80" s="1">
-        <f t="shared" ref="AD80" si="290">O80*O$1</f>
+        <f t="shared" si="145"/>
         <v>8</v>
       </c>
       <c r="AE80" s="1">
-        <f t="shared" ref="AE80" si="291">P80*P$1</f>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" ref="AF80" si="292">SUM(Q80:AE80)</f>
-        <v>137</v>
+        <f t="shared" si="17"/>
+        <v>1034</v>
       </c>
       <c r="AG80" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>89</v>
+        <v>40A</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
         <v>1</v>
@@ -7079,85 +7080,82 @@
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" si="98"/>
-        <v>2</v>
+        <f t="shared" ref="Q81" si="294">B81*B$1</f>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="R81" si="295">C81*C$1</f>
         <v>0</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="S81" si="296">D81*D$1</f>
         <v>0</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="T81" si="297">E81*E$1</f>
         <v>0</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="U81" si="298">F81*F$1</f>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="V81" si="299">G81*G$1</f>
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="W81" si="300">H81*H$1</f>
         <v>0</v>
       </c>
       <c r="X81" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="X81" si="301">I81*I$1</f>
         <v>0</v>
       </c>
       <c r="Y81" s="1">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="Y81" si="302">J81*J$1</f>
         <v>0</v>
       </c>
       <c r="Z81" s="1">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="Z81" si="303">K81*K$1</f>
         <v>128</v>
       </c>
       <c r="AA81" s="1">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="AA81" si="304">L81*L$1</f>
         <v>0</v>
       </c>
       <c r="AB81" s="1">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="AB81" si="305">M81*M$1</f>
         <v>0</v>
       </c>
       <c r="AC81" s="1">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="AC81" si="306">N81*N$1</f>
         <v>0</v>
       </c>
       <c r="AD81" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="AD81" si="307">O81*O$1</f>
         <v>8</v>
       </c>
       <c r="AE81" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="AE81" si="308">P81*P$1</f>
         <v>0</v>
       </c>
       <c r="AF81" s="1">
-        <f t="shared" si="17"/>
-        <v>138</v>
+        <f t="shared" ref="AF81" si="309">SUM(Q81:AE81)</f>
+        <v>137</v>
       </c>
       <c r="AG81" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8A</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
       </c>
       <c r="K82" s="1">
-        <v>1</v>
-      </c>
-      <c r="N82" s="1">
         <v>1</v>
       </c>
       <c r="O82" s="1">
@@ -7213,35 +7211,44 @@
       </c>
       <c r="AC82" s="1">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="1">
-        <f t="shared" si="128"/>
+        <f t="shared" si="145"/>
         <v>8</v>
       </c>
       <c r="AE82" s="1">
-        <f t="shared" si="129"/>
+        <f t="shared" si="146"/>
         <v>0</v>
       </c>
       <c r="AF82" s="1">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AG82" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>9A</v>
+        <v>8A</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P83" s="1">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
       </c>
       <c r="Q83" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R83" s="1">
         <f t="shared" si="99"/>
@@ -7277,7 +7284,7 @@
       </c>
       <c r="Z83" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA83" s="1">
         <f t="shared" si="108"/>
@@ -7289,420 +7296,420 @@
       </c>
       <c r="AC83" s="1">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD83" s="1">
-        <f t="shared" si="128"/>
-        <v>0</v>
+        <f t="shared" si="145"/>
+        <v>8</v>
       </c>
       <c r="AE83" s="1">
-        <f t="shared" si="129"/>
-        <v>1048576</v>
+        <f t="shared" si="146"/>
+        <v>0</v>
       </c>
       <c r="AF83" s="1">
         <f t="shared" si="17"/>
-        <v>1048576</v>
+        <v>154</v>
       </c>
       <c r="AG83" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>100000</v>
+        <v>9A</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1">
-        <v>5</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="P84" s="1">
+        <v>16</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84:Q85" si="293">B84*B$1</f>
-        <v>5</v>
+        <f t="shared" si="98"/>
+        <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84:R85" si="294">C84*C$1</f>
-        <v>32768</v>
+        <f t="shared" si="99"/>
+        <v>0</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84:S85" si="295">D84*D$1</f>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84:T85" si="296">E84*E$1</f>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" ref="U84:U85" si="297">F84*F$1</f>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="V84" s="1">
-        <f t="shared" ref="V84:V85" si="298">G84*G$1</f>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="W84" s="1">
-        <f t="shared" ref="W84:W85" si="299">H84*H$1</f>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="X84" s="1">
-        <f t="shared" ref="X84:X85" si="300">I84*I$1</f>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="Y84" s="1">
-        <f t="shared" ref="Y84:Y85" si="301">J84*J$1</f>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="Z84" s="1">
-        <f t="shared" ref="Z84:Z85" si="302">K84*K$1</f>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="AA84" s="1">
-        <f t="shared" ref="AA84:AA85" si="303">L84*L$1</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AB84" s="1">
-        <f t="shared" ref="AB84:AB85" si="304">M84*M$1</f>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="AC84" s="1">
-        <f t="shared" ref="AC84:AC85" si="305">N84*N$1</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="AD84" s="1">
-        <f t="shared" ref="AD84:AD85" si="306">O84*O$1</f>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
       <c r="AE84" s="1">
-        <f t="shared" ref="AE84:AE85" si="307">P84*P$1</f>
-        <v>0</v>
+        <f t="shared" si="146"/>
+        <v>1048576</v>
       </c>
       <c r="AF84" s="1">
-        <f t="shared" ref="AF84:AF85" si="308">SUM(Q84:AE84)</f>
-        <v>32773</v>
+        <f t="shared" si="17"/>
+        <v>1048576</v>
       </c>
       <c r="AG84" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8005</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" si="293"/>
-        <v>6</v>
+        <f t="shared" ref="Q85:Q86" si="310">B85*B$1</f>
+        <v>5</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" si="294"/>
+        <f t="shared" ref="R85:R86" si="311">C85*C$1</f>
         <v>32768</v>
       </c>
       <c r="S85" s="1">
-        <f t="shared" si="295"/>
+        <f t="shared" ref="S85:S86" si="312">D85*D$1</f>
         <v>0</v>
       </c>
       <c r="T85" s="1">
-        <f t="shared" si="296"/>
+        <f t="shared" ref="T85:T86" si="313">E85*E$1</f>
         <v>0</v>
       </c>
       <c r="U85" s="1">
-        <f t="shared" si="297"/>
+        <f t="shared" ref="U85:U86" si="314">F85*F$1</f>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f t="shared" si="298"/>
+        <f t="shared" ref="V85:V86" si="315">G85*G$1</f>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f t="shared" si="299"/>
+        <f t="shared" ref="W85:W86" si="316">H85*H$1</f>
         <v>0</v>
       </c>
       <c r="X85" s="1">
-        <f t="shared" si="300"/>
+        <f t="shared" ref="X85:X86" si="317">I85*I$1</f>
         <v>0</v>
       </c>
       <c r="Y85" s="1">
-        <f t="shared" si="301"/>
+        <f t="shared" ref="Y85:Y86" si="318">J85*J$1</f>
         <v>0</v>
       </c>
       <c r="Z85" s="1">
-        <f t="shared" si="302"/>
+        <f t="shared" ref="Z85:Z86" si="319">K85*K$1</f>
         <v>0</v>
       </c>
       <c r="AA85" s="1">
-        <f t="shared" si="303"/>
+        <f t="shared" ref="AA85:AA86" si="320">L85*L$1</f>
         <v>0</v>
       </c>
       <c r="AB85" s="1">
-        <f t="shared" si="304"/>
+        <f t="shared" ref="AB85:AB86" si="321">M85*M$1</f>
         <v>0</v>
       </c>
       <c r="AC85" s="1">
-        <f t="shared" si="305"/>
+        <f t="shared" ref="AC85:AC86" si="322">N85*N$1</f>
         <v>0</v>
       </c>
       <c r="AD85" s="1">
-        <f t="shared" si="306"/>
+        <f t="shared" ref="AD85:AD86" si="323">O85*O$1</f>
         <v>0</v>
       </c>
       <c r="AE85" s="1">
-        <f t="shared" si="307"/>
+        <f t="shared" ref="AE85:AE86" si="324">P85*P$1</f>
         <v>0</v>
       </c>
       <c r="AF85" s="1">
-        <f t="shared" si="308"/>
-        <v>32774</v>
+        <f t="shared" ref="AF85:AF86" si="325">SUM(Q85:AE85)</f>
+        <v>32773</v>
       </c>
       <c r="AG85" s="1" t="str">
-        <f t="shared" ref="AG85:AG87" si="309">DEC2HEX(AF85)</f>
-        <v>8006</v>
+        <f t="shared" si="18"/>
+        <v>8005</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P86" s="1">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" ref="Q86" si="310">B86*B$1</f>
-        <v>0</v>
+        <f t="shared" si="310"/>
+        <v>6</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" ref="R86:R87" si="311">C86*C$1</f>
-        <v>0</v>
+        <f t="shared" si="311"/>
+        <v>32768</v>
       </c>
       <c r="S86" s="1">
-        <f t="shared" ref="S86" si="312">D86*D$1</f>
+        <f t="shared" si="312"/>
         <v>0</v>
       </c>
       <c r="T86" s="1">
-        <f t="shared" ref="T86" si="313">E86*E$1</f>
+        <f t="shared" si="313"/>
         <v>0</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" ref="U86" si="314">F86*F$1</f>
+        <f t="shared" si="314"/>
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <f t="shared" ref="V86" si="315">G86*G$1</f>
+        <f t="shared" si="315"/>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f t="shared" ref="W86" si="316">H86*H$1</f>
+        <f t="shared" si="316"/>
         <v>0</v>
       </c>
       <c r="X86" s="1">
-        <f t="shared" ref="X86" si="317">I86*I$1</f>
+        <f t="shared" si="317"/>
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" ref="Y86" si="318">J86*J$1</f>
+        <f t="shared" si="318"/>
         <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <f t="shared" ref="Z86" si="319">K86*K$1</f>
+        <f t="shared" si="319"/>
         <v>0</v>
       </c>
       <c r="AA86" s="1">
-        <f t="shared" ref="AA86" si="320">L86*L$1</f>
+        <f t="shared" si="320"/>
         <v>0</v>
       </c>
       <c r="AB86" s="1">
-        <f t="shared" ref="AB86" si="321">M86*M$1</f>
+        <f t="shared" si="321"/>
         <v>0</v>
       </c>
       <c r="AC86" s="1">
-        <f t="shared" ref="AC86" si="322">N86*N$1</f>
+        <f t="shared" si="322"/>
         <v>0</v>
       </c>
       <c r="AD86" s="1">
-        <f t="shared" ref="AD86" si="323">O86*O$1</f>
+        <f t="shared" si="323"/>
         <v>0</v>
       </c>
       <c r="AE86" s="1">
-        <f t="shared" ref="AE86" si="324">P86*P$1</f>
-        <v>1507328</v>
+        <f t="shared" si="324"/>
+        <v>0</v>
       </c>
       <c r="AF86" s="1">
-        <f t="shared" ref="AF86" si="325">SUM(Q86:AE86)</f>
-        <v>1507328</v>
+        <f t="shared" si="325"/>
+        <v>32774</v>
       </c>
       <c r="AG86" s="1" t="str">
-        <f t="shared" si="309"/>
-        <v>170000</v>
+        <f t="shared" ref="AG86:AG88" si="326">DEC2HEX(AF86)</f>
+        <v>8006</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="P87" s="1">
+        <v>23</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="326">B87*B$1</f>
+        <f t="shared" ref="Q87" si="327">B87*B$1</f>
         <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" si="311"/>
+        <f t="shared" ref="R87:R88" si="328">C87*C$1</f>
         <v>0</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="327">D87*D$1</f>
+        <f t="shared" ref="S87" si="329">D87*D$1</f>
         <v>0</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="328">E87*E$1</f>
+        <f t="shared" ref="T87" si="330">E87*E$1</f>
         <v>0</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" ref="U87" si="329">F87*F$1</f>
-        <v>4096</v>
+        <f t="shared" ref="U87" si="331">F87*F$1</f>
+        <v>0</v>
       </c>
       <c r="V87" s="1">
-        <f t="shared" ref="V87" si="330">G87*G$1</f>
-        <v>2048</v>
+        <f t="shared" ref="V87" si="332">G87*G$1</f>
+        <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87" si="331">H87*H$1</f>
+        <f t="shared" ref="W87" si="333">H87*H$1</f>
         <v>0</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" ref="X87" si="332">I87*I$1</f>
+        <f t="shared" ref="X87" si="334">I87*I$1</f>
         <v>0</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" ref="Y87" si="333">J87*J$1</f>
+        <f t="shared" ref="Y87" si="335">J87*J$1</f>
         <v>0</v>
       </c>
       <c r="Z87" s="1">
-        <f t="shared" ref="Z87" si="334">K87*K$1</f>
+        <f t="shared" ref="Z87" si="336">K87*K$1</f>
         <v>0</v>
       </c>
       <c r="AA87" s="1">
-        <f t="shared" ref="AA87" si="335">L87*L$1</f>
+        <f t="shared" ref="AA87" si="337">L87*L$1</f>
         <v>0</v>
       </c>
       <c r="AB87" s="1">
-        <f t="shared" ref="AB87" si="336">M87*M$1</f>
+        <f t="shared" ref="AB87" si="338">M87*M$1</f>
         <v>0</v>
       </c>
       <c r="AC87" s="1">
-        <f t="shared" ref="AC87" si="337">N87*N$1</f>
+        <f t="shared" ref="AC87" si="339">N87*N$1</f>
         <v>0</v>
       </c>
       <c r="AD87" s="1">
-        <f t="shared" ref="AD87" si="338">O87*O$1</f>
+        <f t="shared" ref="AD87" si="340">O87*O$1</f>
         <v>0</v>
       </c>
       <c r="AE87" s="1">
-        <f t="shared" ref="AE87" si="339">P87*P$1</f>
-        <v>0</v>
+        <f t="shared" ref="AE87" si="341">P87*P$1</f>
+        <v>1507328</v>
       </c>
       <c r="AF87" s="1">
-        <f t="shared" ref="AF87" si="340">SUM(Q87:AE87)</f>
-        <v>6144</v>
+        <f t="shared" ref="AF87" si="342">SUM(Q87:AE87)</f>
+        <v>1507328</v>
       </c>
       <c r="AG87" s="1" t="str">
-        <f t="shared" si="309"/>
-        <v>1800</v>
+        <f t="shared" si="326"/>
+        <v>170000</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" ref="Q88" si="341">B88*B$1</f>
+        <f t="shared" ref="Q88" si="343">B88*B$1</f>
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ref="R88" si="342">C88*C$1</f>
+        <f t="shared" si="328"/>
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" ref="S88" si="343">D88*D$1</f>
+        <f t="shared" ref="S88" si="344">D88*D$1</f>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" ref="T88" si="344">E88*E$1</f>
+        <f t="shared" ref="T88" si="345">E88*E$1</f>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" ref="U88" si="345">F88*F$1</f>
-        <v>0</v>
+        <f t="shared" ref="U88" si="346">F88*F$1</f>
+        <v>4096</v>
       </c>
       <c r="V88" s="1">
-        <f t="shared" ref="V88" si="346">G88*G$1</f>
+        <f t="shared" ref="V88" si="347">G88*G$1</f>
         <v>2048</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" ref="W88" si="347">H88*H$1</f>
+        <f t="shared" ref="W88" si="348">H88*H$1</f>
         <v>0</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" ref="X88" si="348">I88*I$1</f>
+        <f t="shared" ref="X88" si="349">I88*I$1</f>
         <v>0</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" ref="Y88" si="349">J88*J$1</f>
+        <f t="shared" ref="Y88" si="350">J88*J$1</f>
         <v>0</v>
       </c>
       <c r="Z88" s="1">
-        <f t="shared" ref="Z88" si="350">K88*K$1</f>
+        <f t="shared" ref="Z88" si="351">K88*K$1</f>
         <v>0</v>
       </c>
       <c r="AA88" s="1">
-        <f t="shared" ref="AA88" si="351">L88*L$1</f>
+        <f t="shared" ref="AA88" si="352">L88*L$1</f>
         <v>0</v>
       </c>
       <c r="AB88" s="1">
-        <f t="shared" ref="AB88" si="352">M88*M$1</f>
+        <f t="shared" ref="AB88" si="353">M88*M$1</f>
         <v>0</v>
       </c>
       <c r="AC88" s="1">
-        <f t="shared" ref="AC88" si="353">N88*N$1</f>
+        <f t="shared" ref="AC88" si="354">N88*N$1</f>
         <v>0</v>
       </c>
       <c r="AD88" s="1">
-        <f t="shared" ref="AD88" si="354">O88*O$1</f>
+        <f t="shared" ref="AD88" si="355">O88*O$1</f>
         <v>0</v>
       </c>
       <c r="AE88" s="1">
-        <f t="shared" ref="AE88" si="355">P88*P$1</f>
+        <f t="shared" ref="AE88" si="356">P88*P$1</f>
         <v>0</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" ref="AF88" si="356">SUM(Q88:AE88)</f>
-        <v>2048</v>
+        <f t="shared" ref="AF88" si="357">SUM(Q88:AE88)</f>
+        <v>6144</v>
       </c>
       <c r="AG88" s="1" t="str">
-        <f t="shared" ref="AG88" si="357">DEC2HEX(AF88)</f>
-        <v>800</v>
+        <f t="shared" si="326"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P89" s="1">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
       </c>
       <c r="Q89" s="1">
         <f t="shared" ref="Q89" si="358">B89*B$1</f>
@@ -7726,7 +7733,7 @@
       </c>
       <c r="V89" s="1">
         <f t="shared" ref="V89" si="363">G89*G$1</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" ref="W89" si="364">H89*H$1</f>
@@ -7762,23 +7769,23 @@
       </c>
       <c r="AE89" s="1">
         <f t="shared" ref="AE89" si="372">P89*P$1</f>
-        <v>786432</v>
+        <v>0</v>
       </c>
       <c r="AF89" s="1">
         <f t="shared" ref="AF89" si="373">SUM(Q89:AE89)</f>
-        <v>786432</v>
+        <v>2048</v>
       </c>
       <c r="AG89" s="1" t="str">
         <f t="shared" ref="AG89" si="374">DEC2HEX(AF89)</f>
-        <v>C0000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P90" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" ref="Q90" si="375">B90*B$1</f>
@@ -7838,21 +7845,97 @@
       </c>
       <c r="AE90" s="1">
         <f t="shared" ref="AE90" si="389">P90*P$1</f>
-        <v>1179648</v>
+        <v>786432</v>
       </c>
       <c r="AF90" s="1">
         <f t="shared" ref="AF90" si="390">SUM(Q90:AE90)</f>
-        <v>1179648</v>
+        <v>786432</v>
       </c>
       <c r="AG90" s="1" t="str">
         <f t="shared" ref="AG90" si="391">DEC2HEX(AF90)</f>
+        <v>C0000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P91" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" ref="Q91" si="392">B91*B$1</f>
+        <v>0</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" ref="R91" si="393">C91*C$1</f>
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" ref="S91" si="394">D91*D$1</f>
+        <v>0</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" ref="T91" si="395">E91*E$1</f>
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" ref="U91" si="396">F91*F$1</f>
+        <v>0</v>
+      </c>
+      <c r="V91" s="1">
+        <f t="shared" ref="V91" si="397">G91*G$1</f>
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
+        <f t="shared" ref="W91" si="398">H91*H$1</f>
+        <v>0</v>
+      </c>
+      <c r="X91" s="1">
+        <f t="shared" ref="X91" si="399">I91*I$1</f>
+        <v>0</v>
+      </c>
+      <c r="Y91" s="1">
+        <f t="shared" ref="Y91" si="400">J91*J$1</f>
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1">
+        <f t="shared" ref="Z91" si="401">K91*K$1</f>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
+        <f t="shared" ref="AA91" si="402">L91*L$1</f>
+        <v>0</v>
+      </c>
+      <c r="AB91" s="1">
+        <f t="shared" ref="AB91" si="403">M91*M$1</f>
+        <v>0</v>
+      </c>
+      <c r="AC91" s="1">
+        <f t="shared" ref="AC91" si="404">N91*N$1</f>
+        <v>0</v>
+      </c>
+      <c r="AD91" s="1">
+        <f t="shared" ref="AD91" si="405">O91*O$1</f>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="1">
+        <f t="shared" ref="AE91" si="406">P91*P$1</f>
+        <v>1179648</v>
+      </c>
+      <c r="AF91" s="1">
+        <f t="shared" ref="AF91" si="407">SUM(Q91:AE91)</f>
+        <v>1179648</v>
+      </c>
+      <c r="AG91" s="1" t="str">
+        <f t="shared" ref="AG91" si="408">DEC2HEX(AF91)</f>
         <v>120000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P90" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P90">
-      <sortCondition ref="A2:A90"/>
+  <autoFilter ref="A2:P91" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P91">
+      <sortCondition ref="A2:A91"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/worldview and mechanics/equiptype.xlsx
+++ b/doc/worldview and mechanics/equiptype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\worldview and mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417BA13-2047-4886-997E-E001BD638DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC659BE8-FBA6-4B1B-8551-683C3ECDA021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{B0E1D12B-1F04-41E9-8B75-93C9959A356D}"/>
   </bookViews>
@@ -763,10 +763,10 @@
   <dimension ref="A1:AG91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T26" sqref="T26"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -906,20 +906,14 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P3" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
         <f>B3*B$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" ref="R3:AE3" si="1">C3*C$1</f>
@@ -931,7 +925,7 @@
       </c>
       <c r="T3" s="1">
         <f t="shared" si="1"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="1"/>
@@ -975,30 +969,30 @@
       </c>
       <c r="AE3" s="1">
         <f t="shared" si="1"/>
-        <v>1638400</v>
+        <v>65536</v>
       </c>
       <c r="AF3" s="1">
         <f>SUM(Q3:AE3)</f>
-        <v>1646593</v>
+        <v>65536</v>
       </c>
       <c r="AG3" s="1" t="str">
         <f>DEC2HEX(AF3)</f>
-        <v>192001</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
       </c>
       <c r="P4" s="1">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q23" si="2">B4*B$1</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" ref="R4:R23" si="3">C4*C$1</f>
@@ -1010,7 +1004,7 @@
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T23" si="5">E4*E$1</f>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U23" si="6">F4*F$1</f>
@@ -1054,30 +1048,30 @@
       </c>
       <c r="AE4" s="1">
         <f t="shared" ref="AE4:AE29" si="16">P4*P$1</f>
-        <v>1966080</v>
+        <v>131072</v>
       </c>
       <c r="AF4" s="1">
         <f t="shared" ref="AF4:AF84" si="17">SUM(Q4:AE4)</f>
-        <v>1974272</v>
+        <v>131074</v>
       </c>
       <c r="AG4" s="1" t="str">
         <f t="shared" ref="AG4:AG85" si="18">DEC2HEX(AF4)</f>
-        <v>1E2000</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
@@ -1089,7 +1083,7 @@
       </c>
       <c r="T5" s="1">
         <f t="shared" si="5"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="6"/>
@@ -1133,23 +1127,23 @@
       </c>
       <c r="AE5" s="1">
         <f t="shared" si="16"/>
-        <v>1638400</v>
+        <v>131072</v>
       </c>
       <c r="AF5" s="1">
         <f t="shared" si="17"/>
-        <v>1646592</v>
+        <v>131073</v>
       </c>
       <c r="AG5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>192000</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="P6" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
@@ -1209,27 +1203,30 @@
       </c>
       <c r="AE6" s="1">
         <f t="shared" si="16"/>
-        <v>1376256</v>
+        <v>196608</v>
       </c>
       <c r="AF6" s="1">
         <f t="shared" si="17"/>
-        <v>1376256</v>
+        <v>196608</v>
       </c>
       <c r="AG6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>150000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
       </c>
       <c r="P7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ref="R7" si="19">C7*C$1</f>
@@ -1285,27 +1282,30 @@
       </c>
       <c r="AE7" s="1">
         <f t="shared" ref="AE7" si="32">P7*P$1</f>
-        <v>524288</v>
+        <v>262144</v>
       </c>
       <c r="AF7" s="1">
         <f t="shared" ref="AF7" si="33">SUM(Q7:AE7)</f>
-        <v>524288</v>
+        <v>262146</v>
       </c>
       <c r="AG7" s="1" t="str">
         <f t="shared" ref="AG7" si="34">DEC2HEX(AF7)</f>
-        <v>80000</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
       <c r="P8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="3"/>
@@ -1361,27 +1361,30 @@
       </c>
       <c r="AE8" s="1">
         <f t="shared" si="16"/>
-        <v>458752</v>
+        <v>262144</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="17"/>
-        <v>458752</v>
+        <v>262145</v>
       </c>
       <c r="AG8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>70000</v>
+        <v>40001</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="3"/>
@@ -1437,29 +1440,23 @@
       </c>
       <c r="AE9" s="1">
         <f t="shared" si="16"/>
-        <v>393216</v>
+        <v>262144</v>
       </c>
       <c r="AF9" s="1">
         <f t="shared" si="17"/>
-        <v>393216</v>
+        <v>262147</v>
       </c>
       <c r="AG9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>60000</v>
+        <v>40003</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="2"/>
@@ -1491,11 +1488,11 @@
       </c>
       <c r="X10" s="1">
         <f t="shared" ref="X10" si="40">I10*I$1</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" ref="Y10" si="41">J10*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <f t="shared" ref="Z10" si="42">K10*K$1</f>
@@ -1507,7 +1504,7 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" ref="AB10" si="44">M10*M$1</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ref="AC10" si="45">N10*N$1</f>
@@ -1519,36 +1516,27 @@
       </c>
       <c r="AE10" s="1">
         <f t="shared" ref="AE10" si="47">P10*P$1</f>
-        <v>0</v>
+        <v>327680</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" ref="AF10" si="48">SUM(Q10:AE10)</f>
-        <v>800</v>
+        <v>327680</v>
       </c>
       <c r="AG10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>320</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="P11" s="1">
+        <v>6</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
@@ -1576,11 +1564,11 @@
       </c>
       <c r="X11" s="1">
         <f t="shared" si="9"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <f t="shared" si="11"/>
@@ -1592,7 +1580,7 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="14"/>
@@ -1604,32 +1592,23 @@
       </c>
       <c r="AE11" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>393216</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="17"/>
-        <v>805</v>
+        <v>393216</v>
       </c>
       <c r="AG11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>325</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="P12" s="1">
+        <v>7</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="2"/>
@@ -1657,15 +1636,15 @@
       </c>
       <c r="W12" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="9"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <f t="shared" si="11"/>
@@ -1677,7 +1656,7 @@
       </c>
       <c r="AB12" s="1">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="14"/>
@@ -1689,23 +1668,23 @@
       </c>
       <c r="AE12" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>458752</v>
       </c>
       <c r="AF12" s="1">
         <f t="shared" si="17"/>
-        <v>1824</v>
+        <v>458752</v>
       </c>
       <c r="AG12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>720</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="P13" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="2"/>
@@ -1765,34 +1744,31 @@
       </c>
       <c r="AE13" s="1">
         <f t="shared" ref="AE13" si="62">P13*P$1</f>
-        <v>327680</v>
+        <v>524288</v>
       </c>
       <c r="AF13" s="1">
         <f t="shared" ref="AF13" si="63">SUM(Q13:AE13)</f>
-        <v>327680</v>
+        <v>524288</v>
       </c>
       <c r="AG13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>50000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="P14" s="1">
+        <v>9</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="3"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
@@ -1844,23 +1820,23 @@
       </c>
       <c r="AE14" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>589824</v>
       </c>
       <c r="AF14" s="1">
         <f t="shared" si="17"/>
-        <v>32772</v>
+        <v>589824</v>
       </c>
       <c r="AG14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8004</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="P15" s="1">
+        <v>10</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="2"/>
@@ -1896,7 +1872,7 @@
       </c>
       <c r="Y15" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <f t="shared" si="11"/>
@@ -1920,26 +1896,23 @@
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>655360</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="17"/>
-        <v>256</v>
+        <v>655360</v>
       </c>
       <c r="AG15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>100</v>
+        <v>A0000</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="P16" s="1">
+        <v>11</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="2"/>
@@ -1967,7 +1940,7 @@
       </c>
       <c r="W16" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="9"/>
@@ -1975,7 +1948,7 @@
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="11"/>
@@ -1999,29 +1972,23 @@
       </c>
       <c r="AE16" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>720896</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="17"/>
-        <v>1280</v>
+        <v>720896</v>
       </c>
       <c r="AG16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>500</v>
+        <v>B0000</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P17" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="2"/>
@@ -2049,7 +2016,7 @@
       </c>
       <c r="W17" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="9"/>
@@ -2057,7 +2024,7 @@
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="11"/>
@@ -2081,26 +2048,23 @@
       </c>
       <c r="AE17" s="1">
         <f t="shared" si="16"/>
-        <v>1835008</v>
+        <v>786432</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="17"/>
-        <v>1836288</v>
+        <v>786432</v>
       </c>
       <c r="AG17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1C0500</v>
+        <v>C0000</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="P18" s="1">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ref="Q18" si="64">B18*B$1</f>
@@ -2136,7 +2100,7 @@
       </c>
       <c r="Y18" s="1">
         <f t="shared" ref="Y18" si="72">J18*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <f t="shared" ref="Z18" si="73">K18*K$1</f>
@@ -2160,29 +2124,23 @@
       </c>
       <c r="AE18" s="1">
         <f t="shared" ref="AE18" si="78">P18*P$1</f>
-        <v>1572864</v>
+        <v>851968</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" ref="AF18" si="79">SUM(Q18:AE18)</f>
-        <v>1573120</v>
+        <v>851968</v>
       </c>
       <c r="AG18" s="1" t="str">
         <f t="shared" ref="AG18" si="80">DEC2HEX(AF18)</f>
-        <v>180100</v>
+        <v>D0000</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="P19" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="2"/>
@@ -2210,7 +2168,7 @@
       </c>
       <c r="W19" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="9"/>
@@ -2218,7 +2176,7 @@
       </c>
       <c r="Y19" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <f t="shared" si="11"/>
@@ -2242,33 +2200,30 @@
       </c>
       <c r="AE19" s="1">
         <f t="shared" si="16"/>
-        <v>1572864</v>
+        <v>917504</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="17"/>
-        <v>1574144</v>
+        <v>917504</v>
       </c>
       <c r="AG19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>180500</v>
+        <v>E0000</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>15</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ref="Q20" si="81">B20*B$1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" ref="R20" si="82">C20*C$1</f>
@@ -2292,15 +2247,15 @@
       </c>
       <c r="W20" s="1">
         <f t="shared" ref="W20" si="87">H20*H$1</f>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
         <f t="shared" ref="X20" si="88">I20*I$1</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
         <f t="shared" ref="Y20" si="89">J20*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <f t="shared" ref="Z20" si="90">K20*K$1</f>
@@ -2324,27 +2279,30 @@
       </c>
       <c r="AE20" s="1">
         <f t="shared" ref="AE20" si="95">P20*P$1</f>
-        <v>0</v>
+        <v>983040</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" ref="AF20" si="96">SUM(Q20:AE20)</f>
-        <v>1792</v>
+        <v>983041</v>
       </c>
       <c r="AG20" s="1" t="str">
         <f t="shared" ref="AG20" si="97">DEC2HEX(AF20)</f>
-        <v>700</v>
+        <v>F0001</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>15</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="3"/>
@@ -2372,7 +2330,7 @@
       </c>
       <c r="X21" s="1">
         <f t="shared" si="9"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="10"/>
@@ -2400,26 +2358,23 @@
       </c>
       <c r="AE21" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>983040</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="17"/>
-        <v>512</v>
+        <v>983043</v>
       </c>
       <c r="AG21" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>200</v>
+        <v>F0003</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="P22" s="1">
+        <v>16</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="2"/>
@@ -2451,11 +2406,11 @@
       </c>
       <c r="X22" s="1">
         <f t="shared" si="9"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <f t="shared" si="11"/>
@@ -2479,26 +2434,23 @@
       </c>
       <c r="AE22" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1048576</v>
       </c>
       <c r="AF22" s="1">
         <f t="shared" si="17"/>
-        <v>768</v>
+        <v>1048576</v>
       </c>
       <c r="AG22" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>300</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="P23" s="1">
+        <v>17</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="2"/>
@@ -2526,11 +2478,11 @@
       </c>
       <c r="W23" s="1">
         <f t="shared" si="8"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="9"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="10"/>
@@ -2558,26 +2510,23 @@
       </c>
       <c r="AE23" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1114112</v>
       </c>
       <c r="AF23" s="1">
         <f t="shared" si="17"/>
-        <v>1536</v>
+        <v>1114112</v>
       </c>
       <c r="AG23" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>600</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="P24" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" ref="Q24:Q84" si="98">B24*B$1</f>
@@ -2609,7 +2558,7 @@
       </c>
       <c r="X24" s="1">
         <f t="shared" ref="X24:X84" si="105">I24*I$1</f>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" ref="Y24:Y84" si="106">J24*J$1</f>
@@ -2637,26 +2586,23 @@
       </c>
       <c r="AE24" s="1">
         <f t="shared" si="16"/>
-        <v>1572864</v>
+        <v>1179648</v>
       </c>
       <c r="AF24" s="1">
         <f t="shared" si="17"/>
-        <v>1573376</v>
+        <v>1179648</v>
       </c>
       <c r="AG24" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>180200</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="P25" s="1">
+        <v>19</v>
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="98"/>
@@ -2688,7 +2634,7 @@
       </c>
       <c r="X25" s="1">
         <f t="shared" si="105"/>
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
         <f t="shared" si="106"/>
@@ -2708,7 +2654,7 @@
       </c>
       <c r="AC25" s="1">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="1">
         <f t="shared" si="15"/>
@@ -2716,30 +2662,27 @@
       </c>
       <c r="AE25" s="1">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1245184</v>
       </c>
       <c r="AF25" s="1">
         <f t="shared" si="17"/>
-        <v>528</v>
+        <v>1245184</v>
       </c>
       <c r="AG25" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>210</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="P26" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="1">
         <f t="shared" ref="Q26" si="111">B26*B$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <f t="shared" ref="R26" si="112">C26*C$1</f>
@@ -2795,30 +2738,27 @@
       </c>
       <c r="AE26" s="1">
         <f t="shared" ref="AE26" si="125">P26*P$1</f>
-        <v>1900544</v>
+        <v>1310720</v>
       </c>
       <c r="AF26" s="1">
         <f t="shared" ref="AF26" si="126">SUM(Q26:AE26)</f>
-        <v>1900545</v>
+        <v>1310720</v>
       </c>
       <c r="AG26" s="1" t="str">
         <f t="shared" ref="AG26" si="127">DEC2HEX(AF26)</f>
-        <v>1D0001</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="P27" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <f t="shared" si="99"/>
@@ -2874,30 +2814,27 @@
       </c>
       <c r="AE27" s="1">
         <f t="shared" si="16"/>
-        <v>1900544</v>
+        <v>1376256</v>
       </c>
       <c r="AF27" s="1">
         <f t="shared" si="17"/>
-        <v>1900547</v>
+        <v>1376256</v>
       </c>
       <c r="AG27" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1D0003</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="P28" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="99"/>
@@ -2953,23 +2890,23 @@
       </c>
       <c r="AE28" s="1">
         <f t="shared" si="16"/>
-        <v>1900544</v>
+        <v>1441792</v>
       </c>
       <c r="AF28" s="1">
         <f t="shared" si="17"/>
-        <v>1900546</v>
+        <v>1441792</v>
       </c>
       <c r="AG28" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1D0002</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="P29" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="98"/>
@@ -3029,30 +2966,30 @@
       </c>
       <c r="AE29" s="1">
         <f t="shared" si="16"/>
-        <v>1310720</v>
+        <v>1507328</v>
       </c>
       <c r="AF29" s="1">
         <f t="shared" si="17"/>
-        <v>1310720</v>
+        <v>1507328</v>
       </c>
       <c r="AG29" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>140000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="1">
         <f t="shared" ref="Q30" si="128">B30*B$1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <f t="shared" ref="R30" si="129">C30*C$1</f>
@@ -3084,7 +3021,7 @@
       </c>
       <c r="Y30" s="1">
         <f t="shared" ref="Y30" si="136">J30*J$1</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z30" s="1">
         <f t="shared" ref="Z30" si="137">K30*K$1</f>
@@ -3108,30 +3045,33 @@
       </c>
       <c r="AE30" s="1">
         <f t="shared" ref="AE30" si="142">P30*P$1</f>
-        <v>131072</v>
+        <v>1572864</v>
       </c>
       <c r="AF30" s="1">
         <f t="shared" ref="AF30" si="143">SUM(Q30:AE30)</f>
-        <v>131074</v>
+        <v>1573120</v>
       </c>
       <c r="AG30" s="1" t="str">
         <f t="shared" ref="AG30" si="144">DEC2HEX(AF30)</f>
-        <v>20002</v>
+        <v>180100</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
+        <v>86</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="99"/>
@@ -3155,7 +3095,7 @@
       </c>
       <c r="W31" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="105"/>
@@ -3163,7 +3103,7 @@
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="107"/>
@@ -3187,23 +3127,26 @@
       </c>
       <c r="AE31" s="1">
         <f t="shared" ref="AE31:AE84" si="146">P31*P$1</f>
-        <v>131072</v>
+        <v>1572864</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="17"/>
-        <v>131073</v>
+        <v>1574144</v>
       </c>
       <c r="AG31" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>20001</v>
+        <v>180500</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
       </c>
       <c r="P32" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="98"/>
@@ -3235,7 +3178,7 @@
       </c>
       <c r="X32" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y32" s="1">
         <f t="shared" si="106"/>
@@ -3263,27 +3206,33 @@
       </c>
       <c r="AE32" s="1">
         <f t="shared" si="146"/>
-        <v>720896</v>
+        <v>1572864</v>
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="17"/>
-        <v>720896</v>
+        <v>1573376</v>
       </c>
       <c r="AG32" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>B0000</v>
+        <v>180200</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
       </c>
       <c r="P33" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="99"/>
@@ -3295,7 +3244,7 @@
       </c>
       <c r="T33" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="102"/>
@@ -3339,23 +3288,26 @@
       </c>
       <c r="AE33" s="1">
         <f t="shared" si="146"/>
-        <v>917504</v>
+        <v>1638400</v>
       </c>
       <c r="AF33" s="1">
         <f t="shared" si="17"/>
-        <v>917504</v>
+        <v>1646593</v>
       </c>
       <c r="AG33" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>E0000</v>
+        <v>192001</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
       </c>
       <c r="P34" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="98"/>
@@ -3371,7 +3323,7 @@
       </c>
       <c r="T34" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="102"/>
@@ -3415,23 +3367,23 @@
       </c>
       <c r="AE34" s="1">
         <f t="shared" si="146"/>
-        <v>851968</v>
+        <v>1638400</v>
       </c>
       <c r="AF34" s="1">
         <f t="shared" si="17"/>
-        <v>851968</v>
+        <v>1646592</v>
       </c>
       <c r="AG34" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>D0000</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="P35" s="1">
+        <v>26</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="98"/>
@@ -3459,7 +3411,7 @@
       </c>
       <c r="W35" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X35" s="1">
         <f t="shared" si="105"/>
@@ -3491,26 +3443,29 @@
       </c>
       <c r="AE35" s="1">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>1703936</v>
       </c>
       <c r="AF35" s="1">
         <f t="shared" si="17"/>
-        <v>1024</v>
+        <v>1703936</v>
       </c>
       <c r="AG35" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>400</v>
+        <v>1A0000</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" s="1">
         <v>1</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>27</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" ref="Q36" si="147">B36*B$1</f>
@@ -3570,29 +3525,29 @@
       </c>
       <c r="AE36" s="1">
         <f t="shared" ref="AE36" si="161">P36*P$1</f>
-        <v>0</v>
+        <v>1769472</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" ref="AF36" si="162">SUM(Q36:AE36)</f>
-        <v>1056</v>
+        <v>1770528</v>
       </c>
       <c r="AG36" s="1" t="str">
         <f t="shared" ref="AG36" si="163">DEC2HEX(AF36)</f>
-        <v>420</v>
+        <v>1B0420</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
       </c>
-      <c r="M37" s="1">
+      <c r="J37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="98"/>
@@ -3628,7 +3583,7 @@
       </c>
       <c r="Y37" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z37" s="1">
         <f t="shared" si="107"/>
@@ -3640,7 +3595,7 @@
       </c>
       <c r="AB37" s="1">
         <f t="shared" si="109"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="1">
         <f t="shared" si="110"/>
@@ -3652,26 +3607,26 @@
       </c>
       <c r="AE37" s="1">
         <f t="shared" si="146"/>
-        <v>1769472</v>
+        <v>1835008</v>
       </c>
       <c r="AF37" s="1">
         <f t="shared" si="17"/>
-        <v>1770528</v>
+        <v>1836288</v>
       </c>
       <c r="AG37" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1B0420</v>
+        <v>1C0500</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>28</v>
       </c>
       <c r="Q38" s="1">
         <f t="shared" ref="Q38" si="164">B38*B$1</f>
@@ -3699,7 +3654,7 @@
       </c>
       <c r="W38" s="1">
         <f t="shared" ref="W38" si="170">H38*H$1</f>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1">
         <f t="shared" ref="X38" si="171">I38*I$1</f>
@@ -3711,7 +3666,7 @@
       </c>
       <c r="Z38" s="1">
         <f t="shared" ref="Z38" si="173">K38*K$1</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" ref="AA38" si="174">L38*L$1</f>
@@ -3723,7 +3678,7 @@
       </c>
       <c r="AC38" s="1">
         <f t="shared" ref="AC38" si="176">N38*N$1</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="1">
         <f t="shared" ref="AD38" si="177">O38*O$1</f>
@@ -3731,27 +3686,30 @@
       </c>
       <c r="AE38" s="1">
         <f t="shared" ref="AE38" si="178">P38*P$1</f>
-        <v>0</v>
+        <v>1835008</v>
       </c>
       <c r="AF38" s="1">
         <f t="shared" ref="AF38" si="179">SUM(Q38:AE38)</f>
-        <v>1040</v>
+        <v>1835136</v>
       </c>
       <c r="AG38" s="1" t="str">
         <f t="shared" ref="AG38" si="180">DEC2HEX(AF38)</f>
-        <v>410</v>
+        <v>1C0080</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <f t="shared" si="99"/>
@@ -3807,27 +3765,30 @@
       </c>
       <c r="AE39" s="1">
         <f t="shared" si="146"/>
-        <v>1703936</v>
+        <v>1900544</v>
       </c>
       <c r="AF39" s="1">
         <f t="shared" si="17"/>
-        <v>1703936</v>
+        <v>1900545</v>
       </c>
       <c r="AG39" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1A0000</v>
+        <v>1D0001</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
       </c>
       <c r="P40" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q40" s="1">
         <f t="shared" ref="Q40" si="181">B40*B$1</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R40" s="1">
         <f t="shared" ref="R40" si="182">C40*C$1</f>
@@ -3883,27 +3844,30 @@
       </c>
       <c r="AE40" s="1">
         <f t="shared" ref="AE40" si="195">P40*P$1</f>
-        <v>1245184</v>
+        <v>1900544</v>
       </c>
       <c r="AF40" s="1">
         <f t="shared" ref="AF40" si="196">SUM(Q40:AE40)</f>
-        <v>1245184</v>
+        <v>1900547</v>
       </c>
       <c r="AG40" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>130000</v>
+        <v>1D0003</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
       </c>
       <c r="P41" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R41" s="1">
         <f t="shared" si="99"/>
@@ -3959,23 +3923,26 @@
       </c>
       <c r="AE41" s="1">
         <f t="shared" si="146"/>
-        <v>2031616</v>
+        <v>1900544</v>
       </c>
       <c r="AF41" s="1">
         <f t="shared" si="17"/>
-        <v>2031616</v>
+        <v>1900546</v>
       </c>
       <c r="AG41" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1F0000</v>
+        <v>1D0002</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>91</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
       </c>
       <c r="P42" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="1">
         <f t="shared" ref="Q42" si="197">B42*B$1</f>
@@ -3991,7 +3958,7 @@
       </c>
       <c r="T42" s="1">
         <f t="shared" ref="T42" si="200">E42*E$1</f>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" ref="U42" si="201">F42*F$1</f>
@@ -4035,23 +4002,23 @@
       </c>
       <c r="AE42" s="1">
         <f t="shared" ref="AE42" si="211">P42*P$1</f>
-        <v>589824</v>
+        <v>1966080</v>
       </c>
       <c r="AF42" s="1">
         <f t="shared" ref="AF42" si="212">SUM(Q42:AE42)</f>
-        <v>589824</v>
+        <v>1974272</v>
       </c>
       <c r="AG42" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>90000</v>
+        <v>1E2000</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="P43" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="98"/>
@@ -4111,22 +4078,28 @@
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="146"/>
-        <v>655360</v>
+        <v>2031616</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="17"/>
-        <v>655360</v>
+        <v>2031616</v>
       </c>
       <c r="AG43" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A0000</v>
+        <v>1F0000</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="1">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
         <v>1</v>
       </c>
       <c r="Q44" s="1">
@@ -4159,11 +4132,11 @@
       </c>
       <c r="X44" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y44" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z44" s="1">
         <f t="shared" si="107"/>
@@ -4175,7 +4148,7 @@
       </c>
       <c r="AB44" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC44" s="1">
         <f t="shared" si="110"/>
@@ -4187,37 +4160,40 @@
       </c>
       <c r="AE44" s="1">
         <f t="shared" si="146"/>
-        <v>65536</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="1">
         <f t="shared" si="17"/>
-        <v>65536</v>
+        <v>800</v>
       </c>
       <c r="AG44" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>10000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B45" s="1">
-        <v>2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
         <v>1</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R45" s="1">
         <f t="shared" si="99"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1">
         <f t="shared" si="100"/>
@@ -4225,7 +4201,7 @@
       </c>
       <c r="T45" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U45" s="1">
         <f t="shared" si="102"/>
@@ -4241,11 +4217,11 @@
       </c>
       <c r="X45" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y45" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z45" s="1">
         <f t="shared" si="107"/>
@@ -4257,7 +4233,7 @@
       </c>
       <c r="AB45" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC45" s="1">
         <f t="shared" si="110"/>
@@ -4273,30 +4249,36 @@
       </c>
       <c r="AF45" s="1">
         <f t="shared" si="17"/>
-        <v>40962</v>
+        <v>805</v>
       </c>
       <c r="AG45" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A002</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
         <v>1</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <f t="shared" si="99"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S46" s="1">
         <f t="shared" si="100"/>
@@ -4316,15 +4298,15 @@
       </c>
       <c r="W46" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X46" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y46" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z46" s="1">
         <f t="shared" si="107"/>
@@ -4336,7 +4318,7 @@
       </c>
       <c r="AB46" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC46" s="1">
         <f t="shared" si="110"/>
@@ -4352,26 +4334,26 @@
       </c>
       <c r="AF46" s="1">
         <f t="shared" si="17"/>
-        <v>32770</v>
+        <v>1824</v>
       </c>
       <c r="AG46" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8002</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" ref="Q47" si="213">B47*B$1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" ref="R47" si="214">C47*C$1</f>
@@ -4431,26 +4413,23 @@
       </c>
       <c r="AF47" s="1">
         <f t="shared" ref="AF47" si="228">SUM(Q47:AE47)</f>
-        <v>32771</v>
+        <v>32772</v>
       </c>
       <c r="AG47" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8003</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="L48" s="1">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1">
         <v>1</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <f t="shared" si="99"/>
@@ -4482,7 +4461,7 @@
       </c>
       <c r="Y48" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z48" s="1">
         <f t="shared" si="107"/>
@@ -4490,7 +4469,7 @@
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="108"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="1">
         <f t="shared" si="109"/>
@@ -4510,21 +4489,21 @@
       </c>
       <c r="AF48" s="1">
         <f t="shared" si="17"/>
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="AG48" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
+        <v>19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
         <v>1</v>
       </c>
       <c r="Q49" s="1">
@@ -4553,7 +4532,7 @@
       </c>
       <c r="W49" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X49" s="1">
         <f t="shared" si="105"/>
@@ -4561,7 +4540,7 @@
       </c>
       <c r="Y49" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z49" s="1">
         <f t="shared" si="107"/>
@@ -4569,11 +4548,11 @@
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="108"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="1">
         <f t="shared" si="109"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="1">
         <f t="shared" si="110"/>
@@ -4589,26 +4568,29 @@
       </c>
       <c r="AF49" s="1">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>1280</v>
       </c>
       <c r="AG49" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="L50" s="1">
+        <v>100</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
         <v>1</v>
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" s="1">
         <f t="shared" ref="R50" si="229">C50*C$1</f>
@@ -4632,15 +4614,15 @@
       </c>
       <c r="W50" s="1">
         <f t="shared" ref="W50" si="234">H50*H$1</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X50" s="1">
         <f t="shared" ref="X50" si="235">I50*I$1</f>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y50" s="1">
         <f t="shared" ref="Y50" si="236">J50*J$1</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z50" s="1">
         <f t="shared" ref="Z50" si="237">K50*K$1</f>
@@ -4648,7 +4630,7 @@
       </c>
       <c r="AA50" s="1">
         <f t="shared" ref="AA50" si="238">L50*L$1</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="1">
         <f t="shared" ref="AB50" si="239">M50*M$1</f>
@@ -4668,29 +4650,23 @@
       </c>
       <c r="AF50" s="1">
         <f t="shared" ref="AF50" si="243">SUM(Q50:AE50)</f>
-        <v>65</v>
+        <v>1792</v>
       </c>
       <c r="AG50" s="1" t="str">
         <f t="shared" ref="AG50" si="244">DEC2HEX(AF50)</f>
-        <v>41</v>
+        <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1</v>
-      </c>
-      <c r="L51" s="1">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="Q51" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="1">
         <f t="shared" si="99"/>
@@ -4714,11 +4690,11 @@
       </c>
       <c r="W51" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X51" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y51" s="1">
         <f t="shared" si="106"/>
@@ -4730,7 +4706,7 @@
       </c>
       <c r="AA51" s="1">
         <f t="shared" si="108"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="1">
         <f t="shared" si="109"/>
@@ -4750,29 +4726,26 @@
       </c>
       <c r="AF51" s="1">
         <f t="shared" si="17"/>
-        <v>1089</v>
+        <v>512</v>
       </c>
       <c r="AG51" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>441</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
         <v>1</v>
       </c>
       <c r="Q52" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <f t="shared" si="99"/>
@@ -4784,11 +4757,11 @@
       </c>
       <c r="T52" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U52" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V52" s="1">
         <f t="shared" si="103"/>
@@ -4800,11 +4773,11 @@
       </c>
       <c r="X52" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y52" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z52" s="1">
         <f t="shared" si="107"/>
@@ -4832,26 +4805,26 @@
       </c>
       <c r="AF52" s="1">
         <f t="shared" si="17"/>
-        <v>12290</v>
+        <v>768</v>
       </c>
       <c r="AG52" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3002</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="Q53" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" s="1">
         <f t="shared" si="99"/>
@@ -4863,7 +4836,7 @@
       </c>
       <c r="T53" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U53" s="1">
         <f t="shared" si="102"/>
@@ -4875,11 +4848,11 @@
       </c>
       <c r="W53" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X53" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y53" s="1">
         <f t="shared" si="106"/>
@@ -4911,26 +4884,26 @@
       </c>
       <c r="AF53" s="1">
         <f t="shared" si="17"/>
-        <v>8194</v>
+        <v>1536</v>
       </c>
       <c r="AG53" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>2002</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
+        <v>12</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1">
         <v>1</v>
       </c>
       <c r="Q54" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" s="1">
         <f t="shared" si="99"/>
@@ -4946,7 +4919,7 @@
       </c>
       <c r="U54" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="103"/>
@@ -4958,7 +4931,7 @@
       </c>
       <c r="X54" s="1">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="Y54" s="1">
         <f t="shared" si="106"/>
@@ -4978,7 +4951,7 @@
       </c>
       <c r="AC54" s="1">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD54" s="1">
         <f t="shared" si="145"/>
@@ -4990,29 +4963,23 @@
       </c>
       <c r="AF54" s="1">
         <f t="shared" si="17"/>
-        <v>4098</v>
+        <v>528</v>
       </c>
       <c r="AG54" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1002</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1">
         <v>1</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="99"/>
@@ -5024,11 +4991,11 @@
       </c>
       <c r="T55" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="103"/>
@@ -5036,7 +5003,7 @@
       </c>
       <c r="W55" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="105"/>
@@ -5072,26 +5039,26 @@
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="17"/>
-        <v>12289</v>
+        <v>1024</v>
       </c>
       <c r="AG55" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3001</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
+        <v>9</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
         <v>1</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" ref="Q56" si="245">B56*B$1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="1">
         <f t="shared" ref="R56" si="246">C56*C$1</f>
@@ -5103,7 +5070,7 @@
       </c>
       <c r="T56" s="1">
         <f t="shared" ref="T56" si="248">E56*E$1</f>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
         <f t="shared" ref="U56" si="249">F56*F$1</f>
@@ -5115,7 +5082,7 @@
       </c>
       <c r="W56" s="1">
         <f t="shared" ref="W56" si="251">H56*H$1</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X56" s="1">
         <f t="shared" ref="X56" si="252">I56*I$1</f>
@@ -5135,7 +5102,7 @@
       </c>
       <c r="AB56" s="1">
         <f t="shared" ref="AB56" si="256">M56*M$1</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC56" s="1">
         <f t="shared" ref="AC56" si="257">N56*N$1</f>
@@ -5151,26 +5118,26 @@
       </c>
       <c r="AF56" s="1">
         <f t="shared" ref="AF56" si="260">SUM(Q56:AE56)</f>
-        <v>8193</v>
+        <v>1056</v>
       </c>
       <c r="AG56" s="1" t="str">
         <f t="shared" ref="AG56" si="261">DEC2HEX(AF56)</f>
-        <v>2001</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
         <v>1</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
         <f t="shared" si="99"/>
@@ -5186,7 +5153,7 @@
       </c>
       <c r="U57" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V57" s="1">
         <f t="shared" si="103"/>
@@ -5194,7 +5161,7 @@
       </c>
       <c r="W57" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X57" s="1">
         <f t="shared" si="105"/>
@@ -5218,7 +5185,7 @@
       </c>
       <c r="AC57" s="1">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD57" s="1">
         <f t="shared" si="145"/>
@@ -5230,27 +5197,33 @@
       </c>
       <c r="AF57" s="1">
         <f t="shared" si="17"/>
-        <v>4097</v>
+        <v>1040</v>
       </c>
       <c r="AG57" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1001</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B58" s="1">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="98"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R58" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S58" s="1">
         <f t="shared" si="100"/>
@@ -5258,7 +5231,7 @@
       </c>
       <c r="T58" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U58" s="1">
         <f t="shared" si="102"/>
@@ -5306,33 +5279,30 @@
       </c>
       <c r="AF58" s="1">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>40962</v>
       </c>
       <c r="AG58" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>7</v>
+        <v>A002</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="Q59" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R59" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S59" s="1">
         <f t="shared" si="100"/>
@@ -5340,11 +5310,11 @@
       </c>
       <c r="T59" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1">
         <f t="shared" si="102"/>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V59" s="1">
         <f t="shared" si="103"/>
@@ -5388,27 +5358,30 @@
       </c>
       <c r="AF59" s="1">
         <f t="shared" si="17"/>
-        <v>12291</v>
+        <v>32770</v>
       </c>
       <c r="AG59" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>3003</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="1">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="Q60" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S60" s="1">
         <f t="shared" si="100"/>
@@ -5440,7 +5413,7 @@
       </c>
       <c r="Z60" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="1">
         <f t="shared" si="108"/>
@@ -5464,26 +5437,26 @@
       </c>
       <c r="AF60" s="1">
         <f t="shared" si="17"/>
-        <v>128</v>
+        <v>32771</v>
       </c>
       <c r="AG60" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>80</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
+        <v>27</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
         <v>1</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" s="1">
         <f t="shared" si="99"/>
@@ -5507,7 +5480,7 @@
       </c>
       <c r="W61" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1">
         <f t="shared" si="105"/>
@@ -5519,11 +5492,11 @@
       </c>
       <c r="Z61" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB61" s="1">
         <f t="shared" si="109"/>
@@ -5543,22 +5516,22 @@
       </c>
       <c r="AF61" s="1">
         <f t="shared" si="17"/>
-        <v>1152</v>
+        <v>66</v>
       </c>
       <c r="AG61" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>480</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-      <c r="P62" s="1">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1</v>
       </c>
       <c r="Q62" s="1">
         <f t="shared" si="98"/>
@@ -5598,15 +5571,15 @@
       </c>
       <c r="Z62" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB62" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC62" s="1">
         <f t="shared" si="110"/>
@@ -5618,30 +5591,30 @@
       </c>
       <c r="AE62" s="1">
         <f t="shared" si="146"/>
-        <v>1835008</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="1">
         <f t="shared" si="17"/>
-        <v>1835136</v>
+        <v>96</v>
       </c>
       <c r="AG62" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>1C0080</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1">
+        <v>28</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
         <v>1</v>
       </c>
       <c r="Q63" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
         <f t="shared" si="99"/>
@@ -5677,15 +5650,15 @@
       </c>
       <c r="Z63" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB63" s="1">
         <f t="shared" si="109"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="1">
         <f t="shared" si="110"/>
@@ -5701,23 +5674,29 @@
       </c>
       <c r="AF63" s="1">
         <f t="shared" si="17"/>
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AG63" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64" s="1">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
       </c>
       <c r="Q64" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" s="1">
         <f t="shared" si="99"/>
@@ -5741,7 +5720,7 @@
       </c>
       <c r="W64" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X64" s="1">
         <f t="shared" si="105"/>
@@ -5757,7 +5736,7 @@
       </c>
       <c r="AA64" s="1">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AB64" s="1">
         <f t="shared" si="109"/>
@@ -5773,27 +5752,33 @@
       </c>
       <c r="AE64" s="1">
         <f t="shared" si="146"/>
-        <v>1441792</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="1">
         <f t="shared" si="17"/>
-        <v>1441792</v>
+        <v>1089</v>
       </c>
       <c r="AG64" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>160000</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P65" s="1">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
       </c>
       <c r="Q65" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65" s="1">
         <f t="shared" si="99"/>
@@ -5805,11 +5790,11 @@
       </c>
       <c r="T65" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U65" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V65" s="1">
         <f t="shared" si="103"/>
@@ -5849,30 +5834,30 @@
       </c>
       <c r="AE65" s="1">
         <f t="shared" si="146"/>
-        <v>1114112</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="1">
         <f t="shared" si="17"/>
-        <v>1114112</v>
+        <v>12290</v>
       </c>
       <c r="AG65" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>110000</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1">
-        <v>1</v>
-      </c>
-      <c r="P66" s="1">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
       </c>
       <c r="Q66" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R66" s="1">
         <f t="shared" si="99"/>
@@ -5884,7 +5869,7 @@
       </c>
       <c r="T66" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U66" s="1">
         <f t="shared" si="102"/>
@@ -5928,30 +5913,30 @@
       </c>
       <c r="AE66" s="1">
         <f t="shared" si="146"/>
-        <v>983040</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="1">
         <f t="shared" si="17"/>
-        <v>983041</v>
+        <v>8194</v>
       </c>
       <c r="AG66" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1">
-        <v>3</v>
-      </c>
-      <c r="P67" s="1">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
       </c>
       <c r="Q67" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R67" s="1">
         <f t="shared" si="99"/>
@@ -5967,7 +5952,7 @@
       </c>
       <c r="U67" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V67" s="1">
         <f t="shared" si="103"/>
@@ -6007,33 +5992,33 @@
       </c>
       <c r="AE67" s="1">
         <f t="shared" si="146"/>
-        <v>983040</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="1">
         <f t="shared" si="17"/>
-        <v>983043</v>
+        <v>4098</v>
       </c>
       <c r="AG67" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>F0003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
         <v>1</v>
       </c>
       <c r="Q68" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68" s="1">
         <f t="shared" si="99"/>
@@ -6041,7 +6026,7 @@
       </c>
       <c r="S68" s="1">
         <f t="shared" si="100"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T68" s="1">
         <f t="shared" si="101"/>
@@ -6049,7 +6034,7 @@
       </c>
       <c r="U68" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V68" s="1">
         <f t="shared" si="103"/>
@@ -6093,21 +6078,18 @@
       </c>
       <c r="AF68" s="1">
         <f t="shared" si="17"/>
-        <v>24578</v>
+        <v>12289</v>
       </c>
       <c r="AG68" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6002</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
-      </c>
-      <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="1">
@@ -6115,7 +6097,7 @@
       </c>
       <c r="Q69" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
         <f t="shared" si="99"/>
@@ -6123,7 +6105,7 @@
       </c>
       <c r="S69" s="1">
         <f t="shared" si="100"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1">
         <f t="shared" si="101"/>
@@ -6175,26 +6157,26 @@
       </c>
       <c r="AF69" s="1">
         <f t="shared" si="17"/>
-        <v>24579</v>
+        <v>8193</v>
       </c>
       <c r="AG69" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>6003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
         <v>1</v>
       </c>
       <c r="Q70" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1">
         <f t="shared" si="99"/>
@@ -6202,7 +6184,7 @@
       </c>
       <c r="S70" s="1">
         <f t="shared" si="100"/>
-        <v>16384</v>
+        <v>0</v>
       </c>
       <c r="T70" s="1">
         <f t="shared" si="101"/>
@@ -6210,7 +6192,7 @@
       </c>
       <c r="U70" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V70" s="1">
         <f t="shared" si="103"/>
@@ -6254,33 +6236,27 @@
       </c>
       <c r="AF70" s="1">
         <f t="shared" si="17"/>
-        <v>16386</v>
+        <v>4097</v>
       </c>
       <c r="AG70" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>4002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q71" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R71" s="1">
         <f t="shared" si="99"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S71" s="1">
         <f t="shared" si="100"/>
@@ -6288,7 +6264,7 @@
       </c>
       <c r="T71" s="1">
         <f t="shared" si="101"/>
-        <v>8192</v>
+        <v>0</v>
       </c>
       <c r="U71" s="1">
         <f t="shared" si="102"/>
@@ -6336,30 +6312,33 @@
       </c>
       <c r="AF71" s="1">
         <f t="shared" si="17"/>
-        <v>40961</v>
+        <v>7</v>
       </c>
       <c r="AG71" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>A001</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B72" s="1">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
         <v>1</v>
       </c>
       <c r="Q72" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R72" s="1">
         <f t="shared" si="99"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S72" s="1">
         <f t="shared" si="100"/>
@@ -6367,11 +6346,11 @@
       </c>
       <c r="T72" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U72" s="1">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V72" s="1">
         <f t="shared" si="103"/>
@@ -6415,19 +6394,19 @@
       </c>
       <c r="AF72" s="1">
         <f t="shared" si="17"/>
-        <v>32769</v>
+        <v>12291</v>
       </c>
       <c r="AG72" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8001</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P73" s="1">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
       </c>
       <c r="Q73" s="1">
         <f t="shared" si="98"/>
@@ -6467,7 +6446,7 @@
       </c>
       <c r="Z73" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA73" s="1">
         <f t="shared" si="108"/>
@@ -6487,30 +6466,30 @@
       </c>
       <c r="AE73" s="1">
         <f t="shared" si="146"/>
-        <v>196608</v>
+        <v>0</v>
       </c>
       <c r="AF73" s="1">
         <f t="shared" si="17"/>
-        <v>196608</v>
+        <v>128</v>
       </c>
       <c r="AG73" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>30000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="1">
-        <v>2</v>
-      </c>
-      <c r="P74" s="1">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
       </c>
       <c r="Q74" s="1">
         <f t="shared" ref="Q74" si="262">B74*B$1</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <f t="shared" ref="R74" si="263">C74*C$1</f>
@@ -6534,7 +6513,7 @@
       </c>
       <c r="W74" s="1">
         <f t="shared" ref="W74" si="268">H74*H$1</f>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X74" s="1">
         <f t="shared" ref="X74" si="269">I74*I$1</f>
@@ -6546,7 +6525,7 @@
       </c>
       <c r="Z74" s="1">
         <f t="shared" ref="Z74" si="271">K74*K$1</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA74" s="1">
         <f t="shared" ref="AA74" si="272">L74*L$1</f>
@@ -6566,30 +6545,30 @@
       </c>
       <c r="AE74" s="1">
         <f t="shared" ref="AE74" si="276">P74*P$1</f>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF74" s="1">
         <f t="shared" ref="AF74" si="277">SUM(Q74:AE74)</f>
-        <v>262146</v>
+        <v>1152</v>
       </c>
       <c r="AG74" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40002</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1</v>
-      </c>
-      <c r="P75" s="1">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1</v>
       </c>
       <c r="Q75" s="1">
         <f t="shared" si="98"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <f t="shared" si="99"/>
@@ -6625,7 +6604,7 @@
       </c>
       <c r="Z75" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA75" s="1">
         <f t="shared" si="108"/>
@@ -6633,7 +6612,7 @@
       </c>
       <c r="AB75" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC75" s="1">
         <f t="shared" si="110"/>
@@ -6645,30 +6624,33 @@
       </c>
       <c r="AE75" s="1">
         <f t="shared" si="146"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="1">
         <f t="shared" si="17"/>
-        <v>262145</v>
+        <v>160</v>
       </c>
       <c r="AG75" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40001</v>
+        <v>A0</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1">
-        <v>3</v>
-      </c>
-      <c r="P76" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
       </c>
       <c r="Q76" s="1">
         <f t="shared" si="98"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R76" s="1">
         <f t="shared" si="99"/>
@@ -6676,11 +6658,11 @@
       </c>
       <c r="S76" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T76" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U76" s="1">
         <f t="shared" si="102"/>
@@ -6724,33 +6706,33 @@
       </c>
       <c r="AE76" s="1">
         <f t="shared" si="146"/>
-        <v>262144</v>
+        <v>0</v>
       </c>
       <c r="AF76" s="1">
         <f t="shared" si="17"/>
-        <v>262147</v>
+        <v>24578</v>
       </c>
       <c r="AG76" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40003</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1">
-        <v>1</v>
-      </c>
-      <c r="O77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="Q77" s="1">
         <f t="shared" ref="Q77" si="278">B77*B$1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R77" s="1">
         <f t="shared" ref="R77" si="279">C77*C$1</f>
@@ -6758,11 +6740,11 @@
       </c>
       <c r="S77" s="1">
         <f t="shared" ref="S77" si="280">D77*D$1</f>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T77" s="1">
         <f t="shared" ref="T77" si="281">E77*E$1</f>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U77" s="1">
         <f t="shared" ref="U77" si="282">F77*F$1</f>
@@ -6782,7 +6764,7 @@
       </c>
       <c r="Y77" s="1">
         <f t="shared" ref="Y77" si="286">J77*J$1</f>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="1">
         <f t="shared" ref="Z77" si="287">K77*K$1</f>
@@ -6802,7 +6784,7 @@
       </c>
       <c r="AD77" s="1">
         <f t="shared" ref="AD77" si="291">O77*O$1</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="1">
         <f t="shared" ref="AE77" si="292">P77*P$1</f>
@@ -6810,24 +6792,21 @@
       </c>
       <c r="AF77" s="1">
         <f t="shared" ref="AF77" si="293">SUM(Q77:AE77)</f>
-        <v>265</v>
+        <v>24579</v>
       </c>
       <c r="AG77" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>109</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
       </c>
-      <c r="J78" s="1">
-        <v>1</v>
-      </c>
-      <c r="O78" s="1">
+      <c r="D78" s="1">
         <v>1</v>
       </c>
       <c r="Q78" s="1">
@@ -6840,7 +6819,7 @@
       </c>
       <c r="S78" s="1">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>16384</v>
       </c>
       <c r="T78" s="1">
         <f t="shared" si="101"/>
@@ -6864,7 +6843,7 @@
       </c>
       <c r="Y78" s="1">
         <f t="shared" si="106"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="1">
         <f t="shared" si="107"/>
@@ -6884,7 +6863,7 @@
       </c>
       <c r="AD78" s="1">
         <f t="shared" si="145"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="1">
         <f t="shared" si="146"/>
@@ -6892,36 +6871,33 @@
       </c>
       <c r="AF78" s="1">
         <f t="shared" si="17"/>
-        <v>266</v>
+        <v>16386</v>
       </c>
       <c r="AG78" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>10A</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B79" s="1">
-        <v>2</v>
-      </c>
-      <c r="J79" s="1">
-        <v>1</v>
-      </c>
-      <c r="N79" s="1">
-        <v>1</v>
-      </c>
-      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
         <v>1</v>
       </c>
       <c r="Q79" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R79" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S79" s="1">
         <f t="shared" si="100"/>
@@ -6929,7 +6905,7 @@
       </c>
       <c r="T79" s="1">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="U79" s="1">
         <f t="shared" si="102"/>
@@ -6949,7 +6925,7 @@
       </c>
       <c r="Y79" s="1">
         <f t="shared" si="106"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="1">
         <f t="shared" si="107"/>
@@ -6965,11 +6941,11 @@
       </c>
       <c r="AC79" s="1">
         <f t="shared" si="110"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="1">
         <f t="shared" si="145"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="1">
         <f t="shared" si="146"/>
@@ -6977,33 +6953,30 @@
       </c>
       <c r="AF79" s="1">
         <f t="shared" si="17"/>
-        <v>282</v>
+        <v>40961</v>
       </c>
       <c r="AG79" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>11A</v>
+        <v>A001</v>
       </c>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
-      </c>
-      <c r="H80" s="1">
-        <v>1</v>
-      </c>
-      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="Q80" s="1">
         <f t="shared" si="98"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S80" s="1">
         <f t="shared" si="100"/>
@@ -7023,7 +6996,7 @@
       </c>
       <c r="W80" s="1">
         <f t="shared" si="104"/>
-        <v>1024</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1">
         <f t="shared" si="105"/>
@@ -7051,7 +7024,7 @@
       </c>
       <c r="AD80" s="1">
         <f t="shared" si="145"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="1">
         <f t="shared" si="146"/>
@@ -7059,21 +7032,21 @@
       </c>
       <c r="AF80" s="1">
         <f t="shared" si="17"/>
-        <v>1034</v>
+        <v>32769</v>
       </c>
       <c r="AG80" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>40A</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
-      <c r="K81" s="1">
+      <c r="J81" s="1">
         <v>1</v>
       </c>
       <c r="O81" s="1">
@@ -7113,11 +7086,11 @@
       </c>
       <c r="Y81" s="1">
         <f t="shared" ref="Y81" si="302">J81*J$1</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z81" s="1">
         <f t="shared" ref="Z81" si="303">K81*K$1</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="1">
         <f t="shared" ref="AA81" si="304">L81*L$1</f>
@@ -7141,21 +7114,21 @@
       </c>
       <c r="AF81" s="1">
         <f t="shared" ref="AF81" si="309">SUM(Q81:AE81)</f>
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="AG81" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="1">
         <v>2</v>
       </c>
-      <c r="K82" s="1">
+      <c r="J82" s="1">
         <v>1</v>
       </c>
       <c r="O82" s="1">
@@ -7195,11 +7168,11 @@
       </c>
       <c r="Y82" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z82" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA82" s="1">
         <f t="shared" si="108"/>
@@ -7223,21 +7196,21 @@
       </c>
       <c r="AF82" s="1">
         <f t="shared" si="17"/>
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="AG82" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8A</v>
+        <v>10A</v>
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1">
         <v>2</v>
       </c>
-      <c r="K83" s="1">
+      <c r="J83" s="1">
         <v>1</v>
       </c>
       <c r="N83" s="1">
@@ -7280,11 +7253,11 @@
       </c>
       <c r="Y83" s="1">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="Z83" s="1">
         <f t="shared" si="107"/>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="1">
         <f t="shared" si="108"/>
@@ -7308,23 +7281,29 @@
       </c>
       <c r="AF83" s="1">
         <f t="shared" si="17"/>
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="AG83" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>9A</v>
+        <v>11A</v>
       </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P84" s="1">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
       </c>
       <c r="Q84" s="1">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84" s="1">
         <f t="shared" si="99"/>
@@ -7348,7 +7327,7 @@
       </c>
       <c r="W84" s="1">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="X84" s="1">
         <f t="shared" si="105"/>
@@ -7376,38 +7355,41 @@
       </c>
       <c r="AD84" s="1">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE84" s="1">
         <f t="shared" si="146"/>
-        <v>1048576</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="1">
         <f t="shared" si="17"/>
-        <v>1048576</v>
+        <v>1034</v>
       </c>
       <c r="AG84" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>100000</v>
+        <v>40A</v>
       </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B85" s="1">
-        <v>5</v>
-      </c>
-      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85" s="1">
         <v>1</v>
       </c>
       <c r="Q85" s="1">
         <f t="shared" ref="Q85:Q86" si="310">B85*B$1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <f t="shared" ref="R85:R86" si="311">C85*C$1</f>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S85" s="1">
         <f t="shared" ref="S85:S86" si="312">D85*D$1</f>
@@ -7439,7 +7421,7 @@
       </c>
       <c r="Z85" s="1">
         <f t="shared" ref="Z85:Z86" si="319">K85*K$1</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA85" s="1">
         <f t="shared" ref="AA85:AA86" si="320">L85*L$1</f>
@@ -7455,7 +7437,7 @@
       </c>
       <c r="AD85" s="1">
         <f t="shared" ref="AD85:AD86" si="323">O85*O$1</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE85" s="1">
         <f t="shared" ref="AE85:AE86" si="324">P85*P$1</f>
@@ -7463,30 +7445,33 @@
       </c>
       <c r="AF85" s="1">
         <f t="shared" ref="AF85:AF86" si="325">SUM(Q85:AE85)</f>
-        <v>32773</v>
+        <v>137</v>
       </c>
       <c r="AG85" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>8005</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="B86" s="1">
-        <v>6</v>
-      </c>
-      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="O86" s="1">
         <v>1</v>
       </c>
       <c r="Q86" s="1">
         <f t="shared" si="310"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R86" s="1">
         <f t="shared" si="311"/>
-        <v>32768</v>
+        <v>0</v>
       </c>
       <c r="S86" s="1">
         <f t="shared" si="312"/>
@@ -7518,7 +7503,7 @@
       </c>
       <c r="Z86" s="1">
         <f t="shared" si="319"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA86" s="1">
         <f t="shared" si="320"/>
@@ -7534,7 +7519,7 @@
       </c>
       <c r="AD86" s="1">
         <f t="shared" si="323"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE86" s="1">
         <f t="shared" si="324"/>
@@ -7542,23 +7527,32 @@
       </c>
       <c r="AF86" s="1">
         <f t="shared" si="325"/>
-        <v>32774</v>
+        <v>138</v>
       </c>
       <c r="AG86" s="1" t="str">
         <f t="shared" ref="AG86:AG88" si="326">DEC2HEX(AF86)</f>
-        <v>8006</v>
+        <v>8A</v>
       </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P87" s="1">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
       </c>
       <c r="Q87" s="1">
         <f t="shared" ref="Q87" si="327">B87*B$1</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R87" s="1">
         <f t="shared" ref="R87:R88" si="328">C87*C$1</f>
@@ -7594,7 +7588,7 @@
       </c>
       <c r="Z87" s="1">
         <f t="shared" ref="Z87" si="336">K87*K$1</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AA87" s="1">
         <f t="shared" ref="AA87" si="337">L87*L$1</f>
@@ -7606,42 +7600,42 @@
       </c>
       <c r="AC87" s="1">
         <f t="shared" ref="AC87" si="339">N87*N$1</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD87" s="1">
         <f t="shared" ref="AD87" si="340">O87*O$1</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE87" s="1">
         <f t="shared" ref="AE87" si="341">P87*P$1</f>
-        <v>1507328</v>
+        <v>0</v>
       </c>
       <c r="AF87" s="1">
         <f t="shared" ref="AF87" si="342">SUM(Q87:AE87)</f>
-        <v>1507328</v>
+        <v>154</v>
       </c>
       <c r="AG87" s="1" t="str">
         <f t="shared" si="326"/>
-        <v>170000</v>
+        <v>9A</v>
       </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5</v>
+      </c>
+      <c r="C88" s="1">
         <v>1</v>
       </c>
       <c r="Q88" s="1">
         <f t="shared" ref="Q88" si="343">B88*B$1</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R88" s="1">
         <f t="shared" si="328"/>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S88" s="1">
         <f t="shared" ref="S88" si="344">D88*D$1</f>
@@ -7653,11 +7647,11 @@
       </c>
       <c r="U88" s="1">
         <f t="shared" ref="U88" si="346">F88*F$1</f>
-        <v>4096</v>
+        <v>0</v>
       </c>
       <c r="V88" s="1">
         <f t="shared" ref="V88" si="347">G88*G$1</f>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" ref="W88" si="348">H88*H$1</f>
@@ -7697,27 +7691,30 @@
       </c>
       <c r="AF88" s="1">
         <f t="shared" ref="AF88" si="357">SUM(Q88:AE88)</f>
-        <v>6144</v>
+        <v>32773</v>
       </c>
       <c r="AG88" s="1" t="str">
         <f t="shared" si="326"/>
-        <v>1800</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="1">
+        <v>75</v>
+      </c>
+      <c r="B89" s="1">
+        <v>6</v>
+      </c>
+      <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="Q89" s="1">
         <f t="shared" ref="Q89" si="358">B89*B$1</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R89" s="1">
         <f t="shared" ref="R89" si="359">C89*C$1</f>
-        <v>0</v>
+        <v>32768</v>
       </c>
       <c r="S89" s="1">
         <f t="shared" ref="S89" si="360">D89*D$1</f>
@@ -7733,7 +7730,7 @@
       </c>
       <c r="V89" s="1">
         <f t="shared" ref="V89" si="363">G89*G$1</f>
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" ref="W89" si="364">H89*H$1</f>
@@ -7773,19 +7770,22 @@
       </c>
       <c r="AF89" s="1">
         <f t="shared" ref="AF89" si="373">SUM(Q89:AE89)</f>
-        <v>2048</v>
+        <v>32774</v>
       </c>
       <c r="AG89" s="1" t="str">
         <f t="shared" ref="AG89" si="374">DEC2HEX(AF89)</f>
-        <v>800</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P90" s="1">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" ref="Q90" si="375">B90*B$1</f>
@@ -7805,11 +7805,11 @@
       </c>
       <c r="U90" s="1">
         <f t="shared" ref="U90" si="379">F90*F$1</f>
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" ref="V90" si="380">G90*G$1</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" ref="W90" si="381">H90*H$1</f>
@@ -7845,23 +7845,23 @@
       </c>
       <c r="AE90" s="1">
         <f t="shared" ref="AE90" si="389">P90*P$1</f>
-        <v>786432</v>
+        <v>0</v>
       </c>
       <c r="AF90" s="1">
         <f t="shared" ref="AF90" si="390">SUM(Q90:AE90)</f>
-        <v>786432</v>
+        <v>6144</v>
       </c>
       <c r="AG90" s="1" t="str">
         <f t="shared" ref="AG90" si="391">DEC2HEX(AF90)</f>
-        <v>C0000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P91" s="1">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
       </c>
       <c r="Q91" s="1">
         <f t="shared" ref="Q91" si="392">B91*B$1</f>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="V91" s="1">
         <f t="shared" ref="V91" si="397">G91*G$1</f>
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" ref="W91" si="398">H91*H$1</f>
@@ -7921,21 +7921,21 @@
       </c>
       <c r="AE91" s="1">
         <f t="shared" ref="AE91" si="406">P91*P$1</f>
-        <v>1179648</v>
+        <v>0</v>
       </c>
       <c r="AF91" s="1">
         <f t="shared" ref="AF91" si="407">SUM(Q91:AE91)</f>
-        <v>1179648</v>
+        <v>2048</v>
       </c>
       <c r="AG91" s="1" t="str">
         <f t="shared" ref="AG91" si="408">DEC2HEX(AF91)</f>
-        <v>120000</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P91" xr:uid="{DA935775-8D1E-4973-8D66-2775D912B1F8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P91">
-      <sortCondition ref="A2:A91"/>
+      <sortCondition ref="P2:P91"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
